--- a/Covid_19_Dataset_and_References/References/65.xlsx
+++ b/Covid_19_Dataset_and_References/References/65.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="137">
   <si>
     <t>Doi</t>
   </si>
@@ -584,6 +584,66 @@
   </si>
   <si>
     <t>[Xiaobo%Yang%NULL%0,  Yuan%Yu%NULL%0,  Jiqian%Xu%NULL%0,  Huaqing%Shu%NULL%0,  Jia'an%Xia%NULL%0,  Hong%Liu%NULL%0,  Yongran%Wu%NULL%0,  Lu%Zhang%NULL%0,  Zhui%Yu%NULL%0,  Minghao%Fang%NULL%0,  Ting%Yu%NULL%0,  Yaxin%Wang%NULL%0,  Shangwen%Pan%NULL%0,  Xiaojing%Zou%NULL%0,  Shiying%Yuan%NULL%0,  You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,   Justin J.%Choi%NULL%1,   Laura C.%Pinheiro%NULL%1,   Edward J.%Schenck%NULL%1,   Ruijun%Chen%NULL%0,   Assem%Jabri%NULL%1,   Michael J.%Satlin%NULL%1,   Thomas R.%Campion%NULL%1,   Musarrat%Nahid%NULL%1,   Joanna B.%Ringel%NULL%1,   Katherine L.%Hoffman%NULL%1,   Mark N.%Alshak%NULL%1,   Han A.%Li%NULL%1,   Graham T.%Wehmeyer%NULL%2,   Graham T.%Wehmeyer%NULL%0,   Mangala%Rajan%NULL%1,   Evgeniya%Reshetnyak%NULL%1,   Nathaniel%Hupert%NULL%1,   Evelyn M.%Horn%NULL%1,   Fernando J.%Martinez%NULL%1,   Roy M.%Gulick%NULL%1,   Monika M.%Safford%NULL%2,   Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,   Yeming%Wang%NULL%0,   Xingwang%Li%NULL%0,   Lili%Ren%NULL%0,   Jianping%Zhao%NULL%0,   Yi%Hu%NULL%0,   Li%Zhang%NULL%0,   Guohui%Fan%NULL%0,   Jiuyang%Xu%NULL%0,   Xiaoying%Gu%NULL%0,   Zhenshun%Cheng%NULL%0,   Ting%Yu%NULL%0,   Jiaan%Xia%NULL%0,   Yuan%Wei%NULL%0,   Wenjuan%Wu%NULL%0,   Xuelei%Xie%NULL%0,   Wen%Yin%NULL%0,   Hui%Li%NULL%0,   Min%Liu%NULL%0,   Yan%Xiao%NULL%0,   Hong%Gao%NULL%0,   Li%Guo%NULL%0,   Jungang%Xie%NULL%0,   Guangfa%Wang%NULL%0,   Rongmeng%Jiang%NULL%0,   Zhancheng%Gao%NULL%0,   Qi%Jin%NULL%0,   Jianwei%Wang%wangjw28@163.com%0,   Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,   Yi%Xiang%NULL%0,   Wei%Fang%NULL%0,   Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,   Boqun%Li%279685211@qq.com%0,   Boqun%Li%279685211@qq.com%0,   Yanjun%Hu%huyanjun@163.com%0,   Chunhui%Lang%NULL%0,   Daoqiu%Huang%NULL%0,   Qiuyan%Sun%NULL%0,   Yan%Xiong%NULL%0,   Xia%Huang%NULL%0,   Jinglong%Lv%NULL%0,   Yaling%Luo%NULL%0,   Li%Shen%NULL%0,   Haoran%Yang%NULL%0,   Gu%Huang%NULL%0,   Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,   Min%Pan%NULL%0,   Xiumei%Zhang%NULL%0,   Mingfeng%Han%fyhmf@163.com%0,   Xiaoyun%Fan%13956988552@126.com%0,   Fengde%Zhao%NULL%0,   Manli%Miao%NULL%0,   Jing%Xu%NULL%0,   Minglong%Guan%NULL%0,   Xia%Deng%NULL%0,   Xu%Chen%NULL%0,   Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,   Huan%Cai%NULL%0,   Jianhua%Hu%NULL%0,   Jiangshan%Lian%NULL%0,   Jueqing%Gu%NULL%0,   Shanyan%Zhang%NULL%0,   Chanyuan%Ye%NULL%0,   Yingfeng%Lu%NULL%0,   Ciliang%Jin%NULL%0,   Guodong%Yu%NULL%0,   Hongyu%Jia%NULL%0,   Yimin%Zhang%NULL%0,   Jifang%Sheng%jifang_sheng@zju.edu.cn%0,   Lanjuan%Li%ljli@zju.edu.cn%0,   Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%0,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%0,   Jie%Xiang%NULL%0,   Yeming%Wang%NULL%0,   Bin%Song%NULL%0,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%0,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%0,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%0,   Yi%Zhang%NULL%0,   Hua%Chen%NULL%0,   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0,   Nancy%Chow%NULL%0,   Katherine%Fleming-Dutra%NULL%1,   Ryan%Gierke%NULL%0,   Aron%Hall%NULL%0,   Michelle%Hughes%NULL%1,   Tamara%Pilishvili%NULL%0,   Matthew%Ritchey%NULL%0,   Katherine%Roguski%NULL%1,   Tami%Skoff%NULL%1,   Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,   Di%Wu%NULL%0,   Huilong%Chen%NULL%0,   Weiming%Yan%NULL%0,   Danlei%Yang%NULL%0,   Guang%Chen%NULL%0,   Ke%Ma%NULL%0,   Dong%Xu%NULL%0,   Haijing%Yu%NULL%0,   Hongwu%Wang%NULL%0,   Tao%Wang%NULL%0,   Wei%Guo%NULL%0,   Jia%Chen%NULL%0,   Chen%Ding%NULL%0,   Xiaoping%Zhang%NULL%0,   Jiaquan%Huang%NULL%0,   Meifang%Han%NULL%0,   Shusheng%Li%NULL%0,   Xiaoping%Luo%NULL%0,   Jianping%Zhao%NULL%0,   Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,   Zheng-yi%Ni%NULL%0,   Zheng-yi%Ni%NULL%0,   Yu%Hu%NULL%0,   Wen-hua%Liang%NULL%0,   Chun-quan%Ou%NULL%0,   Jian-xing%He%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chun-liang%Lei%NULL%0,   David S.C.%Hui%NULL%0,   Bin%Du%NULL%0,   Lan-juan%Li%NULL%0,   Guang%Zeng%NULL%0,   Kwok-Yung%Yuen%NULL%0,   Ru-chong%Chen%NULL%0,   Chun-li%Tang%NULL%0,   Tao%Wang%NULL%0,   Ping-yan%Chen%NULL%0,   Jie%Xiang%NULL%0,   Shi-yue%Li%NULL%0,   Jin-lin%Wang%NULL%0,   Zi-jing%Liang%NULL%0,   Yi-xiang%Peng%NULL%0,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Ya-hua%Hu%NULL%0,   Peng%Peng%NULL%0,   Jian-ming%Wang%NULL%0,   Ji-yang%Liu%NULL%0,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhi-jian%Zheng%NULL%0,   Shao-qin%Qiu%NULL%0,   Jie%Luo%NULL%0,   Chang-jiang%Ye%NULL%0,   Shao-yong%Zhu%NULL%0,   Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,   Shuyun%Xu%NULL%0,   Muqing%Yu%NULL%0,   Ke%Wang%NULL%0,   Yu%Tao%NULL%0,   Ying%Zhou%NULL%0,   Jing%Shi%NULL%0,   Min%Zhou%NULL%0,   Bo%Wu%NULL%0,   Zhenyu%Yang%NULL%0,   Cong%Zhang%NULL%0,   Junqing%Yue%NULL%0,   Zhiguo%Zhang%NULL%0,   Harald%Renz%NULL%0,   Xiansheng%Liu%NULL%0,   Jungang%Xie%NULL%0,   Min%Xie%NULL%0,   Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,  Cao%Yi-yuan%coreGivesNoEmail%1,  Dong%Xiang%coreGivesNoEmail%1,  Gao%Ya-dong%coreGivesNoEmail%1,  Yan%You-qin%coreGivesNoEmail%1,  Yang%Yi-bin%coreGivesNoEmail%1,  Yuan%Ya-dong%coreGivesNoEmail%1,  Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,   Yun%Ling%NULL%0,   Yun%Ling%NULL%0,   Tao%Bai%NULL%0,   Tao%Bai%NULL%0,   Yusang%Xie%NULL%0,   Jie%Huang%NULL%0,   Jie%Huang%NULL%0,   Jian%Li%NULL%0,   Weining%Xiong%NULL%0,   Dexiang%Yang%NULL%0,   Rong%Chen%NULL%0,   Fangying%Lu%NULL%0,   Yunfei%Lu%NULL%0,   Xuhui%Liu%NULL%0,   Yuqing%Chen%NULL%0,   Yuqing%Chen%NULL%0,   Xin%Li%NULL%0,   Yong%Li%NULL%0,   Hanssa Dwarka%Summah%NULL%0,   Huihuang%Lin%NULL%0,   Jiayang%Yan%NULL%0,   Min%Zhou%NULL%0,   Hongzhou%Lu%NULL%0,   Hongzhou%Lu%NULL%0,   Jieming%Qu%NULL%0,   Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,   Bum Sik%Chin%NULL%2,   Bum Sik%Chin%NULL%0,   Chang Kyung%Kang%NULL%0,   Chang Kyung%Kang%NULL%0,   Nam Joong%Kim%NULL%0,   Nam Joong%Kim%NULL%0,   Yu Min%Kang%NULL%0,   Yu Min%Kang%NULL%0,   Jae-Phil%Choi%NULL%2,   Jae-Phil%Choi%NULL%0,   Dong Hyun%Oh%NULL%2,   Dong Hyun%Oh%NULL%0,   Jeong-Han%Kim%NULL%2,   Jeong-Han%Kim%NULL%0,   Boram%Koh%NULL%2,   Boram%Koh%NULL%0,   Seong Eun%Kim%NULL%2,   Seong Eun%Kim%NULL%0,   Na Ra%Yun%NULL%2,   Na Ra%Yun%NULL%0,   Jae-Hoon%Lee%NULL%2,   Jae-Hoon%Lee%NULL%0,   Jin Yong%Kim%NULL%0,   Jin Yong%Kim%NULL%0,   Yeonjae%Kim%NULL%2,   Yeonjae%Kim%NULL%0,   Ji Hwan%Bang%NULL%2,   Ji Hwan%Bang%NULL%0,   Kyoung-Ho%Song%NULL%2,   Kyoung-Ho%Song%NULL%0,   Hong Bin%Kim%NULL%2,   Hong Bin%Kim%NULL%0,   Ki-hyun%Chung%NULL%2,   Ki-hyun%Chung%NULL%0,   Myoung-don%Oh%NULL%0,   Myoung-don%Oh%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,   Zhao-Wu%Tao%NULL%1,   Lei%Wang%NULL%1,   Ming-Li%Yuan%NULL%0,   Kui%Liu%NULL%0,   Ling%Zhou%NULL%0,   Shuang%Wei%NULL%0,   Yan%Deng%NULL%0,   Jing%Liu%NULL%1,   Hui-Guo%Liu%NULL%0,   Ming%Yang%NULL%1,   Yi%Hu%NULL%0,   Pei-Fang%Wei%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,   Xia%Yu%NULL%1,   Hong%Zhao%NULL%0,   Hao%Wang%NULL%1,   Ruihong%Zhao%NULL%1,   Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,   Yuan%Yu%NULL%0,   Jiqian%Xu%NULL%0,   Huaqing%Shu%NULL%0,   Jia'an%Xia%NULL%0,   Hong%Liu%NULL%0,   Yongran%Wu%NULL%0,   Lu%Zhang%NULL%0,   Zhui%Yu%NULL%0,   Minghao%Fang%NULL%0,   Ting%Yu%NULL%0,   Yaxin%Wang%NULL%0,   Shangwen%Pan%NULL%0,   Xiaojing%Zou%NULL%0,   Shiying%Yuan%NULL%0,   You%Shang%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -930,6 +990,9 @@
       <c r="H1" t="s">
         <v>29</v>
       </c>
+      <c r="I1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -945,7 +1008,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -955,6 +1018,9 @@
       </c>
       <c r="H2" t="s">
         <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3">
@@ -971,7 +1037,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -981,6 +1047,9 @@
       </c>
       <c r="H3" t="s">
         <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4">
@@ -997,7 +1066,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1007,6 +1076,9 @@
       </c>
       <c r="H4" t="s">
         <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5">
@@ -1023,7 +1095,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1033,6 +1105,9 @@
       </c>
       <c r="H5" t="s">
         <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6">
@@ -1049,7 +1124,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1059,6 +1134,9 @@
       </c>
       <c r="H6" t="s">
         <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7">
@@ -1075,7 +1153,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1085,6 +1163,9 @@
       </c>
       <c r="H7" t="s">
         <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8">
@@ -1101,7 +1182,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
@@ -1111,6 +1192,9 @@
       </c>
       <c r="H8" t="s">
         <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9">
@@ -1127,7 +1211,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1137,6 +1221,9 @@
       </c>
       <c r="H9" t="s">
         <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -1153,7 +1240,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1163,6 +1250,9 @@
       </c>
       <c r="H10" t="s">
         <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11">
@@ -1179,7 +1269,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1189,6 +1279,9 @@
       </c>
       <c r="H11" t="s">
         <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12">
@@ -1205,16 +1298,19 @@
         <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -1231,7 +1327,7 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -1241,6 +1337,9 @@
       </c>
       <c r="H13" t="s">
         <v>80</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -1257,7 +1356,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1267,6 +1366,9 @@
       </c>
       <c r="H14" t="s">
         <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="15">
@@ -1283,7 +1385,7 @@
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
@@ -1293,6 +1395,9 @@
       </c>
       <c r="H15" t="s">
         <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16">
@@ -1309,7 +1414,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -1319,6 +1424,9 @@
       </c>
       <c r="H16" t="s">
         <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="17">
@@ -1335,7 +1443,7 @@
         <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>
@@ -1345,6 +1453,9 @@
       </c>
       <c r="H17" t="s">
         <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/65.xlsx
+++ b/Covid_19_Dataset_and_References/References/65.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="201">
   <si>
     <t>Doi</t>
   </si>
@@ -644,6 +644,198 @@
   </si>
   <si>
     <t>[Xiaobo%Yang%NULL%0,   Yuan%Yu%NULL%0,   Jiqian%Xu%NULL%0,   Huaqing%Shu%NULL%0,   Jia'an%Xia%NULL%0,   Hong%Liu%NULL%0,   Yongran%Wu%NULL%0,   Lu%Zhang%NULL%0,   Zhui%Yu%NULL%0,   Minghao%Fang%NULL%0,   Ting%Yu%NULL%0,   Yaxin%Wang%NULL%0,   Shangwen%Pan%NULL%0,   Xiaojing%Zou%NULL%0,   Shiying%Yuan%NULL%0,   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,    Justin J.%Choi%NULL%1,    Laura C.%Pinheiro%NULL%1,    Edward J.%Schenck%NULL%1,    Ruijun%Chen%NULL%0,    Assem%Jabri%NULL%1,    Michael J.%Satlin%NULL%1,    Thomas R.%Campion%NULL%1,    Musarrat%Nahid%NULL%1,    Joanna B.%Ringel%NULL%1,    Katherine L.%Hoffman%NULL%1,    Mark N.%Alshak%NULL%1,    Han A.%Li%NULL%1,    Graham T.%Wehmeyer%NULL%2,    Graham T.%Wehmeyer%NULL%0,    Mangala%Rajan%NULL%1,    Evgeniya%Reshetnyak%NULL%1,    Nathaniel%Hupert%NULL%1,    Evelyn M.%Horn%NULL%1,    Fernando J.%Martinez%NULL%1,    Roy M.%Gulick%NULL%1,    Monika M.%Safford%NULL%2,    Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,    Yeming%Wang%NULL%0,    Xingwang%Li%NULL%0,    Lili%Ren%NULL%0,    Jianping%Zhao%NULL%0,    Yi%Hu%NULL%0,    Li%Zhang%NULL%0,    Guohui%Fan%NULL%0,    Jiuyang%Xu%NULL%0,    Xiaoying%Gu%NULL%0,    Zhenshun%Cheng%NULL%0,    Ting%Yu%NULL%0,    Jiaan%Xia%NULL%0,    Yuan%Wei%NULL%0,    Wenjuan%Wu%NULL%0,    Xuelei%Xie%NULL%0,    Wen%Yin%NULL%0,    Hui%Li%NULL%0,    Min%Liu%NULL%0,    Yan%Xiao%NULL%0,    Hong%Gao%NULL%0,    Li%Guo%NULL%0,    Jungang%Xie%NULL%0,    Guangfa%Wang%NULL%0,    Rongmeng%Jiang%NULL%0,    Zhancheng%Gao%NULL%0,    Qi%Jin%NULL%0,    Jianwei%Wang%wangjw28@163.com%0,    Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,    Yi%Xiang%NULL%0,    Wei%Fang%NULL%0,    Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,    Boqun%Li%279685211@qq.com%0,    Boqun%Li%279685211@qq.com%0,    Yanjun%Hu%huyanjun@163.com%0,    Chunhui%Lang%NULL%0,    Daoqiu%Huang%NULL%0,    Qiuyan%Sun%NULL%0,    Yan%Xiong%NULL%0,    Xia%Huang%NULL%0,    Jinglong%Lv%NULL%0,    Yaling%Luo%NULL%0,    Li%Shen%NULL%0,    Haoran%Yang%NULL%0,    Gu%Huang%NULL%0,    Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,    Min%Pan%NULL%0,    Xiumei%Zhang%NULL%0,    Mingfeng%Han%fyhmf@163.com%0,    Xiaoyun%Fan%13956988552@126.com%0,    Fengde%Zhao%NULL%0,    Manli%Miao%NULL%0,    Jing%Xu%NULL%0,    Minglong%Guan%NULL%0,    Xia%Deng%NULL%0,    Xu%Chen%NULL%0,    Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,    Huan%Cai%NULL%0,    Jianhua%Hu%NULL%0,    Jiangshan%Lian%NULL%0,    Jueqing%Gu%NULL%0,    Shanyan%Zhang%NULL%0,    Chanyuan%Ye%NULL%0,    Yingfeng%Lu%NULL%0,    Ciliang%Jin%NULL%0,    Guodong%Yu%NULL%0,    Hongyu%Jia%NULL%0,    Yimin%Zhang%NULL%0,    Jifang%Sheng%jifang_sheng@zju.edu.cn%0,    Lanjuan%Li%ljli@zju.edu.cn%0,    Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,    Ting%Yu%NULL%0,    Ronghui%Du%NULL%0,    Guohui%Fan%NULL%0,    Ying%Liu%NULL%0,    Zhibo%Liu%NULL%0,    Jie%Xiang%NULL%0,    Yeming%Wang%NULL%0,    Bin%Song%NULL%0,    Xiaoying%Gu%NULL%0,    Lulu%Guan%NULL%0,    Yuan%Wei%NULL%0,    Hui%Li%NULL%0,    Xudong%Wu%NULL%0,    Jiuyang%Xu%NULL%0,    Shengjin%Tu%NULL%0,    Yi%Zhang%NULL%0,    Hua%Chen%NULL%0,    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0,    Nancy%Chow%NULL%0,    Katherine%Fleming-Dutra%NULL%1,    Ryan%Gierke%NULL%0,    Aron%Hall%NULL%0,    Michelle%Hughes%NULL%1,    Tamara%Pilishvili%NULL%0,    Matthew%Ritchey%NULL%0,    Katherine%Roguski%NULL%1,    Tami%Skoff%NULL%1,    Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,    Di%Wu%NULL%0,    Huilong%Chen%NULL%0,    Weiming%Yan%NULL%0,    Danlei%Yang%NULL%0,    Guang%Chen%NULL%0,    Ke%Ma%NULL%0,    Dong%Xu%NULL%0,    Haijing%Yu%NULL%0,    Hongwu%Wang%NULL%0,    Tao%Wang%NULL%0,    Wei%Guo%NULL%0,    Jia%Chen%NULL%0,    Chen%Ding%NULL%0,    Xiaoping%Zhang%NULL%0,    Jiaquan%Huang%NULL%0,    Meifang%Han%NULL%0,    Shusheng%Li%NULL%0,    Xiaoping%Luo%NULL%0,    Jianping%Zhao%NULL%0,    Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,    Zheng-yi%Ni%NULL%0,    Zheng-yi%Ni%NULL%0,    Yu%Hu%NULL%0,    Wen-hua%Liang%NULL%0,    Chun-quan%Ou%NULL%0,    Jian-xing%He%NULL%0,    Lei%Liu%NULL%0,    Hong%Shan%NULL%0,    Chun-liang%Lei%NULL%0,    David S.C.%Hui%NULL%0,    Bin%Du%NULL%0,    Lan-juan%Li%NULL%0,    Guang%Zeng%NULL%0,    Kwok-Yung%Yuen%NULL%0,    Ru-chong%Chen%NULL%0,    Chun-li%Tang%NULL%0,    Tao%Wang%NULL%0,    Ping-yan%Chen%NULL%0,    Jie%Xiang%NULL%0,    Shi-yue%Li%NULL%0,    Jin-lin%Wang%NULL%0,    Zi-jing%Liang%NULL%0,    Yi-xiang%Peng%NULL%0,    Li%Wei%NULL%0,    Yong%Liu%NULL%0,    Ya-hua%Hu%NULL%0,    Peng%Peng%NULL%0,    Jian-ming%Wang%NULL%0,    Ji-yang%Liu%NULL%0,    Zhong%Chen%NULL%0,    Gang%Li%NULL%0,    Zhi-jian%Zheng%NULL%0,    Shao-qin%Qiu%NULL%0,    Jie%Luo%NULL%0,    Chang-jiang%Ye%NULL%0,    Shao-yong%Zhu%NULL%0,    Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,    Shuyun%Xu%NULL%0,    Muqing%Yu%NULL%0,    Ke%Wang%NULL%0,    Yu%Tao%NULL%0,    Ying%Zhou%NULL%0,    Jing%Shi%NULL%0,    Min%Zhou%NULL%0,    Bo%Wu%NULL%0,    Zhenyu%Yang%NULL%0,    Cong%Zhang%NULL%0,    Junqing%Yue%NULL%0,    Zhiguo%Zhang%NULL%0,    Harald%Renz%NULL%0,    Xiansheng%Liu%NULL%0,    Jungang%Xie%NULL%0,    Min%Xie%NULL%0,    Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,   Cao%Yi-yuan%coreGivesNoEmail%1,   Dong%Xiang%coreGivesNoEmail%1,   Gao%Ya-dong%coreGivesNoEmail%1,   Yan%You-qin%coreGivesNoEmail%1,   Yang%Yi-bin%coreGivesNoEmail%1,   Yuan%Ya-dong%coreGivesNoEmail%1,   Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,    Yun%Ling%NULL%0,    Yun%Ling%NULL%0,    Tao%Bai%NULL%0,    Tao%Bai%NULL%0,    Yusang%Xie%NULL%0,    Jie%Huang%NULL%0,    Jie%Huang%NULL%0,    Jian%Li%NULL%0,    Weining%Xiong%NULL%0,    Dexiang%Yang%NULL%0,    Rong%Chen%NULL%0,    Fangying%Lu%NULL%0,    Yunfei%Lu%NULL%0,    Xuhui%Liu%NULL%0,    Yuqing%Chen%NULL%0,    Yuqing%Chen%NULL%0,    Xin%Li%NULL%0,    Yong%Li%NULL%0,    Hanssa Dwarka%Summah%NULL%0,    Huihuang%Lin%NULL%0,    Jiayang%Yan%NULL%0,    Min%Zhou%NULL%0,    Hongzhou%Lu%NULL%0,    Hongzhou%Lu%NULL%0,    Jieming%Qu%NULL%0,    Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,    Bum Sik%Chin%NULL%2,    Bum Sik%Chin%NULL%0,    Chang Kyung%Kang%NULL%0,    Chang Kyung%Kang%NULL%0,    Nam Joong%Kim%NULL%0,    Nam Joong%Kim%NULL%0,    Yu Min%Kang%NULL%0,    Yu Min%Kang%NULL%0,    Jae-Phil%Choi%NULL%2,    Jae-Phil%Choi%NULL%0,    Dong Hyun%Oh%NULL%2,    Dong Hyun%Oh%NULL%0,    Jeong-Han%Kim%NULL%2,    Jeong-Han%Kim%NULL%0,    Boram%Koh%NULL%2,    Boram%Koh%NULL%0,    Seong Eun%Kim%NULL%2,    Seong Eun%Kim%NULL%0,    Na Ra%Yun%NULL%2,    Na Ra%Yun%NULL%0,    Jae-Hoon%Lee%NULL%2,    Jae-Hoon%Lee%NULL%0,    Jin Yong%Kim%NULL%0,    Jin Yong%Kim%NULL%0,    Yeonjae%Kim%NULL%2,    Yeonjae%Kim%NULL%0,    Ji Hwan%Bang%NULL%2,    Ji Hwan%Bang%NULL%0,    Kyoung-Ho%Song%NULL%2,    Kyoung-Ho%Song%NULL%0,    Hong Bin%Kim%NULL%2,    Hong Bin%Kim%NULL%0,    Ki-hyun%Chung%NULL%2,    Ki-hyun%Chung%NULL%0,    Myoung-don%Oh%NULL%0,    Myoung-don%Oh%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,    Zhao-Wu%Tao%NULL%1,    Lei%Wang%NULL%1,    Ming-Li%Yuan%NULL%0,    Kui%Liu%NULL%0,    Ling%Zhou%NULL%0,    Shuang%Wei%NULL%0,    Yan%Deng%NULL%0,    Jing%Liu%NULL%0,    Hui-Guo%Liu%NULL%0,    Ming%Yang%NULL%1,    Yi%Hu%NULL%0,    Pei-Fang%Wei%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,    Xia%Yu%NULL%1,    Hong%Zhao%NULL%0,    Hao%Wang%NULL%1,    Ruihong%Zhao%NULL%0,    Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,    Yuan%Yu%NULL%0,    Jiqian%Xu%NULL%0,    Huaqing%Shu%NULL%0,    Jia'an%Xia%NULL%0,    Hong%Liu%NULL%0,    Yongran%Wu%NULL%0,    Lu%Zhang%NULL%0,    Zhui%Yu%NULL%0,    Minghao%Fang%NULL%0,    Ting%Yu%NULL%0,    Yaxin%Wang%NULL%0,    Shangwen%Pan%NULL%0,    Xiaojing%Zou%NULL%0,    Shiying%Yuan%NULL%0,    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,     Justin J.%Choi%NULL%0,     Laura C.%Pinheiro%NULL%0,     Edward J.%Schenck%NULL%0,     Ruijun%Chen%NULL%0,     Assem%Jabri%NULL%0,     Michael J.%Satlin%NULL%0,     Thomas R.%Campion%NULL%0,     Musarrat%Nahid%NULL%0,     Joanna B.%Ringel%NULL%0,     Katherine L.%Hoffman%NULL%0,     Mark N.%Alshak%NULL%0,     Han A.%Li%NULL%0,     Graham T.%Wehmeyer%NULL%0,     Graham T.%Wehmeyer%NULL%0,     Mangala%Rajan%NULL%0,     Evgeniya%Reshetnyak%NULL%0,     Nathaniel%Hupert%NULL%0,     Evelyn M.%Horn%NULL%0,     Fernando J.%Martinez%NULL%0,     Roy M.%Gulick%NULL%0,     Monika M.%Safford%NULL%0,     Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,     Yeming%Wang%NULL%0,     Xingwang%Li%NULL%0,     Lili%Ren%NULL%0,     Jianping%Zhao%NULL%0,     Yi%Hu%NULL%0,     Li%Zhang%NULL%0,     Guohui%Fan%NULL%0,     Jiuyang%Xu%NULL%0,     Xiaoying%Gu%NULL%0,     Zhenshun%Cheng%NULL%0,     Ting%Yu%NULL%0,     Jiaan%Xia%NULL%0,     Yuan%Wei%NULL%0,     Wenjuan%Wu%NULL%0,     Xuelei%Xie%NULL%0,     Wen%Yin%NULL%0,     Hui%Li%NULL%0,     Min%Liu%NULL%0,     Yan%Xiao%NULL%0,     Hong%Gao%NULL%0,     Li%Guo%NULL%0,     Jungang%Xie%NULL%0,     Guangfa%Wang%NULL%0,     Rongmeng%Jiang%NULL%0,     Zhancheng%Gao%NULL%0,     Qi%Jin%NULL%0,     Jianwei%Wang%wangjw28@163.com%0,     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,     Yi%Xiang%NULL%0,     Wei%Fang%NULL%0,     Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,     Boqun%Li%279685211@qq.com%0,     Boqun%Li%279685211@qq.com%0,     Yanjun%Hu%huyanjun@163.com%0,     Chunhui%Lang%NULL%0,     Daoqiu%Huang%NULL%0,     Qiuyan%Sun%NULL%0,     Yan%Xiong%NULL%0,     Xia%Huang%NULL%0,     Jinglong%Lv%NULL%0,     Yaling%Luo%NULL%0,     Li%Shen%NULL%0,     Haoran%Yang%NULL%0,     Gu%Huang%NULL%0,     Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,     Min%Pan%NULL%0,     Xiumei%Zhang%NULL%0,     Mingfeng%Han%fyhmf@163.com%0,     Xiaoyun%Fan%13956988552@126.com%0,     Fengde%Zhao%NULL%0,     Manli%Miao%NULL%0,     Jing%Xu%NULL%0,     Minglong%Guan%NULL%0,     Xia%Deng%NULL%0,     Xu%Chen%NULL%0,     Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,     Huan%Cai%NULL%0,     Jianhua%Hu%NULL%0,     Jiangshan%Lian%NULL%0,     Jueqing%Gu%NULL%0,     Shanyan%Zhang%NULL%0,     Chanyuan%Ye%NULL%0,     Yingfeng%Lu%NULL%0,     Ciliang%Jin%NULL%0,     Guodong%Yu%NULL%0,     Hongyu%Jia%NULL%0,     Yimin%Zhang%NULL%0,     Jifang%Sheng%jifang_sheng@zju.edu.cn%0,     Lanjuan%Li%ljli@zju.edu.cn%0,     Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,     Ting%Yu%NULL%0,     Ronghui%Du%NULL%0,     Guohui%Fan%NULL%0,     Ying%Liu%NULL%0,     Zhibo%Liu%NULL%0,     Jie%Xiang%NULL%0,     Yeming%Wang%NULL%0,     Bin%Song%NULL%0,     Xiaoying%Gu%NULL%0,     Lulu%Guan%NULL%0,     Yuan%Wei%NULL%0,     Hui%Li%NULL%0,     Xudong%Wu%NULL%0,     Jiuyang%Xu%NULL%0,     Shengjin%Tu%NULL%0,     Yi%Zhang%NULL%0,     Hua%Chen%NULL%0,     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0,     Nancy%Chow%NULL%0,     Katherine%Fleming-Dutra%NULL%1,     Ryan%Gierke%NULL%0,     Aron%Hall%NULL%0,     Michelle%Hughes%NULL%1,     Tamara%Pilishvili%NULL%0,     Matthew%Ritchey%NULL%0,     Katherine%Roguski%NULL%1,     Tami%Skoff%NULL%1,     Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,     Di%Wu%NULL%0,     Huilong%Chen%NULL%0,     Weiming%Yan%NULL%0,     Danlei%Yang%NULL%0,     Guang%Chen%NULL%0,     Ke%Ma%NULL%0,     Dong%Xu%NULL%0,     Haijing%Yu%NULL%0,     Hongwu%Wang%NULL%0,     Tao%Wang%NULL%0,     Wei%Guo%NULL%0,     Jia%Chen%NULL%0,     Chen%Ding%NULL%0,     Xiaoping%Zhang%NULL%0,     Jiaquan%Huang%NULL%0,     Meifang%Han%NULL%0,     Shusheng%Li%NULL%0,     Xiaoping%Luo%NULL%0,     Jianping%Zhao%NULL%0,     Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,     Zheng-yi%Ni%NULL%0,     Zheng-yi%Ni%NULL%0,     Yu%Hu%NULL%0,     Wen-hua%Liang%NULL%0,     Chun-quan%Ou%NULL%0,     Jian-xing%He%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chun-liang%Lei%NULL%0,     David S.C.%Hui%NULL%0,     Bin%Du%NULL%0,     Lan-juan%Li%NULL%0,     Guang%Zeng%NULL%0,     Kwok-Yung%Yuen%NULL%0,     Ru-chong%Chen%NULL%0,     Chun-li%Tang%NULL%0,     Tao%Wang%NULL%0,     Ping-yan%Chen%NULL%0,     Jie%Xiang%NULL%0,     Shi-yue%Li%NULL%0,     Jin-lin%Wang%NULL%0,     Zi-jing%Liang%NULL%0,     Yi-xiang%Peng%NULL%0,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Ya-hua%Hu%NULL%0,     Peng%Peng%NULL%0,     Jian-ming%Wang%NULL%0,     Ji-yang%Liu%NULL%0,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhi-jian%Zheng%NULL%0,     Shao-qin%Qiu%NULL%0,     Jie%Luo%NULL%0,     Chang-jiang%Ye%NULL%0,     Shao-yong%Zhu%NULL%0,     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,     Shuyun%Xu%NULL%0,     Muqing%Yu%NULL%0,     Ke%Wang%NULL%0,     Yu%Tao%NULL%0,     Ying%Zhou%NULL%0,     Jing%Shi%NULL%0,     Min%Zhou%NULL%0,     Bo%Wu%NULL%0,     Zhenyu%Yang%NULL%0,     Cong%Zhang%NULL%0,     Junqing%Yue%NULL%0,     Zhiguo%Zhang%NULL%0,     Harald%Renz%NULL%0,     Xiansheng%Liu%NULL%0,     Jungang%Xie%NULL%0,     Min%Xie%NULL%0,     Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,    Cao%Yi-yuan%coreGivesNoEmail%1,    Dong%Xiang%coreGivesNoEmail%1,    Gao%Ya-dong%coreGivesNoEmail%1,    Yan%You-qin%coreGivesNoEmail%1,    Yang%Yi-bin%coreGivesNoEmail%1,    Yuan%Ya-dong%coreGivesNoEmail%1,    Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,     Yun%Ling%NULL%0,     Yun%Ling%NULL%0,     Tao%Bai%NULL%2,     Tao%Bai%NULL%0,     Yusang%Xie%NULL%1,     Jie%Huang%NULL%2,     Jie%Huang%NULL%0,     Jian%Li%NULL%1,     Weining%Xiong%NULL%1,     Dexiang%Yang%NULL%1,     Rong%Chen%NULL%0,     Fangying%Lu%NULL%1,     Yunfei%Lu%NULL%1,     Xuhui%Liu%NULL%1,     Yuqing%Chen%NULL%2,     Yuqing%Chen%NULL%0,     Xin%Li%NULL%0,     Yong%Li%NULL%1,     Hanssa Dwarka%Summah%NULL%1,     Huihuang%Lin%NULL%1,     Jiayang%Yan%NULL%1,     Min%Zhou%NULL%0,     Hongzhou%Lu%NULL%0,     Hongzhou%Lu%NULL%0,     Jieming%Qu%NULL%0,     Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,     Bum Sik%Chin%NULL%2,     Bum Sik%Chin%NULL%0,     Chang Kyung%Kang%NULL%0,     Chang Kyung%Kang%NULL%0,     Nam Joong%Kim%NULL%0,     Nam Joong%Kim%NULL%0,     Yu Min%Kang%NULL%0,     Yu Min%Kang%NULL%0,     Jae-Phil%Choi%NULL%2,     Jae-Phil%Choi%NULL%0,     Dong Hyun%Oh%NULL%2,     Dong Hyun%Oh%NULL%0,     Jeong-Han%Kim%NULL%2,     Jeong-Han%Kim%NULL%0,     Boram%Koh%NULL%2,     Boram%Koh%NULL%0,     Seong Eun%Kim%NULL%2,     Seong Eun%Kim%NULL%0,     Na Ra%Yun%NULL%2,     Na Ra%Yun%NULL%0,     Jae-Hoon%Lee%NULL%2,     Jae-Hoon%Lee%NULL%0,     Jin Yong%Kim%NULL%0,     Jin Yong%Kim%NULL%0,     Yeonjae%Kim%NULL%2,     Yeonjae%Kim%NULL%0,     Ji Hwan%Bang%NULL%2,     Ji Hwan%Bang%NULL%0,     Kyoung-Ho%Song%NULL%2,     Kyoung-Ho%Song%NULL%0,     Hong Bin%Kim%NULL%2,     Hong Bin%Kim%NULL%0,     Ki-hyun%Chung%NULL%2,     Ki-hyun%Chung%NULL%0,     Myoung-don%Oh%NULL%0,     Myoung-don%Oh%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,     Zhao-Wu%Tao%NULL%1,     Lei%Wang%NULL%1,     Ming-Li%Yuan%NULL%0,     Kui%Liu%NULL%0,     Ling%Zhou%NULL%0,     Shuang%Wei%NULL%0,     Yan%Deng%NULL%0,     Jing%Liu%NULL%0,     Hui-Guo%Liu%NULL%0,     Ming%Yang%NULL%1,     Yi%Hu%NULL%0,     Pei-Fang%Wei%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,     Xia%Yu%NULL%1,     Hong%Zhao%NULL%1,     Hao%Wang%NULL%1,     Ruihong%Zhao%NULL%0,     Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,     Yuan%Yu%NULL%0,     Jiqian%Xu%NULL%0,     Huaqing%Shu%NULL%0,     Jia'an%Xia%NULL%0,     Hong%Liu%NULL%0,     Yongran%Wu%NULL%0,     Lu%Zhang%NULL%0,     Zhui%Yu%NULL%0,     Minghao%Fang%NULL%0,     Ting%Yu%NULL%0,     Yaxin%Wang%NULL%0,     Shangwen%Pan%NULL%0,     Xiaojing%Zou%NULL%0,     Shiying%Yuan%NULL%0,     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,      Justin J.%Choi%NULL%0,      Laura C.%Pinheiro%NULL%0,      Edward J.%Schenck%NULL%0,      Ruijun%Chen%NULL%0,      Assem%Jabri%NULL%0,      Michael J.%Satlin%NULL%0,      Thomas R.%Campion%NULL%0,      Musarrat%Nahid%NULL%0,      Joanna B.%Ringel%NULL%0,      Katherine L.%Hoffman%NULL%0,      Mark N.%Alshak%NULL%0,      Han A.%Li%NULL%0,      Graham T.%Wehmeyer%NULL%0,      Graham T.%Wehmeyer%NULL%0,      Mangala%Rajan%NULL%0,      Evgeniya%Reshetnyak%NULL%0,      Nathaniel%Hupert%NULL%0,      Evelyn M.%Horn%NULL%0,      Fernando J.%Martinez%NULL%0,      Roy M.%Gulick%NULL%0,      Monika M.%Safford%NULL%0,      Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,      Yeming%Wang%NULL%0,      Xingwang%Li%NULL%0,      Lili%Ren%NULL%0,      Jianping%Zhao%NULL%0,      Yi%Hu%NULL%0,      Li%Zhang%NULL%0,      Guohui%Fan%NULL%0,      Jiuyang%Xu%NULL%0,      Xiaoying%Gu%NULL%0,      Zhenshun%Cheng%NULL%0,      Ting%Yu%NULL%0,      Jiaan%Xia%NULL%0,      Yuan%Wei%NULL%0,      Wenjuan%Wu%NULL%0,      Xuelei%Xie%NULL%0,      Wen%Yin%NULL%0,      Hui%Li%NULL%0,      Min%Liu%NULL%0,      Yan%Xiao%NULL%0,      Hong%Gao%NULL%0,      Li%Guo%NULL%0,      Jungang%Xie%NULL%0,      Guangfa%Wang%NULL%0,      Rongmeng%Jiang%NULL%0,      Zhancheng%Gao%NULL%0,      Qi%Jin%NULL%0,      Jianwei%Wang%wangjw28@163.com%0,      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,      Yi%Xiang%NULL%0,      Wei%Fang%NULL%0,      Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,      Boqun%Li%279685211@qq.com%0,      Boqun%Li%279685211@qq.com%0,      Yanjun%Hu%huyanjun@163.com%0,      Chunhui%Lang%NULL%0,      Daoqiu%Huang%NULL%0,      Qiuyan%Sun%NULL%0,      Yan%Xiong%NULL%0,      Xia%Huang%NULL%0,      Jinglong%Lv%NULL%0,      Yaling%Luo%NULL%0,      Li%Shen%NULL%0,      Haoran%Yang%NULL%0,      Gu%Huang%NULL%0,      Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,      Min%Pan%NULL%0,      Xiumei%Zhang%NULL%0,      Mingfeng%Han%fyhmf@163.com%0,      Xiaoyun%Fan%13956988552@126.com%0,      Fengde%Zhao%NULL%0,      Manli%Miao%NULL%0,      Jing%Xu%NULL%0,      Minglong%Guan%NULL%0,      Xia%Deng%NULL%0,      Xu%Chen%NULL%0,      Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,      Huan%Cai%NULL%0,      Jianhua%Hu%NULL%0,      Jiangshan%Lian%NULL%0,      Jueqing%Gu%NULL%0,      Shanyan%Zhang%NULL%0,      Chanyuan%Ye%NULL%0,      Yingfeng%Lu%NULL%0,      Ciliang%Jin%NULL%0,      Guodong%Yu%NULL%0,      Hongyu%Jia%NULL%0,      Yimin%Zhang%NULL%0,      Jifang%Sheng%jifang_sheng@zju.edu.cn%0,      Lanjuan%Li%ljli@zju.edu.cn%0,      Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,      Ting%Yu%NULL%0,      Ronghui%Du%NULL%0,      Guohui%Fan%NULL%0,      Ying%Liu%NULL%0,      Zhibo%Liu%NULL%0,      Jie%Xiang%NULL%0,      Yeming%Wang%NULL%0,      Bin%Song%NULL%0,      Xiaoying%Gu%NULL%0,      Lulu%Guan%NULL%0,      Yuan%Wei%NULL%0,      Hui%Li%NULL%0,      Xudong%Wu%NULL%0,      Jiuyang%Xu%NULL%0,      Shengjin%Tu%NULL%0,      Yi%Zhang%NULL%0,      Hua%Chen%NULL%0,      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0,      Nancy%Chow%NULL%0,      Katherine%Fleming-Dutra%NULL%1,      Ryan%Gierke%NULL%0,      Aron%Hall%NULL%0,      Michelle%Hughes%NULL%1,      Tamara%Pilishvili%NULL%0,      Matthew%Ritchey%NULL%0,      Katherine%Roguski%NULL%1,      Tami%Skoff%NULL%1,      Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,      Di%Wu%NULL%0,      Huilong%Chen%NULL%0,      Weiming%Yan%NULL%0,      Danlei%Yang%NULL%0,      Guang%Chen%NULL%0,      Ke%Ma%NULL%0,      Dong%Xu%NULL%0,      Haijing%Yu%NULL%0,      Hongwu%Wang%NULL%0,      Tao%Wang%NULL%0,      Wei%Guo%NULL%0,      Jia%Chen%NULL%0,      Chen%Ding%NULL%0,      Xiaoping%Zhang%NULL%0,      Jiaquan%Huang%NULL%0,      Meifang%Han%NULL%0,      Shusheng%Li%NULL%0,      Xiaoping%Luo%NULL%0,      Jianping%Zhao%NULL%0,      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,      Zheng-yi%Ni%NULL%0,      Zheng-yi%Ni%NULL%0,      Yu%Hu%NULL%0,      Wen-hua%Liang%NULL%0,      Chun-quan%Ou%NULL%0,      Jian-xing%He%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chun-liang%Lei%NULL%0,      David S.C.%Hui%NULL%0,      Bin%Du%NULL%0,      Lan-juan%Li%NULL%0,      Guang%Zeng%NULL%0,      Kwok-Yung%Yuen%NULL%0,      Ru-chong%Chen%NULL%0,      Chun-li%Tang%NULL%0,      Tao%Wang%NULL%0,      Ping-yan%Chen%NULL%0,      Jie%Xiang%NULL%0,      Shi-yue%Li%NULL%0,      Jin-lin%Wang%NULL%0,      Zi-jing%Liang%NULL%0,      Yi-xiang%Peng%NULL%0,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Ya-hua%Hu%NULL%0,      Peng%Peng%NULL%0,      Jian-ming%Wang%NULL%0,      Ji-yang%Liu%NULL%0,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhi-jian%Zheng%NULL%0,      Shao-qin%Qiu%NULL%0,      Jie%Luo%NULL%0,      Chang-jiang%Ye%NULL%0,      Shao-yong%Zhu%NULL%0,      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,      Shuyun%Xu%NULL%0,      Muqing%Yu%NULL%0,      Ke%Wang%NULL%0,      Yu%Tao%NULL%0,      Ying%Zhou%NULL%0,      Jing%Shi%NULL%0,      Min%Zhou%NULL%0,      Bo%Wu%NULL%0,      Zhenyu%Yang%NULL%0,      Cong%Zhang%NULL%0,      Junqing%Yue%NULL%0,      Zhiguo%Zhang%NULL%0,      Harald%Renz%NULL%0,      Xiansheng%Liu%NULL%0,      Jungang%Xie%NULL%0,      Min%Xie%NULL%0,      Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,     Cao%Yi-yuan%coreGivesNoEmail%1,     Dong%Xiang%coreGivesNoEmail%1,     Gao%Ya-dong%coreGivesNoEmail%1,     Yan%You-qin%coreGivesNoEmail%1,     Yang%Yi-bin%coreGivesNoEmail%1,     Yuan%Ya-dong%coreGivesNoEmail%1,     Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,      Yun%Ling%NULL%0,      Yun%Ling%NULL%0,      Tao%Bai%NULL%2,      Tao%Bai%NULL%0,      Yusang%Xie%NULL%1,      Jie%Huang%NULL%2,      Jie%Huang%NULL%0,      Jian%Li%NULL%1,      Weining%Xiong%NULL%1,      Dexiang%Yang%NULL%1,      Rong%Chen%NULL%0,      Fangying%Lu%NULL%1,      Yunfei%Lu%NULL%1,      Xuhui%Liu%NULL%1,      Yuqing%Chen%NULL%2,      Yuqing%Chen%NULL%0,      Xin%Li%NULL%0,      Yong%Li%NULL%1,      Hanssa Dwarka%Summah%NULL%1,      Huihuang%Lin%NULL%1,      Jiayang%Yan%NULL%1,      Min%Zhou%NULL%0,      Hongzhou%Lu%NULL%0,      Hongzhou%Lu%NULL%0,      Jieming%Qu%NULL%0,      Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,      Bum Sik%Chin%NULL%2,      Bum Sik%Chin%NULL%0,      Chang Kyung%Kang%NULL%0,      Chang Kyung%Kang%NULL%0,      Nam Joong%Kim%NULL%0,      Nam Joong%Kim%NULL%0,      Yu Min%Kang%NULL%0,      Yu Min%Kang%NULL%0,      Jae-Phil%Choi%NULL%2,      Jae-Phil%Choi%NULL%0,      Dong Hyun%Oh%NULL%2,      Dong Hyun%Oh%NULL%0,      Jeong-Han%Kim%NULL%2,      Jeong-Han%Kim%NULL%0,      Boram%Koh%NULL%2,      Boram%Koh%NULL%0,      Seong Eun%Kim%NULL%2,      Seong Eun%Kim%NULL%0,      Na Ra%Yun%NULL%2,      Na Ra%Yun%NULL%0,      Jae-Hoon%Lee%NULL%2,      Jae-Hoon%Lee%NULL%0,      Jin Yong%Kim%NULL%0,      Jin Yong%Kim%NULL%0,      Yeonjae%Kim%NULL%2,      Yeonjae%Kim%NULL%0,      Ji Hwan%Bang%NULL%2,      Ji Hwan%Bang%NULL%0,      Kyoung-Ho%Song%NULL%2,      Kyoung-Ho%Song%NULL%0,      Hong Bin%Kim%NULL%2,      Hong Bin%Kim%NULL%0,      Ki-hyun%Chung%NULL%2,      Ki-hyun%Chung%NULL%0,      Myoung-don%Oh%NULL%0,      Myoung-don%Oh%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,      Zhao-Wu%Tao%NULL%1,      Lei%Wang%NULL%1,      Ming-Li%Yuan%NULL%0,      Kui%Liu%NULL%0,      Ling%Zhou%NULL%0,      Shuang%Wei%NULL%0,      Yan%Deng%NULL%0,      Jing%Liu%NULL%0,      Hui-Guo%Liu%NULL%0,      Ming%Yang%NULL%1,      Yi%Hu%NULL%0,      Pei-Fang%Wei%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,      Xia%Yu%NULL%1,      Hong%Zhao%NULL%1,      Hao%Wang%NULL%1,      Ruihong%Zhao%NULL%0,      Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,      Yuan%Yu%NULL%0,      Jiqian%Xu%NULL%0,      Huaqing%Shu%NULL%0,      Jia'an%Xia%NULL%0,      Hong%Liu%NULL%0,      Yongran%Wu%NULL%0,      Lu%Zhang%NULL%0,      Zhui%Yu%NULL%0,      Minghao%Fang%NULL%0,      Ting%Yu%NULL%0,      Yaxin%Wang%NULL%0,      Shangwen%Pan%NULL%0,      Xiaojing%Zou%NULL%0,      Shiying%Yuan%NULL%0,      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,       Justin J.%Choi%NULL%0,       Laura C.%Pinheiro%NULL%0,       Edward J.%Schenck%NULL%0,       Ruijun%Chen%NULL%0,       Assem%Jabri%NULL%0,       Michael J.%Satlin%NULL%0,       Thomas R.%Campion%NULL%0,       Musarrat%Nahid%NULL%0,       Joanna B.%Ringel%NULL%0,       Katherine L.%Hoffman%NULL%0,       Mark N.%Alshak%NULL%0,       Han A.%Li%NULL%0,       Graham T.%Wehmeyer%NULL%0,       Graham T.%Wehmeyer%NULL%0,       Mangala%Rajan%NULL%0,       Evgeniya%Reshetnyak%NULL%0,       Nathaniel%Hupert%NULL%0,       Evelyn M.%Horn%NULL%0,       Fernando J.%Martinez%NULL%0,       Roy M.%Gulick%NULL%0,       Monika M.%Safford%NULL%0,       Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,       Yeming%Wang%NULL%0,       Xingwang%Li%NULL%0,       Lili%Ren%NULL%0,       Jianping%Zhao%NULL%0,       Yi%Hu%NULL%0,       Li%Zhang%NULL%0,       Guohui%Fan%NULL%0,       Jiuyang%Xu%NULL%0,       Xiaoying%Gu%NULL%0,       Zhenshun%Cheng%NULL%0,       Ting%Yu%NULL%0,       Jiaan%Xia%NULL%0,       Yuan%Wei%NULL%0,       Wenjuan%Wu%NULL%0,       Xuelei%Xie%NULL%0,       Wen%Yin%NULL%0,       Hui%Li%NULL%0,       Min%Liu%NULL%0,       Yan%Xiao%NULL%0,       Hong%Gao%NULL%0,       Li%Guo%NULL%0,       Jungang%Xie%NULL%0,       Guangfa%Wang%NULL%0,       Rongmeng%Jiang%NULL%0,       Zhancheng%Gao%NULL%0,       Qi%Jin%NULL%0,       Jianwei%Wang%wangjw28@163.com%0,       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,       Yi%Xiang%NULL%0,       Wei%Fang%NULL%0,       Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,       Boqun%Li%279685211@qq.com%0,       Boqun%Li%279685211@qq.com%0,       Yanjun%Hu%huyanjun@163.com%0,       Chunhui%Lang%NULL%0,       Daoqiu%Huang%NULL%0,       Qiuyan%Sun%NULL%0,       Yan%Xiong%NULL%0,       Xia%Huang%NULL%0,       Jinglong%Lv%NULL%0,       Yaling%Luo%NULL%0,       Li%Shen%NULL%0,       Haoran%Yang%NULL%0,       Gu%Huang%NULL%0,       Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,       Min%Pan%NULL%0,       Xiumei%Zhang%NULL%0,       Mingfeng%Han%fyhmf@163.com%0,       Xiaoyun%Fan%13956988552@126.com%0,       Fengde%Zhao%NULL%0,       Manli%Miao%NULL%0,       Jing%Xu%NULL%0,       Minglong%Guan%NULL%0,       Xia%Deng%NULL%0,       Xu%Chen%NULL%0,       Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,       Huan%Cai%NULL%0,       Jianhua%Hu%NULL%0,       Jiangshan%Lian%NULL%0,       Jueqing%Gu%NULL%0,       Shanyan%Zhang%NULL%0,       Chanyuan%Ye%NULL%0,       Yingfeng%Lu%NULL%0,       Ciliang%Jin%NULL%0,       Guodong%Yu%NULL%0,       Hongyu%Jia%NULL%0,       Yimin%Zhang%NULL%0,       Jifang%Sheng%jifang_sheng@zju.edu.cn%0,       Lanjuan%Li%ljli@zju.edu.cn%0,       Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,       Ting%Yu%NULL%0,       Ronghui%Du%NULL%0,       Guohui%Fan%NULL%0,       Ying%Liu%NULL%0,       Zhibo%Liu%NULL%0,       Jie%Xiang%NULL%0,       Yeming%Wang%NULL%0,       Bin%Song%NULL%0,       Xiaoying%Gu%NULL%0,       Lulu%Guan%NULL%0,       Yuan%Wei%NULL%0,       Hui%Li%NULL%0,       Xudong%Wu%NULL%0,       Jiuyang%Xu%NULL%0,       Shengjin%Tu%NULL%0,       Yi%Zhang%NULL%0,       Hua%Chen%NULL%0,       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0,       Nancy%Chow%NULL%0,       Katherine%Fleming-Dutra%NULL%1,       Ryan%Gierke%NULL%0,       Aron%Hall%NULL%0,       Michelle%Hughes%NULL%1,       Tamara%Pilishvili%NULL%0,       Matthew%Ritchey%NULL%0,       Katherine%Roguski%NULL%1,       Tami%Skoff%NULL%1,       Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,       Di%Wu%NULL%0,       Huilong%Chen%NULL%0,       Weiming%Yan%NULL%0,       Danlei%Yang%NULL%0,       Guang%Chen%NULL%0,       Ke%Ma%NULL%0,       Dong%Xu%NULL%0,       Haijing%Yu%NULL%0,       Hongwu%Wang%NULL%0,       Tao%Wang%NULL%0,       Wei%Guo%NULL%0,       Jia%Chen%NULL%0,       Chen%Ding%NULL%0,       Xiaoping%Zhang%NULL%0,       Jiaquan%Huang%NULL%0,       Meifang%Han%NULL%0,       Shusheng%Li%NULL%0,       Xiaoping%Luo%NULL%0,       Jianping%Zhao%NULL%0,       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,       Zheng-yi%Ni%NULL%0,       Zheng-yi%Ni%NULL%0,       Yu%Hu%NULL%0,       Wen-hua%Liang%NULL%0,       Chun-quan%Ou%NULL%0,       Jian-xing%He%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chun-liang%Lei%NULL%0,       David S.C.%Hui%NULL%0,       Bin%Du%NULL%0,       Lan-juan%Li%NULL%0,       Guang%Zeng%NULL%0,       Kwok-Yung%Yuen%NULL%0,       Ru-chong%Chen%NULL%0,       Chun-li%Tang%NULL%0,       Tao%Wang%NULL%0,       Ping-yan%Chen%NULL%0,       Jie%Xiang%NULL%0,       Shi-yue%Li%NULL%0,       Jin-lin%Wang%NULL%0,       Zi-jing%Liang%NULL%0,       Yi-xiang%Peng%NULL%0,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Ya-hua%Hu%NULL%0,       Peng%Peng%NULL%0,       Jian-ming%Wang%NULL%0,       Ji-yang%Liu%NULL%0,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhi-jian%Zheng%NULL%0,       Shao-qin%Qiu%NULL%0,       Jie%Luo%NULL%0,       Chang-jiang%Ye%NULL%0,       Shao-yong%Zhu%NULL%0,       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,       Shuyun%Xu%NULL%0,       Muqing%Yu%NULL%0,       Ke%Wang%NULL%0,       Yu%Tao%NULL%0,       Ying%Zhou%NULL%0,       Jing%Shi%NULL%0,       Min%Zhou%NULL%0,       Bo%Wu%NULL%0,       Zhenyu%Yang%NULL%0,       Cong%Zhang%NULL%0,       Junqing%Yue%NULL%0,       Zhiguo%Zhang%NULL%0,       Harald%Renz%NULL%0,       Xiansheng%Liu%NULL%0,       Jungang%Xie%NULL%0,       Min%Xie%NULL%0,       Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,      Cao%Yi-yuan%coreGivesNoEmail%1,      Dong%Xiang%coreGivesNoEmail%1,      Gao%Ya-dong%coreGivesNoEmail%1,      Yan%You-qin%coreGivesNoEmail%1,      Yang%Yi-bin%coreGivesNoEmail%1,      Yuan%Ya-dong%coreGivesNoEmail%1,      Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,       Yun%Ling%NULL%0,       Yun%Ling%NULL%0,       Tao%Bai%NULL%2,       Tao%Bai%NULL%0,       Yusang%Xie%NULL%1,       Jie%Huang%NULL%2,       Jie%Huang%NULL%0,       Jian%Li%NULL%1,       Weining%Xiong%NULL%1,       Dexiang%Yang%NULL%1,       Rong%Chen%NULL%0,       Fangying%Lu%NULL%1,       Yunfei%Lu%NULL%1,       Xuhui%Liu%NULL%1,       Yuqing%Chen%NULL%2,       Yuqing%Chen%NULL%0,       Xin%Li%NULL%0,       Yong%Li%NULL%1,       Hanssa Dwarka%Summah%NULL%1,       Huihuang%Lin%NULL%1,       Jiayang%Yan%NULL%1,       Min%Zhou%NULL%0,       Hongzhou%Lu%NULL%0,       Hongzhou%Lu%NULL%0,       Jieming%Qu%NULL%0,       Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,       Bum Sik%Chin%NULL%2,       Bum Sik%Chin%NULL%0,       Chang Kyung%Kang%NULL%0,       Chang Kyung%Kang%NULL%0,       Nam Joong%Kim%NULL%0,       Nam Joong%Kim%NULL%0,       Yu Min%Kang%NULL%0,       Yu Min%Kang%NULL%0,       Jae-Phil%Choi%NULL%2,       Jae-Phil%Choi%NULL%0,       Dong Hyun%Oh%NULL%2,       Dong Hyun%Oh%NULL%0,       Jeong-Han%Kim%NULL%2,       Jeong-Han%Kim%NULL%0,       Boram%Koh%NULL%2,       Boram%Koh%NULL%0,       Seong Eun%Kim%NULL%2,       Seong Eun%Kim%NULL%0,       Na Ra%Yun%NULL%2,       Na Ra%Yun%NULL%0,       Jae-Hoon%Lee%NULL%2,       Jae-Hoon%Lee%NULL%0,       Jin Yong%Kim%NULL%0,       Jin Yong%Kim%NULL%0,       Yeonjae%Kim%NULL%2,       Yeonjae%Kim%NULL%0,       Ji Hwan%Bang%NULL%2,       Ji Hwan%Bang%NULL%0,       Kyoung-Ho%Song%NULL%2,       Kyoung-Ho%Song%NULL%0,       Hong Bin%Kim%NULL%2,       Hong Bin%Kim%NULL%0,       Ki-hyun%Chung%NULL%2,       Ki-hyun%Chung%NULL%0,       Myoung-don%Oh%NULL%0,       Myoung-don%Oh%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,       Zhao-Wu%Tao%NULL%1,       Lei%Wang%NULL%1,       Ming-Li%Yuan%NULL%0,       Kui%Liu%NULL%0,       Ling%Zhou%NULL%0,       Shuang%Wei%NULL%0,       Yan%Deng%NULL%0,       Jing%Liu%NULL%0,       Hui-Guo%Liu%NULL%0,       Ming%Yang%NULL%1,       Yi%Hu%NULL%0,       Pei-Fang%Wei%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,       Xia%Yu%NULL%1,       Hong%Zhao%NULL%1,       Hao%Wang%NULL%1,       Ruihong%Zhao%NULL%0,       Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,       Yuan%Yu%NULL%0,       Jiqian%Xu%NULL%0,       Huaqing%Shu%NULL%0,       Jia'an%Xia%NULL%0,       Hong%Liu%NULL%0,       Yongran%Wu%NULL%0,       Lu%Zhang%NULL%0,       Zhui%Yu%NULL%0,       Minghao%Fang%NULL%0,       Ting%Yu%NULL%0,       Yaxin%Wang%NULL%0,       Shangwen%Pan%NULL%0,       Xiaojing%Zou%NULL%0,       Shiying%Yuan%NULL%0,       You%Shang%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1200,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1037,7 +1229,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1066,7 +1258,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1095,7 +1287,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1124,7 +1316,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1153,7 +1345,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1182,7 +1374,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
@@ -1211,7 +1403,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1240,7 +1432,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1269,7 +1461,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1298,13 +1490,13 @@
         <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
@@ -1327,7 +1519,7 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -1356,7 +1548,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1385,7 +1577,7 @@
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
@@ -1414,7 +1606,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -1443,7 +1635,7 @@
         <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>

--- a/Covid_19_Dataset_and_References/References/65.xlsx
+++ b/Covid_19_Dataset_and_References/References/65.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="233">
   <si>
     <t>Doi</t>
   </si>
@@ -836,6 +836,102 @@
   </si>
   <si>
     <t>[Xiaobo%Yang%NULL%0,       Yuan%Yu%NULL%0,       Jiqian%Xu%NULL%0,       Huaqing%Shu%NULL%0,       Jia'an%Xia%NULL%0,       Hong%Liu%NULL%0,       Yongran%Wu%NULL%0,       Lu%Zhang%NULL%0,       Zhui%Yu%NULL%0,       Minghao%Fang%NULL%0,       Ting%Yu%NULL%0,       Yaxin%Wang%NULL%0,       Shangwen%Pan%NULL%0,       Xiaojing%Zou%NULL%0,       Shiying%Yuan%NULL%0,       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,        Justin J.%Choi%NULL%0,        Laura C.%Pinheiro%NULL%0,        Edward J.%Schenck%NULL%0,        Ruijun%Chen%NULL%0,        Assem%Jabri%NULL%0,        Michael J.%Satlin%NULL%0,        Thomas R.%Campion%NULL%0,        Musarrat%Nahid%NULL%0,        Joanna B.%Ringel%NULL%0,        Katherine L.%Hoffman%NULL%0,        Mark N.%Alshak%NULL%0,        Han A.%Li%NULL%0,        Graham T.%Wehmeyer%NULL%0,        Graham T.%Wehmeyer%NULL%0,        Mangala%Rajan%NULL%0,        Evgeniya%Reshetnyak%NULL%0,        Nathaniel%Hupert%NULL%0,        Evelyn M.%Horn%NULL%0,        Fernando J.%Martinez%NULL%0,        Roy M.%Gulick%NULL%0,        Monika M.%Safford%NULL%0,        Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,        Yeming%Wang%NULL%0,        Xingwang%Li%NULL%0,        Lili%Ren%NULL%0,        Jianping%Zhao%NULL%0,        Yi%Hu%NULL%0,        Li%Zhang%NULL%0,        Guohui%Fan%NULL%0,        Jiuyang%Xu%NULL%0,        Xiaoying%Gu%NULL%0,        Zhenshun%Cheng%NULL%0,        Ting%Yu%NULL%0,        Jiaan%Xia%NULL%0,        Yuan%Wei%NULL%0,        Wenjuan%Wu%NULL%0,        Xuelei%Xie%NULL%0,        Wen%Yin%NULL%0,        Hui%Li%NULL%0,        Min%Liu%NULL%0,        Yan%Xiao%NULL%0,        Hong%Gao%NULL%0,        Li%Guo%NULL%0,        Jungang%Xie%NULL%0,        Guangfa%Wang%NULL%0,        Rongmeng%Jiang%NULL%0,        Zhancheng%Gao%NULL%0,        Qi%Jin%NULL%0,        Jianwei%Wang%wangjw28@163.com%0,        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,        Yi%Xiang%NULL%1,        Wei%Fang%NULL%0,        Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,        Boqun%Li%279685211@qq.com%2,        Boqun%Li%279685211@qq.com%0,        Yanjun%Hu%huyanjun@163.com%1,        Chunhui%Lang%NULL%1,        Daoqiu%Huang%NULL%1,        Qiuyan%Sun%NULL%1,        Yan%Xiong%NULL%2,        Xia%Huang%NULL%1,        Jinglong%Lv%NULL%1,        Yaling%Luo%NULL%1,        Li%Shen%NULL%1,        Haoran%Yang%NULL%1,        Gu%Huang%NULL%1,        Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,        Min%Pan%NULL%0,        Xiumei%Zhang%NULL%0,        Mingfeng%Han%fyhmf@163.com%0,        Xiaoyun%Fan%13956988552@126.com%0,        Fengde%Zhao%NULL%0,        Manli%Miao%NULL%0,        Jing%Xu%NULL%0,        Minglong%Guan%NULL%0,        Xia%Deng%NULL%0,        Xu%Chen%NULL%0,        Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,        Huan%Cai%NULL%0,        Jianhua%Hu%NULL%0,        Jiangshan%Lian%NULL%0,        Jueqing%Gu%NULL%0,        Shanyan%Zhang%NULL%0,        Chanyuan%Ye%NULL%1,        Yingfeng%Lu%NULL%0,        Ciliang%Jin%NULL%0,        Guodong%Yu%NULL%0,        Hongyu%Jia%NULL%0,        Yimin%Zhang%NULL%0,        Jifang%Sheng%jifang_sheng@zju.edu.cn%0,        Lanjuan%Li%ljli@zju.edu.cn%2,        Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%0,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%0,        Jie%Xiang%NULL%0,        Yeming%Wang%NULL%0,        Bin%Song%NULL%0,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%0,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%0,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%0,        Yi%Zhang%NULL%0,        Hua%Chen%NULL%0,        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0,        Nancy%Chow%NULL%1,        Katherine%Fleming-Dutra%NULL%1,        Ryan%Gierke%NULL%1,        Aron%Hall%NULL%1,        Michelle%Hughes%NULL%1,        Tamara%Pilishvili%NULL%1,        Matthew%Ritchey%NULL%1,        Katherine%Roguski%NULL%1,        Tami%Skoff%NULL%1,        Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,        Di%Wu%NULL%0,        Huilong%Chen%NULL%0,        Weiming%Yan%NULL%0,        Danlei%Yang%NULL%0,        Guang%Chen%NULL%0,        Ke%Ma%NULL%0,        Dong%Xu%NULL%0,        Haijing%Yu%NULL%0,        Hongwu%Wang%NULL%0,        Tao%Wang%NULL%0,        Wei%Guo%NULL%0,        Jia%Chen%NULL%0,        Chen%Ding%NULL%0,        Xiaoping%Zhang%NULL%0,        Jiaquan%Huang%NULL%0,        Meifang%Han%NULL%0,        Shusheng%Li%NULL%0,        Xiaoping%Luo%NULL%0,        Jianping%Zhao%NULL%0,        Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,        Zheng-yi%Ni%NULL%0,        Zheng-yi%Ni%NULL%0,        Yu%Hu%NULL%0,        Wen-hua%Liang%NULL%0,        Chun-quan%Ou%NULL%0,        Jian-xing%He%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chun-liang%Lei%NULL%0,        David S.C.%Hui%NULL%0,        Bin%Du%NULL%0,        Lan-juan%Li%NULL%0,        Guang%Zeng%NULL%0,        Kwok-Yung%Yuen%NULL%0,        Ru-chong%Chen%NULL%0,        Chun-li%Tang%NULL%0,        Tao%Wang%NULL%0,        Ping-yan%Chen%NULL%0,        Jie%Xiang%NULL%0,        Shi-yue%Li%NULL%0,        Jin-lin%Wang%NULL%0,        Zi-jing%Liang%NULL%0,        Yi-xiang%Peng%NULL%0,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Ya-hua%Hu%NULL%0,        Peng%Peng%NULL%0,        Jian-ming%Wang%NULL%0,        Ji-yang%Liu%NULL%0,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhi-jian%Zheng%NULL%0,        Shao-qin%Qiu%NULL%0,        Jie%Luo%NULL%0,        Chang-jiang%Ye%NULL%0,        Shao-yong%Zhu%NULL%0,        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,        Shuyun%Xu%NULL%2,        Muqing%Yu%NULL%2,        Ke%Wang%NULL%3,        Yu%Tao%NULL%4,        Ying%Zhou%NULL%0,        Jing%Shi%NULL%2,        Min%Zhou%NULL%0,        Bo%Wu%NULL%2,        Zhenyu%Yang%NULL%2,        Cong%Zhang%NULL%2,        Junqing%Yue%NULL%2,        Zhiguo%Zhang%NULL%2,        Harald%Renz%NULL%2,        Xiansheng%Liu%NULL%2,        Jungang%Xie%NULL%0,        Min%Xie%NULL%2,        Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,       Cao%Yi-yuan%coreGivesNoEmail%2,       Dong%Xiang%coreGivesNoEmail%2,       Gao%Ya-dong%coreGivesNoEmail%2,       Yan%You-qin%coreGivesNoEmail%2,       Yang%Yi-bin%coreGivesNoEmail%2,       Yuan%Ya-dong%coreGivesNoEmail%2,       Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,        Yun%Ling%NULL%0,        Yun%Ling%NULL%0,        Tao%Bai%NULL%2,        Tao%Bai%NULL%0,        Yusang%Xie%NULL%1,        Jie%Huang%NULL%2,        Jie%Huang%NULL%0,        Jian%Li%NULL%1,        Weining%Xiong%NULL%1,        Dexiang%Yang%NULL%1,        Rong%Chen%NULL%1,        Fangying%Lu%NULL%1,        Yunfei%Lu%NULL%1,        Xuhui%Liu%NULL%1,        Yuqing%Chen%NULL%2,        Yuqing%Chen%NULL%0,        Xin%Li%NULL%0,        Yong%Li%NULL%0,        Hanssa Dwarka%Summah%NULL%1,        Huihuang%Lin%NULL%1,        Jiayang%Yan%NULL%1,        Min%Zhou%NULL%0,        Hongzhou%Lu%NULL%0,        Hongzhou%Lu%NULL%0,        Jieming%Qu%NULL%0,        Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,        Bum Sik%Chin%NULL%2,        Bum Sik%Chin%NULL%0,        Chang Kyung%Kang%NULL%2,        Chang Kyung%Kang%NULL%0,        Nam Joong%Kim%NULL%2,        Nam Joong%Kim%NULL%0,        Yu Min%Kang%NULL%2,        Yu Min%Kang%NULL%0,        Jae-Phil%Choi%NULL%2,        Jae-Phil%Choi%NULL%0,        Dong Hyun%Oh%NULL%2,        Dong Hyun%Oh%NULL%0,        Jeong-Han%Kim%NULL%2,        Jeong-Han%Kim%NULL%0,        Boram%Koh%NULL%2,        Boram%Koh%NULL%0,        Seong Eun%Kim%NULL%2,        Seong Eun%Kim%NULL%0,        Na Ra%Yun%NULL%2,        Na Ra%Yun%NULL%0,        Jae-Hoon%Lee%NULL%2,        Jae-Hoon%Lee%NULL%0,        Jin Yong%Kim%NULL%0,        Jin Yong%Kim%NULL%0,        Yeonjae%Kim%NULL%2,        Yeonjae%Kim%NULL%0,        Ji Hwan%Bang%NULL%2,        Ji Hwan%Bang%NULL%0,        Kyoung-Ho%Song%NULL%3,        Kyoung-Ho%Song%NULL%0,        Hong Bin%Kim%NULL%3,        Hong Bin%Kim%NULL%0,        Ki-hyun%Chung%NULL%2,        Ki-hyun%Chung%NULL%0,        Myoung-don%Oh%NULL%2,        Myoung-don%Oh%NULL%0,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,        Zhao-Wu%Tao%NULL%1,        Lei%Wang%NULL%1,        Ming-Li%Yuan%NULL%1,        Kui%Liu%NULL%3,        Ling%Zhou%NULL%2,        Shuang%Wei%NULL%2,        Yan%Deng%NULL%0,        Jing%Liu%NULL%0,        Hui-Guo%Liu%NULL%0,        Ming%Yang%NULL%0,        Yi%Hu%NULL%0,        Pei-Fang%Wei%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,        Xia%Yu%NULL%1,        Hong%Zhao%NULL%1,        Hao%Wang%NULL%2,        Ruihong%Zhao%NULL%0,        Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,        Yuan%Yu%NULL%0,        Jiqian%Xu%NULL%0,        Huaqing%Shu%NULL%0,        Jia'an%Xia%NULL%0,        Hong%Liu%NULL%0,        Yongran%Wu%NULL%0,        Lu%Zhang%NULL%0,        Zhui%Yu%NULL%0,        Minghao%Fang%NULL%0,        Ting%Yu%NULL%0,        Yaxin%Wang%NULL%0,        Shangwen%Pan%NULL%0,        Xiaojing%Zou%NULL%0,        Shiying%Yuan%NULL%0,        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,         Justin J.%Choi%NULL%0,         Laura C.%Pinheiro%NULL%0,         Edward J.%Schenck%NULL%0,         Ruijun%Chen%NULL%0,         Assem%Jabri%NULL%0,         Michael J.%Satlin%NULL%0,         Thomas R.%Campion%NULL%0,         Musarrat%Nahid%NULL%0,         Joanna B.%Ringel%NULL%0,         Katherine L.%Hoffman%NULL%0,         Mark N.%Alshak%NULL%0,         Han A.%Li%NULL%0,         Graham T.%Wehmeyer%NULL%0,         Graham T.%Wehmeyer%NULL%0,         Mangala%Rajan%NULL%0,         Evgeniya%Reshetnyak%NULL%0,         Nathaniel%Hupert%NULL%0,         Evelyn M.%Horn%NULL%0,         Fernando J.%Martinez%NULL%0,         Roy M.%Gulick%NULL%0,         Monika M.%Safford%NULL%0,         Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,         Yeming%Wang%NULL%0,         Xingwang%Li%NULL%0,         Lili%Ren%NULL%0,         Jianping%Zhao%NULL%0,         Yi%Hu%NULL%0,         Li%Zhang%NULL%0,         Guohui%Fan%NULL%0,         Jiuyang%Xu%NULL%0,         Xiaoying%Gu%NULL%0,         Zhenshun%Cheng%NULL%0,         Ting%Yu%NULL%0,         Jiaan%Xia%NULL%0,         Yuan%Wei%NULL%0,         Wenjuan%Wu%NULL%0,         Xuelei%Xie%NULL%0,         Wen%Yin%NULL%0,         Hui%Li%NULL%0,         Min%Liu%NULL%0,         Yan%Xiao%NULL%0,         Hong%Gao%NULL%0,         Li%Guo%NULL%0,         Jungang%Xie%NULL%0,         Guangfa%Wang%NULL%0,         Rongmeng%Jiang%NULL%0,         Zhancheng%Gao%NULL%0,         Qi%Jin%NULL%0,         Jianwei%Wang%wangjw28@163.com%0,         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,         Yi%Xiang%NULL%1,         Wei%Fang%NULL%0,         Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,         Boqun%Li%279685211@qq.com%2,         Boqun%Li%279685211@qq.com%0,         Yanjun%Hu%huyanjun@163.com%1,         Chunhui%Lang%NULL%1,         Daoqiu%Huang%NULL%1,         Qiuyan%Sun%NULL%1,         Yan%Xiong%NULL%2,         Xia%Huang%NULL%1,         Jinglong%Lv%NULL%1,         Yaling%Luo%NULL%1,         Li%Shen%NULL%1,         Haoran%Yang%NULL%1,         Gu%Huang%NULL%1,         Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,         Min%Pan%NULL%0,         Xiumei%Zhang%NULL%0,         Mingfeng%Han%fyhmf@163.com%0,         Xiaoyun%Fan%13956988552@126.com%0,         Fengde%Zhao%NULL%0,         Manli%Miao%NULL%0,         Jing%Xu%NULL%0,         Minglong%Guan%NULL%0,         Xia%Deng%NULL%0,         Xu%Chen%NULL%0,         Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,         Huan%Cai%NULL%0,         Jianhua%Hu%NULL%0,         Jiangshan%Lian%NULL%0,         Jueqing%Gu%NULL%0,         Shanyan%Zhang%NULL%0,         Chanyuan%Ye%NULL%1,         Yingfeng%Lu%NULL%0,         Ciliang%Jin%NULL%0,         Guodong%Yu%NULL%0,         Hongyu%Jia%NULL%0,         Yimin%Zhang%NULL%0,         Jifang%Sheng%jifang_sheng@zju.edu.cn%0,         Lanjuan%Li%ljli@zju.edu.cn%2,         Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,         Ting%Yu%NULL%0,         Ronghui%Du%NULL%0,         Guohui%Fan%NULL%0,         Ying%Liu%NULL%0,         Zhibo%Liu%NULL%0,         Jie%Xiang%NULL%0,         Yeming%Wang%NULL%0,         Bin%Song%NULL%0,         Xiaoying%Gu%NULL%0,         Lulu%Guan%NULL%0,         Yuan%Wei%NULL%0,         Hui%Li%NULL%0,         Xudong%Wu%NULL%0,         Jiuyang%Xu%NULL%0,         Shengjin%Tu%NULL%0,         Yi%Zhang%NULL%0,         Hua%Chen%NULL%0,         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0,         Nancy%Chow%NULL%1,         Katherine%Fleming-Dutra%NULL%1,         Ryan%Gierke%NULL%1,         Aron%Hall%NULL%1,         Michelle%Hughes%NULL%1,         Tamara%Pilishvili%NULL%1,         Matthew%Ritchey%NULL%1,         Katherine%Roguski%NULL%1,         Tami%Skoff%NULL%1,         Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,         Di%Wu%NULL%0,         Huilong%Chen%NULL%0,         Weiming%Yan%NULL%0,         Danlei%Yang%NULL%0,         Guang%Chen%NULL%0,         Ke%Ma%NULL%0,         Dong%Xu%NULL%0,         Haijing%Yu%NULL%0,         Hongwu%Wang%NULL%0,         Tao%Wang%NULL%0,         Wei%Guo%NULL%0,         Jia%Chen%NULL%0,         Chen%Ding%NULL%0,         Xiaoping%Zhang%NULL%0,         Jiaquan%Huang%NULL%0,         Meifang%Han%NULL%0,         Shusheng%Li%NULL%0,         Xiaoping%Luo%NULL%0,         Jianping%Zhao%NULL%0,         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,         Zheng-yi%Ni%NULL%0,         Zheng-yi%Ni%NULL%0,         Yu%Hu%NULL%0,         Wen-hua%Liang%NULL%0,         Chun-quan%Ou%NULL%0,         Jian-xing%He%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chun-liang%Lei%NULL%0,         David S.C.%Hui%NULL%0,         Bin%Du%NULL%0,         Lan-juan%Li%NULL%0,         Guang%Zeng%NULL%0,         Kwok-Yung%Yuen%NULL%0,         Ru-chong%Chen%NULL%0,         Chun-li%Tang%NULL%0,         Tao%Wang%NULL%0,         Ping-yan%Chen%NULL%0,         Jie%Xiang%NULL%0,         Shi-yue%Li%NULL%0,         Jin-lin%Wang%NULL%0,         Zi-jing%Liang%NULL%0,         Yi-xiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Ya-hua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jian-ming%Wang%NULL%0,         Ji-yang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhi-jian%Zheng%NULL%0,         Shao-qin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Chang-jiang%Ye%NULL%0,         Shao-yong%Zhu%NULL%0,         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,         Shuyun%Xu%NULL%2,         Muqing%Yu%NULL%2,         Ke%Wang%NULL%3,         Yu%Tao%NULL%4,         Ying%Zhou%NULL%0,         Jing%Shi%NULL%2,         Min%Zhou%NULL%0,         Bo%Wu%NULL%2,         Zhenyu%Yang%NULL%2,         Cong%Zhang%NULL%2,         Junqing%Yue%NULL%2,         Zhiguo%Zhang%NULL%2,         Harald%Renz%NULL%2,         Xiansheng%Liu%NULL%2,         Jungang%Xie%NULL%0,         Min%Xie%NULL%2,         Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,        Cao%Yi-yuan%coreGivesNoEmail%2,        Dong%Xiang%coreGivesNoEmail%2,        Gao%Ya-dong%coreGivesNoEmail%2,        Yan%You-qin%coreGivesNoEmail%2,        Yang%Yi-bin%coreGivesNoEmail%2,        Yuan%Ya-dong%coreGivesNoEmail%2,        Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,         Yun%Ling%NULL%0,         Yun%Ling%NULL%0,         Tao%Bai%NULL%2,         Tao%Bai%NULL%0,         Yusang%Xie%NULL%1,         Jie%Huang%NULL%2,         Jie%Huang%NULL%0,         Jian%Li%NULL%1,         Weining%Xiong%NULL%1,         Dexiang%Yang%NULL%1,         Rong%Chen%NULL%1,         Fangying%Lu%NULL%1,         Yunfei%Lu%NULL%1,         Xuhui%Liu%NULL%1,         Yuqing%Chen%NULL%2,         Yuqing%Chen%NULL%0,         Xin%Li%NULL%0,         Yong%Li%NULL%0,         Hanssa Dwarka%Summah%NULL%1,         Huihuang%Lin%NULL%1,         Jiayang%Yan%NULL%1,         Min%Zhou%NULL%0,         Hongzhou%Lu%NULL%0,         Hongzhou%Lu%NULL%0,         Jieming%Qu%NULL%0,         Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,         Bum Sik%Chin%NULL%2,         Bum Sik%Chin%NULL%0,         Chang Kyung%Kang%NULL%2,         Chang Kyung%Kang%NULL%0,         Nam Joong%Kim%NULL%2,         Nam Joong%Kim%NULL%0,         Yu Min%Kang%NULL%2,         Yu Min%Kang%NULL%0,         Jae-Phil%Choi%NULL%2,         Jae-Phil%Choi%NULL%0,         Dong Hyun%Oh%NULL%2,         Dong Hyun%Oh%NULL%0,         Jeong-Han%Kim%NULL%2,         Jeong-Han%Kim%NULL%0,         Boram%Koh%NULL%2,         Boram%Koh%NULL%0,         Seong Eun%Kim%NULL%2,         Seong Eun%Kim%NULL%0,         Na Ra%Yun%NULL%2,         Na Ra%Yun%NULL%0,         Jae-Hoon%Lee%NULL%2,         Jae-Hoon%Lee%NULL%0,         Jin Yong%Kim%NULL%0,         Jin Yong%Kim%NULL%0,         Yeonjae%Kim%NULL%2,         Yeonjae%Kim%NULL%0,         Ji Hwan%Bang%NULL%2,         Ji Hwan%Bang%NULL%0,         Kyoung-Ho%Song%NULL%3,         Kyoung-Ho%Song%NULL%0,         Hong Bin%Kim%NULL%3,         Hong Bin%Kim%NULL%0,         Ki-hyun%Chung%NULL%2,         Ki-hyun%Chung%NULL%0,         Myoung-don%Oh%NULL%2,         Myoung-don%Oh%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,         Zhao-Wu%Tao%NULL%1,         Lei%Wang%NULL%1,         Ming-Li%Yuan%NULL%1,         Kui%Liu%NULL%3,         Ling%Zhou%NULL%2,         Shuang%Wei%NULL%2,         Yan%Deng%NULL%0,         Jing%Liu%NULL%0,         Hui-Guo%Liu%NULL%0,         Ming%Yang%NULL%0,         Yi%Hu%NULL%0,         Pei-Fang%Wei%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,         Xia%Yu%NULL%1,         Hong%Zhao%NULL%1,         Hao%Wang%NULL%2,         Ruihong%Zhao%NULL%0,         Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,         Yuan%Yu%NULL%0,         Jiqian%Xu%NULL%0,         Huaqing%Shu%NULL%0,         Jia'an%Xia%NULL%0,         Hong%Liu%NULL%0,         Yongran%Wu%NULL%0,         Lu%Zhang%NULL%0,         Zhui%Yu%NULL%0,         Minghao%Fang%NULL%0,         Ting%Yu%NULL%0,         Yaxin%Wang%NULL%0,         Shangwen%Pan%NULL%0,         Xiaojing%Zou%NULL%0,         Shiying%Yuan%NULL%0,         You%Shang%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1296,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1229,7 +1325,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1258,7 +1354,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1287,7 +1383,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1316,7 +1412,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1345,7 +1441,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1374,7 +1470,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
@@ -1403,7 +1499,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1432,7 +1528,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1461,7 +1557,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1490,7 +1586,7 @@
         <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1519,7 +1615,7 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -1548,7 +1644,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1577,7 +1673,7 @@
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
@@ -1606,7 +1702,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -1635,7 +1731,7 @@
         <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>

--- a/Covid_19_Dataset_and_References/References/65.xlsx
+++ b/Covid_19_Dataset_and_References/References/65.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="265">
   <si>
     <t>Doi</t>
   </si>
@@ -932,6 +932,102 @@
   </si>
   <si>
     <t>[Xiaobo%Yang%NULL%0,         Yuan%Yu%NULL%0,         Jiqian%Xu%NULL%0,         Huaqing%Shu%NULL%0,         Jia'an%Xia%NULL%0,         Hong%Liu%NULL%0,         Yongran%Wu%NULL%0,         Lu%Zhang%NULL%0,         Zhui%Yu%NULL%0,         Minghao%Fang%NULL%0,         Ting%Yu%NULL%0,         Yaxin%Wang%NULL%0,         Shangwen%Pan%NULL%0,         Xiaojing%Zou%NULL%0,         Shiying%Yuan%NULL%0,         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,          Justin J.%Choi%NULL%0,          Laura C.%Pinheiro%NULL%0,          Edward J.%Schenck%NULL%0,          Ruijun%Chen%NULL%0,          Assem%Jabri%NULL%0,          Michael J.%Satlin%NULL%0,          Thomas R.%Campion%NULL%0,          Musarrat%Nahid%NULL%0,          Joanna B.%Ringel%NULL%0,          Katherine L.%Hoffman%NULL%0,          Mark N.%Alshak%NULL%0,          Han A.%Li%NULL%0,          Graham T.%Wehmeyer%NULL%0,          Graham T.%Wehmeyer%NULL%0,          Mangala%Rajan%NULL%0,          Evgeniya%Reshetnyak%NULL%0,          Nathaniel%Hupert%NULL%0,          Evelyn M.%Horn%NULL%0,          Fernando J.%Martinez%NULL%0,          Roy M.%Gulick%NULL%0,          Monika M.%Safford%NULL%0,          Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,          Yeming%Wang%NULL%0,          Xingwang%Li%NULL%0,          Lili%Ren%NULL%0,          Jianping%Zhao%NULL%0,          Yi%Hu%NULL%0,          Li%Zhang%NULL%0,          Guohui%Fan%NULL%0,          Jiuyang%Xu%NULL%0,          Xiaoying%Gu%NULL%0,          Zhenshun%Cheng%NULL%0,          Ting%Yu%NULL%0,          Jiaan%Xia%NULL%0,          Yuan%Wei%NULL%0,          Wenjuan%Wu%NULL%0,          Xuelei%Xie%NULL%0,          Wen%Yin%NULL%0,          Hui%Li%NULL%0,          Min%Liu%NULL%0,          Yan%Xiao%NULL%0,          Hong%Gao%NULL%0,          Li%Guo%NULL%0,          Jungang%Xie%NULL%0,          Guangfa%Wang%NULL%0,          Rongmeng%Jiang%NULL%0,          Zhancheng%Gao%NULL%0,          Qi%Jin%NULL%0,          Jianwei%Wang%wangjw28@163.com%0,          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,          Yi%Xiang%NULL%1,          Wei%Fang%NULL%0,          Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,          Boqun%Li%279685211@qq.com%2,          Boqun%Li%279685211@qq.com%0,          Yanjun%Hu%huyanjun@163.com%1,          Chunhui%Lang%NULL%1,          Daoqiu%Huang%NULL%1,          Qiuyan%Sun%NULL%1,          Yan%Xiong%NULL%2,          Xia%Huang%NULL%1,          Jinglong%Lv%NULL%1,          Yaling%Luo%NULL%1,          Li%Shen%NULL%1,          Haoran%Yang%NULL%1,          Gu%Huang%NULL%1,          Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,          Min%Pan%NULL%0,          Xiumei%Zhang%NULL%0,          Mingfeng%Han%fyhmf@163.com%0,          Xiaoyun%Fan%13956988552@126.com%0,          Fengde%Zhao%NULL%0,          Manli%Miao%NULL%0,          Jing%Xu%NULL%0,          Minglong%Guan%NULL%0,          Xia%Deng%NULL%0,          Xu%Chen%NULL%0,          Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,          Huan%Cai%NULL%0,          Jianhua%Hu%NULL%0,          Jiangshan%Lian%NULL%0,          Jueqing%Gu%NULL%0,          Shanyan%Zhang%NULL%0,          Chanyuan%Ye%NULL%1,          Yingfeng%Lu%NULL%0,          Ciliang%Jin%NULL%0,          Guodong%Yu%NULL%0,          Hongyu%Jia%NULL%0,          Yimin%Zhang%NULL%0,          Jifang%Sheng%jifang_sheng@zju.edu.cn%0,          Lanjuan%Li%ljli@zju.edu.cn%2,          Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%0,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%0,          Jie%Xiang%NULL%0,          Yeming%Wang%NULL%0,          Bin%Song%NULL%0,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%0,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%0,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%0,          Yi%Zhang%NULL%0,          Hua%Chen%NULL%0,          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0,          Nancy%Chow%NULL%1,          Katherine%Fleming-Dutra%NULL%1,          Ryan%Gierke%NULL%1,          Aron%Hall%NULL%1,          Michelle%Hughes%NULL%1,          Tamara%Pilishvili%NULL%1,          Matthew%Ritchey%NULL%1,          Katherine%Roguski%NULL%1,          Tami%Skoff%NULL%1,          Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,          Di%Wu%NULL%0,          Huilong%Chen%NULL%0,          Weiming%Yan%NULL%0,          Danlei%Yang%NULL%0,          Guang%Chen%NULL%0,          Ke%Ma%NULL%0,          Dong%Xu%NULL%0,          Haijing%Yu%NULL%0,          Hongwu%Wang%NULL%0,          Tao%Wang%NULL%0,          Wei%Guo%NULL%0,          Jia%Chen%NULL%0,          Chen%Ding%NULL%0,          Xiaoping%Zhang%NULL%0,          Jiaquan%Huang%NULL%0,          Meifang%Han%NULL%0,          Shusheng%Li%NULL%0,          Xiaoping%Luo%NULL%0,          Jianping%Zhao%NULL%0,          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,          Zheng-yi%Ni%NULL%0,          Zheng-yi%Ni%NULL%0,          Yu%Hu%NULL%0,          Wen-hua%Liang%NULL%0,          Chun-quan%Ou%NULL%0,          Jian-xing%He%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chun-liang%Lei%NULL%0,          David S.C.%Hui%NULL%0,          Bin%Du%NULL%0,          Lan-juan%Li%NULL%0,          Guang%Zeng%NULL%0,          Kwok-Yung%Yuen%NULL%0,          Ru-chong%Chen%NULL%0,          Chun-li%Tang%NULL%0,          Tao%Wang%NULL%0,          Ping-yan%Chen%NULL%0,          Jie%Xiang%NULL%0,          Shi-yue%Li%NULL%0,          Jin-lin%Wang%NULL%0,          Zi-jing%Liang%NULL%0,          Yi-xiang%Peng%NULL%0,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Ya-hua%Hu%NULL%0,          Peng%Peng%NULL%0,          Jian-ming%Wang%NULL%0,          Ji-yang%Liu%NULL%0,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhi-jian%Zheng%NULL%0,          Shao-qin%Qiu%NULL%0,          Jie%Luo%NULL%0,          Chang-jiang%Ye%NULL%0,          Shao-yong%Zhu%NULL%0,          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,          Shuyun%Xu%NULL%2,          Muqing%Yu%NULL%2,          Ke%Wang%NULL%3,          Yu%Tao%NULL%4,          Ying%Zhou%NULL%0,          Jing%Shi%NULL%2,          Min%Zhou%NULL%0,          Bo%Wu%NULL%2,          Zhenyu%Yang%NULL%2,          Cong%Zhang%NULL%2,          Junqing%Yue%NULL%2,          Zhiguo%Zhang%NULL%2,          Harald%Renz%NULL%2,          Xiansheng%Liu%NULL%2,          Jungang%Xie%NULL%0,          Min%Xie%NULL%2,          Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,         Cao%Yi-yuan%coreGivesNoEmail%2,         Dong%Xiang%coreGivesNoEmail%2,         Gao%Ya-dong%coreGivesNoEmail%2,         Yan%You-qin%coreGivesNoEmail%2,         Yang%Yi-bin%coreGivesNoEmail%2,         Yuan%Ya-dong%coreGivesNoEmail%2,         Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,          Yun%Ling%NULL%0,          Yun%Ling%NULL%0,          Tao%Bai%NULL%2,          Tao%Bai%NULL%0,          Yusang%Xie%NULL%1,          Jie%Huang%NULL%2,          Jie%Huang%NULL%0,          Jian%Li%NULL%1,          Weining%Xiong%NULL%1,          Dexiang%Yang%NULL%1,          Rong%Chen%NULL%1,          Fangying%Lu%NULL%1,          Yunfei%Lu%NULL%1,          Xuhui%Liu%NULL%1,          Yuqing%Chen%NULL%2,          Yuqing%Chen%NULL%0,          Xin%Li%NULL%0,          Yong%Li%NULL%0,          Hanssa Dwarka%Summah%NULL%1,          Huihuang%Lin%NULL%1,          Jiayang%Yan%NULL%1,          Min%Zhou%NULL%0,          Hongzhou%Lu%NULL%0,          Hongzhou%Lu%NULL%0,          Jieming%Qu%NULL%0,          Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,          Bum Sik%Chin%NULL%2,          Bum Sik%Chin%NULL%0,          Chang Kyung%Kang%NULL%2,          Chang Kyung%Kang%NULL%0,          Nam Joong%Kim%NULL%2,          Nam Joong%Kim%NULL%0,          Yu Min%Kang%NULL%2,          Yu Min%Kang%NULL%0,          Jae-Phil%Choi%NULL%2,          Jae-Phil%Choi%NULL%0,          Dong Hyun%Oh%NULL%2,          Dong Hyun%Oh%NULL%0,          Jeong-Han%Kim%NULL%2,          Jeong-Han%Kim%NULL%0,          Boram%Koh%NULL%2,          Boram%Koh%NULL%0,          Seong Eun%Kim%NULL%2,          Seong Eun%Kim%NULL%0,          Na Ra%Yun%NULL%2,          Na Ra%Yun%NULL%0,          Jae-Hoon%Lee%NULL%2,          Jae-Hoon%Lee%NULL%0,          Jin Yong%Kim%NULL%0,          Jin Yong%Kim%NULL%0,          Yeonjae%Kim%NULL%2,          Yeonjae%Kim%NULL%0,          Ji Hwan%Bang%NULL%2,          Ji Hwan%Bang%NULL%0,          Kyoung-Ho%Song%NULL%3,          Kyoung-Ho%Song%NULL%0,          Hong Bin%Kim%NULL%3,          Hong Bin%Kim%NULL%0,          Ki-hyun%Chung%NULL%2,          Ki-hyun%Chung%NULL%0,          Myoung-don%Oh%NULL%2,          Myoung-don%Oh%NULL%0,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,          Zhao-Wu%Tao%NULL%1,          Lei%Wang%NULL%1,          Ming-Li%Yuan%NULL%1,          Kui%Liu%NULL%3,          Ling%Zhou%NULL%2,          Shuang%Wei%NULL%2,          Yan%Deng%NULL%0,          Jing%Liu%NULL%0,          Hui-Guo%Liu%NULL%0,          Ming%Yang%NULL%0,          Yi%Hu%NULL%0,          Pei-Fang%Wei%NULL%0,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,          Xia%Yu%NULL%1,          Hong%Zhao%NULL%1,          Hao%Wang%NULL%2,          Ruihong%Zhao%NULL%0,          Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,          Yuan%Yu%NULL%0,          Jiqian%Xu%NULL%0,          Huaqing%Shu%NULL%0,          Jia'an%Xia%NULL%0,          Hong%Liu%NULL%0,          Yongran%Wu%NULL%0,          Lu%Zhang%NULL%0,          Zhui%Yu%NULL%0,          Minghao%Fang%NULL%0,          Ting%Yu%NULL%0,          Yaxin%Wang%NULL%0,          Shangwen%Pan%NULL%0,          Xiaojing%Zou%NULL%0,          Shiying%Yuan%NULL%0,          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,           Justin J.%Choi%NULL%0,           Laura C.%Pinheiro%NULL%0,           Edward J.%Schenck%NULL%0,           Ruijun%Chen%NULL%0,           Assem%Jabri%NULL%0,           Michael J.%Satlin%NULL%0,           Thomas R.%Campion%NULL%0,           Musarrat%Nahid%NULL%0,           Joanna B.%Ringel%NULL%0,           Katherine L.%Hoffman%NULL%0,           Mark N.%Alshak%NULL%0,           Han A.%Li%NULL%0,           Graham T.%Wehmeyer%NULL%0,           Graham T.%Wehmeyer%NULL%0,           Mangala%Rajan%NULL%0,           Evgeniya%Reshetnyak%NULL%0,           Nathaniel%Hupert%NULL%0,           Evelyn M.%Horn%NULL%0,           Fernando J.%Martinez%NULL%0,           Roy M.%Gulick%NULL%0,           Monika M.%Safford%NULL%0,           Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,           Yeming%Wang%NULL%0,           Xingwang%Li%NULL%0,           Lili%Ren%NULL%0,           Jianping%Zhao%NULL%0,           Yi%Hu%NULL%0,           Li%Zhang%NULL%0,           Guohui%Fan%NULL%0,           Jiuyang%Xu%NULL%0,           Xiaoying%Gu%NULL%0,           Zhenshun%Cheng%NULL%0,           Ting%Yu%NULL%0,           Jiaan%Xia%NULL%0,           Yuan%Wei%NULL%0,           Wenjuan%Wu%NULL%0,           Xuelei%Xie%NULL%0,           Wen%Yin%NULL%0,           Hui%Li%NULL%0,           Min%Liu%NULL%0,           Yan%Xiao%NULL%0,           Hong%Gao%NULL%0,           Li%Guo%NULL%0,           Jungang%Xie%NULL%0,           Guangfa%Wang%NULL%0,           Rongmeng%Jiang%NULL%0,           Zhancheng%Gao%NULL%0,           Qi%Jin%NULL%0,           Jianwei%Wang%wangjw28@163.com%0,           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,           Yi%Xiang%NULL%0,           Wei%Fang%NULL%0,           Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,           Boqun%Li%279685211@qq.com%0,           Boqun%Li%279685211@qq.com%0,           Yanjun%Hu%huyanjun@163.com%0,           Chunhui%Lang%NULL%0,           Daoqiu%Huang%NULL%0,           Qiuyan%Sun%NULL%0,           Yan%Xiong%NULL%0,           Xia%Huang%NULL%0,           Jinglong%Lv%NULL%0,           Yaling%Luo%NULL%0,           Li%Shen%NULL%0,           Haoran%Yang%NULL%0,           Gu%Huang%NULL%0,           Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,           Min%Pan%NULL%0,           Xiumei%Zhang%NULL%0,           Mingfeng%Han%fyhmf@163.com%0,           Xiaoyun%Fan%13956988552@126.com%0,           Fengde%Zhao%NULL%0,           Manli%Miao%NULL%0,           Jing%Xu%NULL%0,           Minglong%Guan%NULL%0,           Xia%Deng%NULL%0,           Xu%Chen%NULL%0,           Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,           Huan%Cai%NULL%0,           Jianhua%Hu%NULL%0,           Jiangshan%Lian%NULL%0,           Jueqing%Gu%NULL%0,           Shanyan%Zhang%NULL%0,           Chanyuan%Ye%NULL%1,           Yingfeng%Lu%NULL%0,           Ciliang%Jin%NULL%0,           Guodong%Yu%NULL%0,           Hongyu%Jia%NULL%0,           Yimin%Zhang%NULL%0,           Jifang%Sheng%jifang_sheng@zju.edu.cn%0,           Lanjuan%Li%ljli@zju.edu.cn%2,           Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,           Ting%Yu%NULL%0,           Ronghui%Du%NULL%0,           Guohui%Fan%NULL%0,           Ying%Liu%NULL%0,           Zhibo%Liu%NULL%0,           Jie%Xiang%NULL%0,           Yeming%Wang%NULL%0,           Bin%Song%NULL%0,           Xiaoying%Gu%NULL%0,           Lulu%Guan%NULL%0,           Yuan%Wei%NULL%0,           Hui%Li%NULL%0,           Xudong%Wu%NULL%0,           Jiuyang%Xu%NULL%0,           Shengjin%Tu%NULL%0,           Yi%Zhang%NULL%0,           Hua%Chen%NULL%0,           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0,           Nancy%Chow%NULL%0,           Katherine%Fleming-Dutra%NULL%0,           Ryan%Gierke%NULL%0,           Aron%Hall%NULL%0,           Michelle%Hughes%NULL%0,           Tamara%Pilishvili%NULL%0,           Matthew%Ritchey%NULL%0,           Katherine%Roguski%NULL%0,           Tami%Skoff%NULL%0,           Emily%Ussery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,           Di%Wu%NULL%0,           Huilong%Chen%NULL%0,           Weiming%Yan%NULL%0,           Danlei%Yang%NULL%0,           Guang%Chen%NULL%0,           Ke%Ma%NULL%0,           Dong%Xu%NULL%0,           Haijing%Yu%NULL%0,           Hongwu%Wang%NULL%0,           Tao%Wang%NULL%0,           Wei%Guo%NULL%0,           Jia%Chen%NULL%0,           Chen%Ding%NULL%0,           Xiaoping%Zhang%NULL%0,           Jiaquan%Huang%NULL%0,           Meifang%Han%NULL%0,           Shusheng%Li%NULL%0,           Xiaoping%Luo%NULL%0,           Jianping%Zhao%NULL%0,           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,           Zheng-yi%Ni%NULL%0,           Zheng-yi%Ni%NULL%0,           Yu%Hu%NULL%0,           Wen-hua%Liang%NULL%0,           Chun-quan%Ou%NULL%0,           Jian-xing%He%NULL%0,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chun-liang%Lei%NULL%0,           David S.C.%Hui%NULL%0,           Bin%Du%NULL%0,           Lan-juan%Li%NULL%0,           Guang%Zeng%NULL%0,           Kwok-Yung%Yuen%NULL%0,           Ru-chong%Chen%NULL%0,           Chun-li%Tang%NULL%0,           Tao%Wang%NULL%0,           Ping-yan%Chen%NULL%0,           Jie%Xiang%NULL%0,           Shi-yue%Li%NULL%0,           Jin-lin%Wang%NULL%0,           Zi-jing%Liang%NULL%0,           Yi-xiang%Peng%NULL%0,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Ya-hua%Hu%NULL%0,           Peng%Peng%NULL%0,           Jian-ming%Wang%NULL%0,           Ji-yang%Liu%NULL%0,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhi-jian%Zheng%NULL%0,           Shao-qin%Qiu%NULL%0,           Jie%Luo%NULL%0,           Chang-jiang%Ye%NULL%0,           Shao-yong%Zhu%NULL%0,           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,           Shuyun%Xu%NULL%0,           Muqing%Yu%NULL%0,           Ke%Wang%NULL%0,           Yu%Tao%NULL%0,           Ying%Zhou%NULL%0,           Jing%Shi%NULL%0,           Min%Zhou%NULL%0,           Bo%Wu%NULL%0,           Zhenyu%Yang%NULL%0,           Cong%Zhang%NULL%0,           Junqing%Yue%NULL%0,           Zhiguo%Zhang%NULL%0,           Harald%Renz%NULL%0,           Xiansheng%Liu%NULL%0,           Jungang%Xie%NULL%0,           Min%Xie%NULL%0,           Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,          Cao%Yi-yuan%coreGivesNoEmail%0,          Dong%Xiang%coreGivesNoEmail%0,          Gao%Ya-dong%coreGivesNoEmail%0,          Yan%You-qin%coreGivesNoEmail%0,          Yang%Yi-bin%coreGivesNoEmail%0,          Yuan%Ya-dong%coreGivesNoEmail%0,          Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,           Yun%Ling%NULL%0,           Yun%Ling%NULL%0,           Tao%Bai%NULL%0,           Tao%Bai%NULL%0,           Yusang%Xie%NULL%0,           Jie%Huang%NULL%0,           Jie%Huang%NULL%0,           Jian%Li%NULL%0,           Weining%Xiong%NULL%0,           Dexiang%Yang%NULL%0,           Rong%Chen%NULL%0,           Fangying%Lu%NULL%0,           Yunfei%Lu%NULL%0,           Xuhui%Liu%NULL%0,           Yuqing%Chen%NULL%0,           Yuqing%Chen%NULL%0,           Xin%Li%NULL%0,           Yong%Li%NULL%0,           Hanssa Dwarka%Summah%NULL%0,           Huihuang%Lin%NULL%0,           Jiayang%Yan%NULL%0,           Min%Zhou%NULL%0,           Hongzhou%Lu%NULL%0,           Hongzhou%Lu%NULL%0,           Jieming%Qu%NULL%0,           Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,           Bum Sik%Chin%NULL%2,           Bum Sik%Chin%NULL%0,           Chang Kyung%Kang%NULL%2,           Chang Kyung%Kang%NULL%0,           Nam Joong%Kim%NULL%2,           Nam Joong%Kim%NULL%0,           Yu Min%Kang%NULL%2,           Yu Min%Kang%NULL%0,           Jae-Phil%Choi%NULL%2,           Jae-Phil%Choi%NULL%0,           Dong Hyun%Oh%NULL%2,           Dong Hyun%Oh%NULL%0,           Jeong-Han%Kim%NULL%2,           Jeong-Han%Kim%NULL%0,           Boram%Koh%NULL%2,           Boram%Koh%NULL%0,           Seong Eun%Kim%NULL%2,           Seong Eun%Kim%NULL%0,           Na Ra%Yun%NULL%2,           Na Ra%Yun%NULL%0,           Jae-Hoon%Lee%NULL%2,           Jae-Hoon%Lee%NULL%0,           Jin Yong%Kim%NULL%0,           Jin Yong%Kim%NULL%0,           Yeonjae%Kim%NULL%2,           Yeonjae%Kim%NULL%0,           Ji Hwan%Bang%NULL%2,           Ji Hwan%Bang%NULL%0,           Kyoung-Ho%Song%NULL%3,           Kyoung-Ho%Song%NULL%0,           Hong Bin%Kim%NULL%3,           Hong Bin%Kim%NULL%0,           Ki-hyun%Chung%NULL%2,           Ki-hyun%Chung%NULL%0,           Myoung-don%Oh%NULL%2,           Myoung-don%Oh%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,           Zhao-Wu%Tao%NULL%0,           Lei%Wang%NULL%0,           Ming-Li%Yuan%NULL%0,           Kui%Liu%NULL%0,           Ling%Zhou%NULL%0,           Shuang%Wei%NULL%0,           Yan%Deng%NULL%0,           Jing%Liu%NULL%0,           Hui-Guo%Liu%NULL%0,           Ming%Yang%NULL%0,           Yi%Hu%NULL%0,           Pei-Fang%Wei%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,           Xia%Yu%NULL%1,           Hong%Zhao%NULL%1,           Hao%Wang%NULL%2,           Ruihong%Zhao%NULL%0,           Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,           Yuan%Yu%NULL%0,           Jiqian%Xu%NULL%0,           Huaqing%Shu%NULL%0,           Jia'an%Xia%NULL%0,           Hong%Liu%NULL%0,           Yongran%Wu%NULL%0,           Lu%Zhang%NULL%0,           Zhui%Yu%NULL%0,           Minghao%Fang%NULL%0,           Ting%Yu%NULL%0,           Yaxin%Wang%NULL%0,           Shangwen%Pan%NULL%0,           Xiaojing%Zou%NULL%0,           Shiying%Yuan%NULL%0,           You%Shang%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1392,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1325,7 +1421,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1354,7 +1450,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1383,7 +1479,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1412,7 +1508,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1441,7 +1537,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1470,7 +1566,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
@@ -1499,7 +1595,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1528,7 +1624,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1557,7 +1653,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1586,7 +1682,7 @@
         <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1615,7 +1711,7 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -1644,7 +1740,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1673,7 +1769,7 @@
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
@@ -1702,7 +1798,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -1731,7 +1827,7 @@
         <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>

--- a/Covid_19_Dataset_and_References/References/65.xlsx
+++ b/Covid_19_Dataset_and_References/References/65.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="297">
   <si>
     <t>Doi</t>
   </si>
@@ -1028,6 +1028,102 @@
   </si>
   <si>
     <t>[Xiaobo%Yang%NULL%0,           Yuan%Yu%NULL%0,           Jiqian%Xu%NULL%0,           Huaqing%Shu%NULL%0,           Jia'an%Xia%NULL%0,           Hong%Liu%NULL%0,           Yongran%Wu%NULL%0,           Lu%Zhang%NULL%0,           Zhui%Yu%NULL%0,           Minghao%Fang%NULL%0,           Ting%Yu%NULL%0,           Yaxin%Wang%NULL%0,           Shangwen%Pan%NULL%0,           Xiaojing%Zou%NULL%0,           Shiying%Yuan%NULL%0,           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,            Justin J.%Choi%NULL%0,            Laura C.%Pinheiro%NULL%0,            Edward J.%Schenck%NULL%0,            Ruijun%Chen%NULL%0,            Assem%Jabri%NULL%0,            Michael J.%Satlin%NULL%0,            Thomas R.%Campion%NULL%0,            Musarrat%Nahid%NULL%0,            Joanna B.%Ringel%NULL%0,            Katherine L.%Hoffman%NULL%0,            Mark N.%Alshak%NULL%0,            Han A.%Li%NULL%0,            Graham T.%Wehmeyer%NULL%0,            Graham T.%Wehmeyer%NULL%0,            Mangala%Rajan%NULL%0,            Evgeniya%Reshetnyak%NULL%0,            Nathaniel%Hupert%NULL%0,            Evelyn M.%Horn%NULL%0,            Fernando J.%Martinez%NULL%0,            Roy M.%Gulick%NULL%0,            Monika M.%Safford%NULL%0,            Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,            Yeming%Wang%NULL%0,            Xingwang%Li%NULL%0,            Lili%Ren%NULL%0,            Jianping%Zhao%NULL%0,            Yi%Hu%NULL%0,            Li%Zhang%NULL%0,            Guohui%Fan%NULL%0,            Jiuyang%Xu%NULL%0,            Xiaoying%Gu%NULL%0,            Zhenshun%Cheng%NULL%0,            Ting%Yu%NULL%0,            Jiaan%Xia%NULL%0,            Yuan%Wei%NULL%0,            Wenjuan%Wu%NULL%0,            Xuelei%Xie%NULL%0,            Wen%Yin%NULL%0,            Hui%Li%NULL%0,            Min%Liu%NULL%0,            Yan%Xiao%NULL%0,            Hong%Gao%NULL%0,            Li%Guo%NULL%0,            Jungang%Xie%NULL%0,            Guangfa%Wang%NULL%0,            Rongmeng%Jiang%NULL%0,            Zhancheng%Gao%NULL%0,            Qi%Jin%NULL%0,            Jianwei%Wang%wangjw28@163.com%0,            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,            Yi%Xiang%NULL%1,            Wei%Fang%NULL%0,            Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,            Boqun%Li%279685211@qq.com%2,            Boqun%Li%279685211@qq.com%0,            Yanjun%Hu%huyanjun@163.com%1,            Chunhui%Lang%NULL%1,            Daoqiu%Huang%NULL%1,            Qiuyan%Sun%NULL%1,            Yan%Xiong%NULL%2,            Xia%Huang%NULL%1,            Jinglong%Lv%NULL%1,            Yaling%Luo%NULL%1,            Li%Shen%NULL%1,            Haoran%Yang%NULL%1,            Gu%Huang%NULL%1,            Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,            Min%Pan%NULL%0,            Xiumei%Zhang%NULL%0,            Mingfeng%Han%fyhmf@163.com%0,            Xiaoyun%Fan%13956988552@126.com%0,            Fengde%Zhao%NULL%0,            Manli%Miao%NULL%0,            Jing%Xu%NULL%0,            Minglong%Guan%NULL%0,            Xia%Deng%NULL%0,            Xu%Chen%NULL%0,            Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,            Huan%Cai%NULL%0,            Jianhua%Hu%NULL%0,            Jiangshan%Lian%NULL%0,            Jueqing%Gu%NULL%0,            Shanyan%Zhang%NULL%0,            Chanyuan%Ye%NULL%1,            Yingfeng%Lu%NULL%0,            Ciliang%Jin%NULL%0,            Guodong%Yu%NULL%0,            Hongyu%Jia%NULL%0,            Yimin%Zhang%NULL%0,            Jifang%Sheng%jifang_sheng@zju.edu.cn%0,            Lanjuan%Li%ljli@zju.edu.cn%2,            Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,            Ting%Yu%NULL%0,            Ronghui%Du%NULL%0,            Guohui%Fan%NULL%0,            Ying%Liu%NULL%0,            Zhibo%Liu%NULL%0,            Jie%Xiang%NULL%0,            Yeming%Wang%NULL%0,            Bin%Song%NULL%0,            Xiaoying%Gu%NULL%0,            Lulu%Guan%NULL%0,            Yuan%Wei%NULL%0,            Hui%Li%NULL%0,            Xudong%Wu%NULL%0,            Jiuyang%Xu%NULL%0,            Shengjin%Tu%NULL%0,            Yi%Zhang%NULL%0,            Hua%Chen%NULL%0,            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0,            Nancy%Chow%NULL%1,            Katherine%Fleming-Dutra%NULL%1,            Ryan%Gierke%NULL%1,            Aron%Hall%NULL%1,            Michelle%Hughes%NULL%1,            Tamara%Pilishvili%NULL%1,            Matthew%Ritchey%NULL%1,            Katherine%Roguski%NULL%1,            Tami%Skoff%NULL%1,            Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,            Di%Wu%NULL%0,            Huilong%Chen%NULL%0,            Weiming%Yan%NULL%0,            Danlei%Yang%NULL%0,            Guang%Chen%NULL%0,            Ke%Ma%NULL%0,            Dong%Xu%NULL%0,            Haijing%Yu%NULL%0,            Hongwu%Wang%NULL%0,            Tao%Wang%NULL%0,            Wei%Guo%NULL%0,            Jia%Chen%NULL%0,            Chen%Ding%NULL%0,            Xiaoping%Zhang%NULL%0,            Jiaquan%Huang%NULL%0,            Meifang%Han%NULL%0,            Shusheng%Li%NULL%0,            Xiaoping%Luo%NULL%0,            Jianping%Zhao%NULL%0,            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,            Zheng-yi%Ni%NULL%0,            Zheng-yi%Ni%NULL%0,            Yu%Hu%NULL%0,            Wen-hua%Liang%NULL%0,            Chun-quan%Ou%NULL%0,            Jian-xing%He%NULL%0,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chun-liang%Lei%NULL%0,            David S.C.%Hui%NULL%0,            Bin%Du%NULL%0,            Lan-juan%Li%NULL%0,            Guang%Zeng%NULL%0,            Kwok-Yung%Yuen%NULL%0,            Ru-chong%Chen%NULL%0,            Chun-li%Tang%NULL%0,            Tao%Wang%NULL%0,            Ping-yan%Chen%NULL%0,            Jie%Xiang%NULL%0,            Shi-yue%Li%NULL%0,            Jin-lin%Wang%NULL%0,            Zi-jing%Liang%NULL%0,            Yi-xiang%Peng%NULL%0,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Ya-hua%Hu%NULL%0,            Peng%Peng%NULL%0,            Jian-ming%Wang%NULL%0,            Ji-yang%Liu%NULL%0,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhi-jian%Zheng%NULL%0,            Shao-qin%Qiu%NULL%0,            Jie%Luo%NULL%0,            Chang-jiang%Ye%NULL%0,            Shao-yong%Zhu%NULL%0,            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,            Shuyun%Xu%NULL%2,            Muqing%Yu%NULL%2,            Ke%Wang%NULL%3,            Yu%Tao%NULL%4,            Ying%Zhou%NULL%0,            Jing%Shi%NULL%2,            Min%Zhou%NULL%0,            Bo%Wu%NULL%2,            Zhenyu%Yang%NULL%2,            Cong%Zhang%NULL%2,            Junqing%Yue%NULL%2,            Zhiguo%Zhang%NULL%2,            Harald%Renz%NULL%2,            Xiansheng%Liu%NULL%2,            Jungang%Xie%NULL%0,            Min%Xie%NULL%2,            Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,           Cao%Yi-yuan%coreGivesNoEmail%2,           Dong%Xiang%coreGivesNoEmail%2,           Gao%Ya-dong%coreGivesNoEmail%2,           Yan%You-qin%coreGivesNoEmail%2,           Yang%Yi-bin%coreGivesNoEmail%2,           Yuan%Ya-dong%coreGivesNoEmail%2,           Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,            Yun%Ling%NULL%0,            Yun%Ling%NULL%0,            Tao%Bai%NULL%2,            Tao%Bai%NULL%0,            Yusang%Xie%NULL%1,            Jie%Huang%NULL%2,            Jie%Huang%NULL%0,            Jian%Li%NULL%1,            Weining%Xiong%NULL%1,            Dexiang%Yang%NULL%1,            Rong%Chen%NULL%1,            Fangying%Lu%NULL%1,            Yunfei%Lu%NULL%1,            Xuhui%Liu%NULL%1,            Yuqing%Chen%NULL%2,            Yuqing%Chen%NULL%0,            Xin%Li%NULL%0,            Yong%Li%NULL%0,            Hanssa Dwarka%Summah%NULL%1,            Huihuang%Lin%NULL%1,            Jiayang%Yan%NULL%1,            Min%Zhou%NULL%0,            Hongzhou%Lu%NULL%0,            Hongzhou%Lu%NULL%0,            Jieming%Qu%NULL%0,            Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,            Bum Sik%Chin%NULL%2,            Bum Sik%Chin%NULL%0,            Chang Kyung%Kang%NULL%2,            Chang Kyung%Kang%NULL%0,            Nam Joong%Kim%NULL%2,            Nam Joong%Kim%NULL%0,            Yu Min%Kang%NULL%2,            Yu Min%Kang%NULL%0,            Jae-Phil%Choi%NULL%2,            Jae-Phil%Choi%NULL%0,            Dong Hyun%Oh%NULL%2,            Dong Hyun%Oh%NULL%0,            Jeong-Han%Kim%NULL%2,            Jeong-Han%Kim%NULL%0,            Boram%Koh%NULL%2,            Boram%Koh%NULL%0,            Seong Eun%Kim%NULL%2,            Seong Eun%Kim%NULL%0,            Na Ra%Yun%NULL%2,            Na Ra%Yun%NULL%0,            Jae-Hoon%Lee%NULL%2,            Jae-Hoon%Lee%NULL%0,            Jin Yong%Kim%NULL%0,            Jin Yong%Kim%NULL%0,            Yeonjae%Kim%NULL%2,            Yeonjae%Kim%NULL%0,            Ji Hwan%Bang%NULL%2,            Ji Hwan%Bang%NULL%0,            Kyoung-Ho%Song%NULL%3,            Kyoung-Ho%Song%NULL%0,            Hong Bin%Kim%NULL%3,            Hong Bin%Kim%NULL%0,            Ki-hyun%Chung%NULL%2,            Ki-hyun%Chung%NULL%0,            Myoung-don%Oh%NULL%2,            Myoung-don%Oh%NULL%0,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,            Zhao-Wu%Tao%NULL%1,            Lei%Wang%NULL%1,            Ming-Li%Yuan%NULL%1,            Kui%Liu%NULL%3,            Ling%Zhou%NULL%2,            Shuang%Wei%NULL%2,            Yan%Deng%NULL%0,            Jing%Liu%NULL%0,            Hui-Guo%Liu%NULL%0,            Ming%Yang%NULL%0,            Yi%Hu%NULL%0,            Pei-Fang%Wei%NULL%0,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,            Xia%Yu%NULL%1,            Hong%Zhao%NULL%1,            Hao%Wang%NULL%2,            Ruihong%Zhao%NULL%0,            Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,            Yuan%Yu%NULL%0,            Jiqian%Xu%NULL%0,            Huaqing%Shu%NULL%0,            Jia'an%Xia%NULL%0,            Hong%Liu%NULL%0,            Yongran%Wu%NULL%0,            Lu%Zhang%NULL%0,            Zhui%Yu%NULL%0,            Minghao%Fang%NULL%0,            Ting%Yu%NULL%0,            Yaxin%Wang%NULL%0,            Shangwen%Pan%NULL%0,            Xiaojing%Zou%NULL%0,            Shiying%Yuan%NULL%0,            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,             Justin J.%Choi%NULL%0,             Laura C.%Pinheiro%NULL%0,             Edward J.%Schenck%NULL%0,             Ruijun%Chen%NULL%0,             Assem%Jabri%NULL%0,             Michael J.%Satlin%NULL%0,             Thomas R.%Campion%NULL%0,             Musarrat%Nahid%NULL%0,             Joanna B.%Ringel%NULL%0,             Katherine L.%Hoffman%NULL%0,             Mark N.%Alshak%NULL%0,             Han A.%Li%NULL%0,             Graham T.%Wehmeyer%NULL%0,             Graham T.%Wehmeyer%NULL%0,             Mangala%Rajan%NULL%0,             Evgeniya%Reshetnyak%NULL%0,             Nathaniel%Hupert%NULL%0,             Evelyn M.%Horn%NULL%0,             Fernando J.%Martinez%NULL%0,             Roy M.%Gulick%NULL%0,             Monika M.%Safford%NULL%0,             Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,             Yeming%Wang%NULL%0,             Xingwang%Li%NULL%0,             Lili%Ren%NULL%0,             Jianping%Zhao%NULL%0,             Yi%Hu%NULL%0,             Li%Zhang%NULL%0,             Guohui%Fan%NULL%0,             Jiuyang%Xu%NULL%0,             Xiaoying%Gu%NULL%0,             Zhenshun%Cheng%NULL%0,             Ting%Yu%NULL%0,             Jiaan%Xia%NULL%0,             Yuan%Wei%NULL%0,             Wenjuan%Wu%NULL%0,             Xuelei%Xie%NULL%0,             Wen%Yin%NULL%0,             Hui%Li%NULL%0,             Min%Liu%NULL%0,             Yan%Xiao%NULL%0,             Hong%Gao%NULL%0,             Li%Guo%NULL%0,             Jungang%Xie%NULL%0,             Guangfa%Wang%NULL%0,             Rongmeng%Jiang%NULL%0,             Zhancheng%Gao%NULL%0,             Qi%Jin%NULL%0,             Jianwei%Wang%wangjw28@163.com%0,             Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,             Yi%Xiang%NULL%1,             Wei%Fang%NULL%0,             Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,             Boqun%Li%279685211@qq.com%2,             Boqun%Li%279685211@qq.com%0,             Yanjun%Hu%huyanjun@163.com%1,             Chunhui%Lang%NULL%1,             Daoqiu%Huang%NULL%1,             Qiuyan%Sun%NULL%1,             Yan%Xiong%NULL%2,             Xia%Huang%NULL%1,             Jinglong%Lv%NULL%1,             Yaling%Luo%NULL%1,             Li%Shen%NULL%1,             Haoran%Yang%NULL%1,             Gu%Huang%NULL%1,             Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,             Min%Pan%NULL%0,             Xiumei%Zhang%NULL%0,             Mingfeng%Han%fyhmf@163.com%0,             Xiaoyun%Fan%13956988552@126.com%0,             Fengde%Zhao%NULL%0,             Manli%Miao%NULL%0,             Jing%Xu%NULL%0,             Minglong%Guan%NULL%0,             Xia%Deng%NULL%0,             Xu%Chen%NULL%0,             Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,             Huan%Cai%NULL%0,             Jianhua%Hu%NULL%0,             Jiangshan%Lian%NULL%0,             Jueqing%Gu%NULL%0,             Shanyan%Zhang%NULL%0,             Chanyuan%Ye%NULL%1,             Yingfeng%Lu%NULL%0,             Ciliang%Jin%NULL%0,             Guodong%Yu%NULL%0,             Hongyu%Jia%NULL%0,             Yimin%Zhang%NULL%0,             Jifang%Sheng%jifang_sheng@zju.edu.cn%0,             Lanjuan%Li%ljli@zju.edu.cn%2,             Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,             Ting%Yu%NULL%0,             Ronghui%Du%NULL%0,             Guohui%Fan%NULL%0,             Ying%Liu%NULL%0,             Zhibo%Liu%NULL%0,             Jie%Xiang%NULL%0,             Yeming%Wang%NULL%0,             Bin%Song%NULL%0,             Xiaoying%Gu%NULL%0,             Lulu%Guan%NULL%0,             Yuan%Wei%NULL%0,             Hui%Li%NULL%0,             Xudong%Wu%NULL%0,             Jiuyang%Xu%NULL%0,             Shengjin%Tu%NULL%0,             Yi%Zhang%NULL%0,             Hua%Chen%NULL%0,             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0,             Nancy%Chow%NULL%1,             Katherine%Fleming-Dutra%NULL%1,             Ryan%Gierke%NULL%1,             Aron%Hall%NULL%1,             Michelle%Hughes%NULL%1,             Tamara%Pilishvili%NULL%1,             Matthew%Ritchey%NULL%1,             Katherine%Roguski%NULL%1,             Tami%Skoff%NULL%1,             Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,             Di%Wu%NULL%0,             Huilong%Chen%NULL%0,             Weiming%Yan%NULL%0,             Danlei%Yang%NULL%0,             Guang%Chen%NULL%0,             Ke%Ma%NULL%0,             Dong%Xu%NULL%0,             Haijing%Yu%NULL%0,             Hongwu%Wang%NULL%0,             Tao%Wang%NULL%0,             Wei%Guo%NULL%0,             Jia%Chen%NULL%0,             Chen%Ding%NULL%0,             Xiaoping%Zhang%NULL%0,             Jiaquan%Huang%NULL%0,             Meifang%Han%NULL%0,             Shusheng%Li%NULL%0,             Xiaoping%Luo%NULL%0,             Jianping%Zhao%NULL%0,             Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,             Zheng-yi%Ni%NULL%0,             Zheng-yi%Ni%NULL%0,             Yu%Hu%NULL%0,             Wen-hua%Liang%NULL%0,             Chun-quan%Ou%NULL%0,             Jian-xing%He%NULL%0,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chun-liang%Lei%NULL%0,             David S.C.%Hui%NULL%0,             Bin%Du%NULL%0,             Lan-juan%Li%NULL%0,             Guang%Zeng%NULL%0,             Kwok-Yung%Yuen%NULL%0,             Ru-chong%Chen%NULL%0,             Chun-li%Tang%NULL%0,             Tao%Wang%NULL%0,             Ping-yan%Chen%NULL%0,             Jie%Xiang%NULL%0,             Shi-yue%Li%NULL%0,             Jin-lin%Wang%NULL%0,             Zi-jing%Liang%NULL%0,             Yi-xiang%Peng%NULL%0,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Ya-hua%Hu%NULL%0,             Peng%Peng%NULL%0,             Jian-ming%Wang%NULL%0,             Ji-yang%Liu%NULL%0,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhi-jian%Zheng%NULL%0,             Shao-qin%Qiu%NULL%0,             Jie%Luo%NULL%0,             Chang-jiang%Ye%NULL%0,             Shao-yong%Zhu%NULL%0,             Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,             Shuyun%Xu%NULL%2,             Muqing%Yu%NULL%2,             Ke%Wang%NULL%3,             Yu%Tao%NULL%4,             Ying%Zhou%NULL%0,             Jing%Shi%NULL%2,             Min%Zhou%NULL%0,             Bo%Wu%NULL%2,             Zhenyu%Yang%NULL%2,             Cong%Zhang%NULL%2,             Junqing%Yue%NULL%2,             Zhiguo%Zhang%NULL%2,             Harald%Renz%NULL%2,             Xiansheng%Liu%NULL%2,             Jungang%Xie%NULL%0,             Min%Xie%NULL%2,             Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,            Cao%Yi-yuan%coreGivesNoEmail%2,            Dong%Xiang%coreGivesNoEmail%2,            Gao%Ya-dong%coreGivesNoEmail%2,            Yan%You-qin%coreGivesNoEmail%2,            Yang%Yi-bin%coreGivesNoEmail%2,            Yuan%Ya-dong%coreGivesNoEmail%2,            Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,             Yun%Ling%NULL%0,             Yun%Ling%NULL%0,             Tao%Bai%NULL%2,             Tao%Bai%NULL%0,             Yusang%Xie%NULL%1,             Jie%Huang%NULL%2,             Jie%Huang%NULL%0,             Jian%Li%NULL%1,             Weining%Xiong%NULL%1,             Dexiang%Yang%NULL%1,             Rong%Chen%NULL%1,             Fangying%Lu%NULL%1,             Yunfei%Lu%NULL%1,             Xuhui%Liu%NULL%1,             Yuqing%Chen%NULL%2,             Yuqing%Chen%NULL%0,             Xin%Li%NULL%0,             Yong%Li%NULL%0,             Hanssa Dwarka%Summah%NULL%1,             Huihuang%Lin%NULL%1,             Jiayang%Yan%NULL%1,             Min%Zhou%NULL%0,             Hongzhou%Lu%NULL%0,             Hongzhou%Lu%NULL%0,             Jieming%Qu%NULL%0,             Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,             Bum Sik%Chin%NULL%2,             Bum Sik%Chin%NULL%0,             Chang Kyung%Kang%NULL%2,             Chang Kyung%Kang%NULL%0,             Nam Joong%Kim%NULL%2,             Nam Joong%Kim%NULL%0,             Yu Min%Kang%NULL%2,             Yu Min%Kang%NULL%0,             Jae-Phil%Choi%NULL%2,             Jae-Phil%Choi%NULL%0,             Dong Hyun%Oh%NULL%2,             Dong Hyun%Oh%NULL%0,             Jeong-Han%Kim%NULL%2,             Jeong-Han%Kim%NULL%0,             Boram%Koh%NULL%2,             Boram%Koh%NULL%0,             Seong Eun%Kim%NULL%2,             Seong Eun%Kim%NULL%0,             Na Ra%Yun%NULL%2,             Na Ra%Yun%NULL%0,             Jae-Hoon%Lee%NULL%2,             Jae-Hoon%Lee%NULL%0,             Jin Yong%Kim%NULL%0,             Jin Yong%Kim%NULL%0,             Yeonjae%Kim%NULL%2,             Yeonjae%Kim%NULL%0,             Ji Hwan%Bang%NULL%2,             Ji Hwan%Bang%NULL%0,             Kyoung-Ho%Song%NULL%3,             Kyoung-Ho%Song%NULL%0,             Hong Bin%Kim%NULL%3,             Hong Bin%Kim%NULL%0,             Ki-hyun%Chung%NULL%2,             Ki-hyun%Chung%NULL%0,             Myoung-don%Oh%NULL%2,             Myoung-don%Oh%NULL%0,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,             Zhao-Wu%Tao%NULL%1,             Lei%Wang%NULL%1,             Ming-Li%Yuan%NULL%1,             Kui%Liu%NULL%3,             Ling%Zhou%NULL%2,             Shuang%Wei%NULL%2,             Yan%Deng%NULL%0,             Jing%Liu%NULL%0,             Hui-Guo%Liu%NULL%0,             Ming%Yang%NULL%0,             Yi%Hu%NULL%0,             Pei-Fang%Wei%NULL%0,             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,             Xia%Yu%NULL%1,             Hong%Zhao%NULL%1,             Hao%Wang%NULL%2,             Ruihong%Zhao%NULL%0,             Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,             Yuan%Yu%NULL%0,             Jiqian%Xu%NULL%0,             Huaqing%Shu%NULL%0,             Jia'an%Xia%NULL%0,             Hong%Liu%NULL%0,             Yongran%Wu%NULL%0,             Lu%Zhang%NULL%0,             Zhui%Yu%NULL%0,             Minghao%Fang%NULL%0,             Ting%Yu%NULL%0,             Yaxin%Wang%NULL%0,             Shangwen%Pan%NULL%0,             Xiaojing%Zou%NULL%0,             Shiying%Yuan%NULL%0,             You%Shang%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1488,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1421,7 +1517,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1450,7 +1546,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1479,7 +1575,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1508,7 +1604,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1537,7 +1633,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1566,7 +1662,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
@@ -1595,7 +1691,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1624,7 +1720,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1653,7 +1749,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1682,7 +1778,7 @@
         <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1711,7 +1807,7 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -1740,7 +1836,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1769,7 +1865,7 @@
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
@@ -1798,7 +1894,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -1827,7 +1923,7 @@
         <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>

--- a/Covid_19_Dataset_and_References/References/65.xlsx
+++ b/Covid_19_Dataset_and_References/References/65.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="313">
   <si>
     <t>Doi</t>
   </si>
@@ -1124,6 +1124,54 @@
   </si>
   <si>
     <t>[Xiaobo%Yang%NULL%0,             Yuan%Yu%NULL%0,             Jiqian%Xu%NULL%0,             Huaqing%Shu%NULL%0,             Jia'an%Xia%NULL%0,             Hong%Liu%NULL%0,             Yongran%Wu%NULL%0,             Lu%Zhang%NULL%0,             Zhui%Yu%NULL%0,             Minghao%Fang%NULL%0,             Ting%Yu%NULL%0,             Yaxin%Wang%NULL%0,             Shangwen%Pan%NULL%0,             Xiaojing%Zou%NULL%0,             Shiying%Yuan%NULL%0,             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,              Justin J.%Choi%NULL%0,              Laura C.%Pinheiro%NULL%0,              Edward J.%Schenck%NULL%0,              Ruijun%Chen%NULL%0,              Assem%Jabri%NULL%0,              Michael J.%Satlin%NULL%0,              Thomas R.%Campion%NULL%0,              Musarrat%Nahid%NULL%0,              Joanna B.%Ringel%NULL%0,              Katherine L.%Hoffman%NULL%0,              Mark N.%Alshak%NULL%0,              Han A.%Li%NULL%0,              Graham T.%Wehmeyer%NULL%0,              Graham T.%Wehmeyer%NULL%0,              Mangala%Rajan%NULL%0,              Evgeniya%Reshetnyak%NULL%0,              Nathaniel%Hupert%NULL%0,              Evelyn M.%Horn%NULL%0,              Fernando J.%Martinez%NULL%0,              Roy M.%Gulick%NULL%0,              Monika M.%Safford%NULL%0,              Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,              Yeming%Wang%NULL%0,              Xingwang%Li%NULL%0,              Lili%Ren%NULL%0,              Jianping%Zhao%NULL%0,              Yi%Hu%NULL%0,              Li%Zhang%NULL%0,              Guohui%Fan%NULL%0,              Jiuyang%Xu%NULL%0,              Xiaoying%Gu%NULL%0,              Zhenshun%Cheng%NULL%0,              Ting%Yu%NULL%0,              Jiaan%Xia%NULL%0,              Yuan%Wei%NULL%0,              Wenjuan%Wu%NULL%0,              Xuelei%Xie%NULL%0,              Wen%Yin%NULL%0,              Hui%Li%NULL%0,              Min%Liu%NULL%0,              Yan%Xiao%NULL%0,              Hong%Gao%NULL%0,              Li%Guo%NULL%0,              Jungang%Xie%NULL%0,              Guangfa%Wang%NULL%0,              Rongmeng%Jiang%NULL%0,              Zhancheng%Gao%NULL%0,              Qi%Jin%NULL%0,              Jianwei%Wang%wangjw28@163.com%0,              Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,              Yi%Xiang%NULL%1,              Wei%Fang%NULL%0,              Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,              Boqun%Li%279685211@qq.com%2,              Boqun%Li%279685211@qq.com%0,              Yanjun%Hu%huyanjun@163.com%1,              Chunhui%Lang%NULL%1,              Daoqiu%Huang%NULL%1,              Qiuyan%Sun%NULL%1,              Yan%Xiong%NULL%2,              Xia%Huang%NULL%1,              Jinglong%Lv%NULL%1,              Yaling%Luo%NULL%1,              Li%Shen%NULL%1,              Haoran%Yang%NULL%1,              Gu%Huang%NULL%1,              Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,              Min%Pan%NULL%0,              Xiumei%Zhang%NULL%0,              Mingfeng%Han%fyhmf@163.com%0,              Xiaoyun%Fan%13956988552@126.com%0,              Fengde%Zhao%NULL%0,              Manli%Miao%NULL%0,              Jing%Xu%NULL%0,              Minglong%Guan%NULL%0,              Xia%Deng%NULL%0,              Xu%Chen%NULL%0,              Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,              Huan%Cai%NULL%0,              Jianhua%Hu%NULL%0,              Jiangshan%Lian%NULL%0,              Jueqing%Gu%NULL%0,              Shanyan%Zhang%NULL%0,              Chanyuan%Ye%NULL%1,              Yingfeng%Lu%NULL%0,              Ciliang%Jin%NULL%0,              Guodong%Yu%NULL%0,              Hongyu%Jia%NULL%0,              Yimin%Zhang%NULL%0,              Jifang%Sheng%jifang_sheng@zju.edu.cn%0,              Lanjuan%Li%ljli@zju.edu.cn%2,              Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,              Ting%Yu%NULL%0,              Ronghui%Du%NULL%0,              Guohui%Fan%NULL%0,              Ying%Liu%NULL%0,              Zhibo%Liu%NULL%0,              Jie%Xiang%NULL%0,              Yeming%Wang%NULL%0,              Bin%Song%NULL%0,              Xiaoying%Gu%NULL%0,              Lulu%Guan%NULL%0,              Yuan%Wei%NULL%0,              Hui%Li%NULL%0,              Xudong%Wu%NULL%0,              Jiuyang%Xu%NULL%0,              Shengjin%Tu%NULL%0,              Yi%Zhang%NULL%0,              Hua%Chen%NULL%0,              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0,              Nancy%Chow%NULL%1,              Katherine%Fleming-Dutra%NULL%1,              Ryan%Gierke%NULL%1,              Aron%Hall%NULL%1,              Michelle%Hughes%NULL%1,              Tamara%Pilishvili%NULL%1,              Matthew%Ritchey%NULL%1,              Katherine%Roguski%NULL%1,              Tami%Skoff%NULL%1,              Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,              Di%Wu%NULL%0,              Huilong%Chen%NULL%0,              Weiming%Yan%NULL%0,              Danlei%Yang%NULL%0,              Guang%Chen%NULL%0,              Ke%Ma%NULL%0,              Dong%Xu%NULL%0,              Haijing%Yu%NULL%0,              Hongwu%Wang%NULL%0,              Tao%Wang%NULL%0,              Wei%Guo%NULL%0,              Jia%Chen%NULL%0,              Chen%Ding%NULL%0,              Xiaoping%Zhang%NULL%0,              Jiaquan%Huang%NULL%0,              Meifang%Han%NULL%0,              Shusheng%Li%NULL%0,              Xiaoping%Luo%NULL%0,              Jianping%Zhao%NULL%0,              Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,              Zheng-yi%Ni%NULL%0,              Zheng-yi%Ni%NULL%0,              Yu%Hu%NULL%0,              Wen-hua%Liang%NULL%0,              Chun-quan%Ou%NULL%0,              Jian-xing%He%NULL%0,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chun-liang%Lei%NULL%0,              David S.C.%Hui%NULL%0,              Bin%Du%NULL%0,              Lan-juan%Li%NULL%0,              Guang%Zeng%NULL%0,              Kwok-Yung%Yuen%NULL%0,              Ru-chong%Chen%NULL%0,              Chun-li%Tang%NULL%0,              Tao%Wang%NULL%0,              Ping-yan%Chen%NULL%0,              Jie%Xiang%NULL%0,              Shi-yue%Li%NULL%0,              Jin-lin%Wang%NULL%0,              Zi-jing%Liang%NULL%0,              Yi-xiang%Peng%NULL%0,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Ya-hua%Hu%NULL%0,              Peng%Peng%NULL%0,              Jian-ming%Wang%NULL%0,              Ji-yang%Liu%NULL%0,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhi-jian%Zheng%NULL%0,              Shao-qin%Qiu%NULL%0,              Jie%Luo%NULL%0,              Chang-jiang%Ye%NULL%0,              Shao-yong%Zhu%NULL%0,              Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,              Shuyun%Xu%NULL%2,              Muqing%Yu%NULL%2,              Ke%Wang%NULL%3,              Yu%Tao%NULL%4,              Ying%Zhou%NULL%0,              Jing%Shi%NULL%2,              Min%Zhou%NULL%0,              Bo%Wu%NULL%2,              Zhenyu%Yang%NULL%2,              Cong%Zhang%NULL%2,              Junqing%Yue%NULL%2,              Zhiguo%Zhang%NULL%2,              Harald%Renz%NULL%2,              Xiansheng%Liu%NULL%2,              Jungang%Xie%NULL%0,              Min%Xie%NULL%2,              Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,             Cao%Yi-yuan%coreGivesNoEmail%2,             Dong%Xiang%coreGivesNoEmail%2,             Gao%Ya-dong%coreGivesNoEmail%2,             Yan%You-qin%coreGivesNoEmail%2,             Yang%Yi-bin%coreGivesNoEmail%2,             Yuan%Ya-dong%coreGivesNoEmail%2,             Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,              Yun%Ling%NULL%0,              Yun%Ling%NULL%0,              Tao%Bai%NULL%2,              Tao%Bai%NULL%0,              Yusang%Xie%NULL%1,              Jie%Huang%NULL%2,              Jie%Huang%NULL%0,              Jian%Li%NULL%1,              Weining%Xiong%NULL%1,              Dexiang%Yang%NULL%1,              Rong%Chen%NULL%1,              Fangying%Lu%NULL%1,              Yunfei%Lu%NULL%1,              Xuhui%Liu%NULL%1,              Yuqing%Chen%NULL%2,              Yuqing%Chen%NULL%0,              Xin%Li%NULL%0,              Yong%Li%NULL%0,              Hanssa Dwarka%Summah%NULL%1,              Huihuang%Lin%NULL%1,              Jiayang%Yan%NULL%1,              Min%Zhou%NULL%0,              Hongzhou%Lu%NULL%0,              Hongzhou%Lu%NULL%0,              Jieming%Qu%NULL%0,              Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,              Bum Sik%Chin%NULL%2,              Bum Sik%Chin%NULL%0,              Chang Kyung%Kang%NULL%2,              Chang Kyung%Kang%NULL%0,              Nam Joong%Kim%NULL%2,              Nam Joong%Kim%NULL%0,              Yu Min%Kang%NULL%2,              Yu Min%Kang%NULL%0,              Jae-Phil%Choi%NULL%2,              Jae-Phil%Choi%NULL%0,              Dong Hyun%Oh%NULL%2,              Dong Hyun%Oh%NULL%0,              Jeong-Han%Kim%NULL%2,              Jeong-Han%Kim%NULL%0,              Boram%Koh%NULL%2,              Boram%Koh%NULL%0,              Seong Eun%Kim%NULL%2,              Seong Eun%Kim%NULL%0,              Na Ra%Yun%NULL%2,              Na Ra%Yun%NULL%0,              Jae-Hoon%Lee%NULL%2,              Jae-Hoon%Lee%NULL%0,              Jin Yong%Kim%NULL%0,              Jin Yong%Kim%NULL%0,              Yeonjae%Kim%NULL%2,              Yeonjae%Kim%NULL%0,              Ji Hwan%Bang%NULL%2,              Ji Hwan%Bang%NULL%0,              Kyoung-Ho%Song%NULL%3,              Kyoung-Ho%Song%NULL%0,              Hong Bin%Kim%NULL%3,              Hong Bin%Kim%NULL%0,              Ki-hyun%Chung%NULL%2,              Ki-hyun%Chung%NULL%0,              Myoung-don%Oh%NULL%2,              Myoung-don%Oh%NULL%0,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,              Zhao-Wu%Tao%NULL%1,              Lei%Wang%NULL%1,              Ming-Li%Yuan%NULL%1,              Kui%Liu%NULL%3,              Ling%Zhou%NULL%2,              Shuang%Wei%NULL%2,              Yan%Deng%NULL%0,              Jing%Liu%NULL%0,              Hui-Guo%Liu%NULL%0,              Ming%Yang%NULL%0,              Yi%Hu%NULL%0,              Pei-Fang%Wei%NULL%0,              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,              Xia%Yu%NULL%1,              Hong%Zhao%NULL%1,              Hao%Wang%NULL%2,              Ruihong%Zhao%NULL%0,              Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,              Yuan%Yu%NULL%0,              Jiqian%Xu%NULL%0,              Huaqing%Shu%NULL%0,              Jia'an%Xia%NULL%0,              Hong%Liu%NULL%0,              Yongran%Wu%NULL%0,              Lu%Zhang%NULL%0,              Zhui%Yu%NULL%0,              Minghao%Fang%NULL%0,              Ting%Yu%NULL%0,              Yaxin%Wang%NULL%0,              Shangwen%Pan%NULL%0,              Xiaojing%Zou%NULL%0,              Shiying%Yuan%NULL%0,              You%Shang%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1536,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1517,7 +1565,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1546,7 +1594,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1575,7 +1623,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1604,7 +1652,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1633,7 +1681,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1662,7 +1710,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
@@ -1691,7 +1739,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1720,7 +1768,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1749,7 +1797,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1778,7 +1826,7 @@
         <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1807,7 +1855,7 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -1836,7 +1884,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1865,7 +1913,7 @@
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
@@ -1894,7 +1942,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -1923,7 +1971,7 @@
         <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>

--- a/Covid_19_Dataset_and_References/References/65.xlsx
+++ b/Covid_19_Dataset_and_References/References/65.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="329">
   <si>
     <t>Doi</t>
   </si>
@@ -1172,6 +1172,54 @@
   </si>
   <si>
     <t>[Xiaobo%Yang%NULL%0,              Yuan%Yu%NULL%0,              Jiqian%Xu%NULL%0,              Huaqing%Shu%NULL%0,              Jia'an%Xia%NULL%0,              Hong%Liu%NULL%0,              Yongran%Wu%NULL%0,              Lu%Zhang%NULL%0,              Zhui%Yu%NULL%0,              Minghao%Fang%NULL%0,              Ting%Yu%NULL%0,              Yaxin%Wang%NULL%0,              Shangwen%Pan%NULL%0,              Xiaojing%Zou%NULL%0,              Shiying%Yuan%NULL%0,              You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,               Justin J.%Choi%NULL%0,               Laura C.%Pinheiro%NULL%0,               Edward J.%Schenck%NULL%0,               Ruijun%Chen%NULL%0,               Assem%Jabri%NULL%0,               Michael J.%Satlin%NULL%0,               Thomas R.%Campion%NULL%0,               Musarrat%Nahid%NULL%0,               Joanna B.%Ringel%NULL%0,               Katherine L.%Hoffman%NULL%0,               Mark N.%Alshak%NULL%0,               Han A.%Li%NULL%0,               Graham T.%Wehmeyer%NULL%0,               Graham T.%Wehmeyer%NULL%0,               Mangala%Rajan%NULL%0,               Evgeniya%Reshetnyak%NULL%0,               Nathaniel%Hupert%NULL%0,               Evelyn M.%Horn%NULL%0,               Fernando J.%Martinez%NULL%0,               Roy M.%Gulick%NULL%0,               Monika M.%Safford%NULL%0,               Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,               Yeming%Wang%NULL%0,               Xingwang%Li%NULL%0,               Lili%Ren%NULL%0,               Jianping%Zhao%NULL%0,               Yi%Hu%NULL%0,               Li%Zhang%NULL%0,               Guohui%Fan%NULL%0,               Jiuyang%Xu%NULL%0,               Xiaoying%Gu%NULL%0,               Zhenshun%Cheng%NULL%0,               Ting%Yu%NULL%0,               Jiaan%Xia%NULL%0,               Yuan%Wei%NULL%0,               Wenjuan%Wu%NULL%0,               Xuelei%Xie%NULL%0,               Wen%Yin%NULL%0,               Hui%Li%NULL%0,               Min%Liu%NULL%0,               Yan%Xiao%NULL%0,               Hong%Gao%NULL%0,               Li%Guo%NULL%0,               Jungang%Xie%NULL%0,               Guangfa%Wang%NULL%0,               Rongmeng%Jiang%NULL%0,               Zhancheng%Gao%NULL%0,               Qi%Jin%NULL%0,               Jianwei%Wang%wangjw28@163.com%0,               Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,               Yi%Xiang%NULL%1,               Wei%Fang%NULL%0,               Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,               Boqun%Li%279685211@qq.com%2,               Boqun%Li%279685211@qq.com%0,               Yanjun%Hu%huyanjun@163.com%1,               Chunhui%Lang%NULL%1,               Daoqiu%Huang%NULL%1,               Qiuyan%Sun%NULL%1,               Yan%Xiong%NULL%2,               Xia%Huang%NULL%1,               Jinglong%Lv%NULL%1,               Yaling%Luo%NULL%1,               Li%Shen%NULL%1,               Haoran%Yang%NULL%1,               Gu%Huang%NULL%1,               Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,               Min%Pan%NULL%0,               Xiumei%Zhang%NULL%0,               Mingfeng%Han%fyhmf@163.com%0,               Xiaoyun%Fan%13956988552@126.com%0,               Fengde%Zhao%NULL%0,               Manli%Miao%NULL%0,               Jing%Xu%NULL%0,               Minglong%Guan%NULL%0,               Xia%Deng%NULL%0,               Xu%Chen%NULL%0,               Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,               Huan%Cai%NULL%0,               Jianhua%Hu%NULL%0,               Jiangshan%Lian%NULL%0,               Jueqing%Gu%NULL%0,               Shanyan%Zhang%NULL%0,               Chanyuan%Ye%NULL%1,               Yingfeng%Lu%NULL%0,               Ciliang%Jin%NULL%0,               Guodong%Yu%NULL%0,               Hongyu%Jia%NULL%0,               Yimin%Zhang%NULL%0,               Jifang%Sheng%jifang_sheng@zju.edu.cn%0,               Lanjuan%Li%ljli@zju.edu.cn%2,               Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,               Ting%Yu%NULL%0,               Ronghui%Du%NULL%0,               Guohui%Fan%NULL%0,               Ying%Liu%NULL%0,               Zhibo%Liu%NULL%0,               Jie%Xiang%NULL%0,               Yeming%Wang%NULL%0,               Bin%Song%NULL%0,               Xiaoying%Gu%NULL%0,               Lulu%Guan%NULL%0,               Yuan%Wei%NULL%0,               Hui%Li%NULL%0,               Xudong%Wu%NULL%0,               Jiuyang%Xu%NULL%0,               Shengjin%Tu%NULL%0,               Yi%Zhang%NULL%0,               Hua%Chen%NULL%0,               Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0,               Nancy%Chow%NULL%1,               Katherine%Fleming-Dutra%NULL%1,               Ryan%Gierke%NULL%1,               Aron%Hall%NULL%1,               Michelle%Hughes%NULL%1,               Tamara%Pilishvili%NULL%1,               Matthew%Ritchey%NULL%1,               Katherine%Roguski%NULL%1,               Tami%Skoff%NULL%1,               Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,               Di%Wu%NULL%0,               Huilong%Chen%NULL%0,               Weiming%Yan%NULL%0,               Danlei%Yang%NULL%0,               Guang%Chen%NULL%0,               Ke%Ma%NULL%0,               Dong%Xu%NULL%0,               Haijing%Yu%NULL%0,               Hongwu%Wang%NULL%0,               Tao%Wang%NULL%0,               Wei%Guo%NULL%0,               Jia%Chen%NULL%0,               Chen%Ding%NULL%0,               Xiaoping%Zhang%NULL%0,               Jiaquan%Huang%NULL%0,               Meifang%Han%NULL%0,               Shusheng%Li%NULL%0,               Xiaoping%Luo%NULL%0,               Jianping%Zhao%NULL%0,               Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,               Zheng-yi%Ni%NULL%0,               Zheng-yi%Ni%NULL%0,               Yu%Hu%NULL%0,               Wen-hua%Liang%NULL%0,               Chun-quan%Ou%NULL%0,               Jian-xing%He%NULL%0,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chun-liang%Lei%NULL%0,               David S.C.%Hui%NULL%0,               Bin%Du%NULL%0,               Lan-juan%Li%NULL%0,               Guang%Zeng%NULL%0,               Kwok-Yung%Yuen%NULL%0,               Ru-chong%Chen%NULL%0,               Chun-li%Tang%NULL%0,               Tao%Wang%NULL%0,               Ping-yan%Chen%NULL%0,               Jie%Xiang%NULL%0,               Shi-yue%Li%NULL%0,               Jin-lin%Wang%NULL%0,               Zi-jing%Liang%NULL%0,               Yi-xiang%Peng%NULL%0,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Ya-hua%Hu%NULL%0,               Peng%Peng%NULL%0,               Jian-ming%Wang%NULL%0,               Ji-yang%Liu%NULL%0,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhi-jian%Zheng%NULL%0,               Shao-qin%Qiu%NULL%0,               Jie%Luo%NULL%0,               Chang-jiang%Ye%NULL%0,               Shao-yong%Zhu%NULL%0,               Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,               Shuyun%Xu%NULL%2,               Muqing%Yu%NULL%2,               Ke%Wang%NULL%3,               Yu%Tao%NULL%4,               Ying%Zhou%NULL%0,               Jing%Shi%NULL%2,               Min%Zhou%NULL%0,               Bo%Wu%NULL%2,               Zhenyu%Yang%NULL%2,               Cong%Zhang%NULL%2,               Junqing%Yue%NULL%2,               Zhiguo%Zhang%NULL%2,               Harald%Renz%NULL%2,               Xiansheng%Liu%NULL%2,               Jungang%Xie%NULL%0,               Min%Xie%NULL%2,               Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,              Cao%Yi-yuan%coreGivesNoEmail%2,              Dong%Xiang%coreGivesNoEmail%2,              Gao%Ya-dong%coreGivesNoEmail%2,              Yan%You-qin%coreGivesNoEmail%2,              Yang%Yi-bin%coreGivesNoEmail%2,              Yuan%Ya-dong%coreGivesNoEmail%2,              Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,               Yun%Ling%NULL%0,               Yun%Ling%NULL%0,               Tao%Bai%NULL%2,               Tao%Bai%NULL%0,               Yusang%Xie%NULL%1,               Jie%Huang%NULL%2,               Jie%Huang%NULL%0,               Jian%Li%NULL%1,               Weining%Xiong%NULL%1,               Dexiang%Yang%NULL%1,               Rong%Chen%NULL%1,               Fangying%Lu%NULL%1,               Yunfei%Lu%NULL%1,               Xuhui%Liu%NULL%1,               Yuqing%Chen%NULL%2,               Yuqing%Chen%NULL%0,               Xin%Li%NULL%0,               Yong%Li%NULL%0,               Hanssa Dwarka%Summah%NULL%1,               Huihuang%Lin%NULL%1,               Jiayang%Yan%NULL%1,               Min%Zhou%NULL%0,               Hongzhou%Lu%NULL%0,               Hongzhou%Lu%NULL%0,               Jieming%Qu%NULL%0,               Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,               Bum Sik%Chin%NULL%2,               Bum Sik%Chin%NULL%0,               Chang Kyung%Kang%NULL%2,               Chang Kyung%Kang%NULL%0,               Nam Joong%Kim%NULL%2,               Nam Joong%Kim%NULL%0,               Yu Min%Kang%NULL%2,               Yu Min%Kang%NULL%0,               Jae-Phil%Choi%NULL%2,               Jae-Phil%Choi%NULL%0,               Dong Hyun%Oh%NULL%2,               Dong Hyun%Oh%NULL%0,               Jeong-Han%Kim%NULL%2,               Jeong-Han%Kim%NULL%0,               Boram%Koh%NULL%2,               Boram%Koh%NULL%0,               Seong Eun%Kim%NULL%2,               Seong Eun%Kim%NULL%0,               Na Ra%Yun%NULL%2,               Na Ra%Yun%NULL%0,               Jae-Hoon%Lee%NULL%2,               Jae-Hoon%Lee%NULL%0,               Jin Yong%Kim%NULL%0,               Jin Yong%Kim%NULL%0,               Yeonjae%Kim%NULL%2,               Yeonjae%Kim%NULL%0,               Ji Hwan%Bang%NULL%2,               Ji Hwan%Bang%NULL%0,               Kyoung-Ho%Song%NULL%3,               Kyoung-Ho%Song%NULL%0,               Hong Bin%Kim%NULL%3,               Hong Bin%Kim%NULL%0,               Ki-hyun%Chung%NULL%2,               Ki-hyun%Chung%NULL%0,               Myoung-don%Oh%NULL%2,               Myoung-don%Oh%NULL%0,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,               Zhao-Wu%Tao%NULL%1,               Lei%Wang%NULL%1,               Ming-Li%Yuan%NULL%1,               Kui%Liu%NULL%3,               Ling%Zhou%NULL%2,               Shuang%Wei%NULL%2,               Yan%Deng%NULL%0,               Jing%Liu%NULL%0,               Hui-Guo%Liu%NULL%0,               Ming%Yang%NULL%0,               Yi%Hu%NULL%0,               Pei-Fang%Wei%NULL%0,               Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,               Xia%Yu%NULL%1,               Hong%Zhao%NULL%1,               Hao%Wang%NULL%2,               Ruihong%Zhao%NULL%0,               Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,               Yuan%Yu%NULL%0,               Jiqian%Xu%NULL%0,               Huaqing%Shu%NULL%0,               Jia'an%Xia%NULL%0,               Hong%Liu%NULL%0,               Yongran%Wu%NULL%0,               Lu%Zhang%NULL%0,               Zhui%Yu%NULL%0,               Minghao%Fang%NULL%0,               Ting%Yu%NULL%0,               Yaxin%Wang%NULL%0,               Shangwen%Pan%NULL%0,               Xiaojing%Zou%NULL%0,               Shiying%Yuan%NULL%0,               You%Shang%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1584,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1565,7 +1613,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1594,7 +1642,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1623,7 +1671,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1652,7 +1700,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1681,7 +1729,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1710,7 +1758,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
@@ -1739,7 +1787,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1768,7 +1816,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1797,7 +1845,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1826,7 +1874,7 @@
         <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1855,7 +1903,7 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -1884,7 +1932,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1913,7 +1961,7 @@
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
@@ -1942,7 +1990,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -1971,7 +2019,7 @@
         <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>

--- a/Covid_19_Dataset_and_References/References/65.xlsx
+++ b/Covid_19_Dataset_and_References/References/65.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="361">
   <si>
     <t>Doi</t>
   </si>
@@ -1220,6 +1220,102 @@
   </si>
   <si>
     <t>[Xiaobo%Yang%NULL%0,               Yuan%Yu%NULL%0,               Jiqian%Xu%NULL%0,               Huaqing%Shu%NULL%0,               Jia'an%Xia%NULL%0,               Hong%Liu%NULL%0,               Yongran%Wu%NULL%0,               Lu%Zhang%NULL%0,               Zhui%Yu%NULL%0,               Minghao%Fang%NULL%0,               Ting%Yu%NULL%0,               Yaxin%Wang%NULL%0,               Shangwen%Pan%NULL%0,               Xiaojing%Zou%NULL%0,               Shiying%Yuan%NULL%0,               You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                Justin J.%Choi%NULL%0,                Laura C.%Pinheiro%NULL%0,                Edward J.%Schenck%NULL%0,                Ruijun%Chen%NULL%0,                Assem%Jabri%NULL%0,                Michael J.%Satlin%NULL%0,                Thomas R.%Campion%NULL%0,                Musarrat%Nahid%NULL%0,                Joanna B.%Ringel%NULL%0,                Katherine L.%Hoffman%NULL%0,                Mark N.%Alshak%NULL%0,                Han A.%Li%NULL%0,                Graham T.%Wehmeyer%NULL%0,                Graham T.%Wehmeyer%NULL%0,                Mangala%Rajan%NULL%0,                Evgeniya%Reshetnyak%NULL%0,                Nathaniel%Hupert%NULL%0,                Evelyn M.%Horn%NULL%0,                Fernando J.%Martinez%NULL%0,                Roy M.%Gulick%NULL%0,                Monika M.%Safford%NULL%0,                Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                Yeming%Wang%NULL%0,                Xingwang%Li%NULL%0,                Lili%Ren%NULL%0,                Jianping%Zhao%NULL%0,                Yi%Hu%NULL%0,                Li%Zhang%NULL%0,                Guohui%Fan%NULL%0,                Jiuyang%Xu%NULL%0,                Xiaoying%Gu%NULL%0,                Zhenshun%Cheng%NULL%0,                Ting%Yu%NULL%0,                Jiaan%Xia%NULL%0,                Yuan%Wei%NULL%0,                Wenjuan%Wu%NULL%0,                Xuelei%Xie%NULL%0,                Wen%Yin%NULL%0,                Hui%Li%NULL%0,                Min%Liu%NULL%0,                Yan%Xiao%NULL%0,                Hong%Gao%NULL%0,                Li%Guo%NULL%0,                Jungang%Xie%NULL%0,                Guangfa%Wang%NULL%0,                Rongmeng%Jiang%NULL%0,                Zhancheng%Gao%NULL%0,                Qi%Jin%NULL%0,                Jianwei%Wang%wangjw28@163.com%0,                Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                Yi%Xiang%NULL%1,                Wei%Fang%NULL%0,                Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                Boqun%Li%279685211@qq.com%2,                Boqun%Li%279685211@qq.com%0,                Yanjun%Hu%huyanjun@163.com%1,                Chunhui%Lang%NULL%1,                Daoqiu%Huang%NULL%1,                Qiuyan%Sun%NULL%1,                Yan%Xiong%NULL%2,                Xia%Huang%NULL%1,                Jinglong%Lv%NULL%1,                Yaling%Luo%NULL%1,                Li%Shen%NULL%1,                Haoran%Yang%NULL%1,                Gu%Huang%NULL%1,                Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                Min%Pan%NULL%0,                Xiumei%Zhang%NULL%0,                Mingfeng%Han%fyhmf@163.com%0,                Xiaoyun%Fan%13956988552@126.com%0,                Fengde%Zhao%NULL%0,                Manli%Miao%NULL%0,                Jing%Xu%NULL%0,                Minglong%Guan%NULL%0,                Xia%Deng%NULL%0,                Xu%Chen%NULL%0,                Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,                Huan%Cai%NULL%0,                Jianhua%Hu%NULL%0,                Jiangshan%Lian%NULL%0,                Jueqing%Gu%NULL%0,                Shanyan%Zhang%NULL%0,                Chanyuan%Ye%NULL%1,                Yingfeng%Lu%NULL%0,                Ciliang%Jin%NULL%0,                Guodong%Yu%NULL%0,                Hongyu%Jia%NULL%0,                Yimin%Zhang%NULL%0,                Jifang%Sheng%jifang_sheng@zju.edu.cn%0,                Lanjuan%Li%ljli@zju.edu.cn%2,                Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                Ting%Yu%NULL%0,                Ronghui%Du%NULL%0,                Guohui%Fan%NULL%0,                Ying%Liu%NULL%0,                Zhibo%Liu%NULL%0,                Jie%Xiang%NULL%0,                Yeming%Wang%NULL%0,                Bin%Song%NULL%0,                Xiaoying%Gu%NULL%0,                Lulu%Guan%NULL%0,                Yuan%Wei%NULL%0,                Hui%Li%NULL%0,                Xudong%Wu%NULL%0,                Jiuyang%Xu%NULL%0,                Shengjin%Tu%NULL%0,                Yi%Zhang%NULL%0,                Hua%Chen%NULL%0,                Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0,                Nancy%Chow%NULL%1,                Katherine%Fleming-Dutra%NULL%1,                Ryan%Gierke%NULL%1,                Aron%Hall%NULL%1,                Michelle%Hughes%NULL%1,                Tamara%Pilishvili%NULL%1,                Matthew%Ritchey%NULL%1,                Katherine%Roguski%NULL%1,                Tami%Skoff%NULL%1,                Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                Di%Wu%NULL%0,                Huilong%Chen%NULL%0,                Weiming%Yan%NULL%0,                Danlei%Yang%NULL%0,                Guang%Chen%NULL%0,                Ke%Ma%NULL%0,                Dong%Xu%NULL%0,                Haijing%Yu%NULL%0,                Hongwu%Wang%NULL%0,                Tao%Wang%NULL%0,                Wei%Guo%NULL%0,                Jia%Chen%NULL%0,                Chen%Ding%NULL%0,                Xiaoping%Zhang%NULL%0,                Jiaquan%Huang%NULL%0,                Meifang%Han%NULL%0,                Shusheng%Li%NULL%0,                Xiaoping%Luo%NULL%0,                Jianping%Zhao%NULL%0,                Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                Zheng-yi%Ni%NULL%0,                Zheng-yi%Ni%NULL%0,                Yu%Hu%NULL%0,                Wen-hua%Liang%NULL%0,                Chun-quan%Ou%NULL%0,                Jian-xing%He%NULL%0,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chun-liang%Lei%NULL%0,                David S.C.%Hui%NULL%0,                Bin%Du%NULL%0,                Lan-juan%Li%NULL%0,                Guang%Zeng%NULL%0,                Kwok-Yung%Yuen%NULL%0,                Ru-chong%Chen%NULL%0,                Chun-li%Tang%NULL%0,                Tao%Wang%NULL%0,                Ping-yan%Chen%NULL%0,                Jie%Xiang%NULL%0,                Shi-yue%Li%NULL%0,                Jin-lin%Wang%NULL%0,                Zi-jing%Liang%NULL%0,                Yi-xiang%Peng%NULL%0,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Ya-hua%Hu%NULL%0,                Peng%Peng%NULL%0,                Jian-ming%Wang%NULL%0,                Ji-yang%Liu%NULL%0,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhi-jian%Zheng%NULL%0,                Shao-qin%Qiu%NULL%0,                Jie%Luo%NULL%0,                Chang-jiang%Ye%NULL%0,                Shao-yong%Zhu%NULL%0,                Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                Shuyun%Xu%NULL%2,                Muqing%Yu%NULL%2,                Ke%Wang%NULL%3,                Yu%Tao%NULL%4,                Ying%Zhou%NULL%0,                Jing%Shi%NULL%2,                Min%Zhou%NULL%0,                Bo%Wu%NULL%2,                Zhenyu%Yang%NULL%2,                Cong%Zhang%NULL%2,                Junqing%Yue%NULL%2,                Zhiguo%Zhang%NULL%2,                Harald%Renz%NULL%2,                Xiansheng%Liu%NULL%2,                Jungang%Xie%NULL%0,                Min%Xie%NULL%2,                Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,               Cao%Yi-yuan%coreGivesNoEmail%2,               Dong%Xiang%coreGivesNoEmail%2,               Gao%Ya-dong%coreGivesNoEmail%2,               Yan%You-qin%coreGivesNoEmail%2,               Yang%Yi-bin%coreGivesNoEmail%2,               Yuan%Ya-dong%coreGivesNoEmail%2,               Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                Yun%Ling%NULL%0,                Yun%Ling%NULL%0,                Tao%Bai%NULL%2,                Tao%Bai%NULL%0,                Yusang%Xie%NULL%1,                Jie%Huang%NULL%2,                Jie%Huang%NULL%0,                Jian%Li%NULL%1,                Weining%Xiong%NULL%1,                Dexiang%Yang%NULL%1,                Rong%Chen%NULL%1,                Fangying%Lu%NULL%1,                Yunfei%Lu%NULL%1,                Xuhui%Liu%NULL%1,                Yuqing%Chen%NULL%2,                Yuqing%Chen%NULL%0,                Xin%Li%NULL%0,                Yong%Li%NULL%0,                Hanssa Dwarka%Summah%NULL%1,                Huihuang%Lin%NULL%1,                Jiayang%Yan%NULL%1,                Min%Zhou%NULL%0,                Hongzhou%Lu%NULL%0,                Hongzhou%Lu%NULL%0,                Jieming%Qu%NULL%0,                Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,                Bum Sik%Chin%NULL%2,                Bum Sik%Chin%NULL%0,                Chang Kyung%Kang%NULL%2,                Chang Kyung%Kang%NULL%0,                Nam Joong%Kim%NULL%2,                Nam Joong%Kim%NULL%0,                Yu Min%Kang%NULL%2,                Yu Min%Kang%NULL%0,                Jae-Phil%Choi%NULL%2,                Jae-Phil%Choi%NULL%0,                Dong Hyun%Oh%NULL%2,                Dong Hyun%Oh%NULL%0,                Jeong-Han%Kim%NULL%2,                Jeong-Han%Kim%NULL%0,                Boram%Koh%NULL%2,                Boram%Koh%NULL%0,                Seong Eun%Kim%NULL%2,                Seong Eun%Kim%NULL%0,                Na Ra%Yun%NULL%2,                Na Ra%Yun%NULL%0,                Jae-Hoon%Lee%NULL%2,                Jae-Hoon%Lee%NULL%0,                Jin Yong%Kim%NULL%0,                Jin Yong%Kim%NULL%0,                Yeonjae%Kim%NULL%2,                Yeonjae%Kim%NULL%0,                Ji Hwan%Bang%NULL%2,                Ji Hwan%Bang%NULL%0,                Kyoung-Ho%Song%NULL%3,                Kyoung-Ho%Song%NULL%0,                Hong Bin%Kim%NULL%3,                Hong Bin%Kim%NULL%0,                Ki-hyun%Chung%NULL%2,                Ki-hyun%Chung%NULL%0,                Myoung-don%Oh%NULL%2,                Myoung-don%Oh%NULL%0,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                Zhao-Wu%Tao%NULL%1,                Lei%Wang%NULL%1,                Ming-Li%Yuan%NULL%1,                Kui%Liu%NULL%3,                Ling%Zhou%NULL%2,                Shuang%Wei%NULL%2,                Yan%Deng%NULL%0,                Jing%Liu%NULL%0,                Hui-Guo%Liu%NULL%0,                Ming%Yang%NULL%0,                Yi%Hu%NULL%0,                Pei-Fang%Wei%NULL%0,                Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,                Xia%Yu%NULL%1,                Hong%Zhao%NULL%1,                Hao%Wang%NULL%2,                Ruihong%Zhao%NULL%0,                Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                Yuan%Yu%NULL%0,                Jiqian%Xu%NULL%0,                Huaqing%Shu%NULL%0,                Jia'an%Xia%NULL%0,                Hong%Liu%NULL%0,                Yongran%Wu%NULL%0,                Lu%Zhang%NULL%0,                Zhui%Yu%NULL%0,                Minghao%Fang%NULL%0,                Ting%Yu%NULL%0,                Yaxin%Wang%NULL%0,                Shangwen%Pan%NULL%0,                Xiaojing%Zou%NULL%0,                Shiying%Yuan%NULL%0,                You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                 Justin J.%Choi%NULL%0,                 Laura C.%Pinheiro%NULL%0,                 Edward J.%Schenck%NULL%0,                 Ruijun%Chen%NULL%0,                 Assem%Jabri%NULL%0,                 Michael J.%Satlin%NULL%0,                 Thomas R.%Campion%NULL%0,                 Musarrat%Nahid%NULL%0,                 Joanna B.%Ringel%NULL%0,                 Katherine L.%Hoffman%NULL%0,                 Mark N.%Alshak%NULL%0,                 Han A.%Li%NULL%0,                 Graham T.%Wehmeyer%NULL%0,                 Graham T.%Wehmeyer%NULL%0,                 Mangala%Rajan%NULL%0,                 Evgeniya%Reshetnyak%NULL%0,                 Nathaniel%Hupert%NULL%0,                 Evelyn M.%Horn%NULL%0,                 Fernando J.%Martinez%NULL%0,                 Roy M.%Gulick%NULL%0,                 Monika M.%Safford%NULL%0,                 Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                 Yeming%Wang%NULL%0,                 Xingwang%Li%NULL%0,                 Lili%Ren%NULL%0,                 Jianping%Zhao%NULL%0,                 Yi%Hu%NULL%0,                 Li%Zhang%NULL%0,                 Guohui%Fan%NULL%0,                 Jiuyang%Xu%NULL%0,                 Xiaoying%Gu%NULL%0,                 Zhenshun%Cheng%NULL%0,                 Ting%Yu%NULL%0,                 Jiaan%Xia%NULL%0,                 Yuan%Wei%NULL%0,                 Wenjuan%Wu%NULL%0,                 Xuelei%Xie%NULL%0,                 Wen%Yin%NULL%0,                 Hui%Li%NULL%0,                 Min%Liu%NULL%0,                 Yan%Xiao%NULL%0,                 Hong%Gao%NULL%0,                 Li%Guo%NULL%0,                 Jungang%Xie%NULL%0,                 Guangfa%Wang%NULL%0,                 Rongmeng%Jiang%NULL%0,                 Zhancheng%Gao%NULL%0,                 Qi%Jin%NULL%0,                 Jianwei%Wang%wangjw28@163.com%0,                 Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                 Yi%Xiang%NULL%1,                 Wei%Fang%NULL%0,                 Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                 Boqun%Li%279685211@qq.com%2,                 Boqun%Li%279685211@qq.com%0,                 Yanjun%Hu%huyanjun@163.com%1,                 Chunhui%Lang%NULL%1,                 Daoqiu%Huang%NULL%1,                 Qiuyan%Sun%NULL%1,                 Yan%Xiong%NULL%2,                 Xia%Huang%NULL%1,                 Jinglong%Lv%NULL%1,                 Yaling%Luo%NULL%1,                 Li%Shen%NULL%1,                 Haoran%Yang%NULL%1,                 Gu%Huang%NULL%1,                 Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                 Min%Pan%NULL%0,                 Xiumei%Zhang%NULL%0,                 Mingfeng%Han%fyhmf@163.com%0,                 Xiaoyun%Fan%13956988552@126.com%0,                 Fengde%Zhao%NULL%0,                 Manli%Miao%NULL%0,                 Jing%Xu%NULL%0,                 Minglong%Guan%NULL%0,                 Xia%Deng%NULL%0,                 Xu%Chen%NULL%0,                 Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,                 Huan%Cai%NULL%0,                 Jianhua%Hu%NULL%0,                 Jiangshan%Lian%NULL%0,                 Jueqing%Gu%NULL%0,                 Shanyan%Zhang%NULL%0,                 Chanyuan%Ye%NULL%1,                 Yingfeng%Lu%NULL%0,                 Ciliang%Jin%NULL%0,                 Guodong%Yu%NULL%0,                 Hongyu%Jia%NULL%0,                 Yimin%Zhang%NULL%0,                 Jifang%Sheng%jifang_sheng@zju.edu.cn%0,                 Lanjuan%Li%ljli@zju.edu.cn%2,                 Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                 Ting%Yu%NULL%0,                 Ronghui%Du%NULL%0,                 Guohui%Fan%NULL%0,                 Ying%Liu%NULL%0,                 Zhibo%Liu%NULL%0,                 Jie%Xiang%NULL%0,                 Yeming%Wang%NULL%0,                 Bin%Song%NULL%0,                 Xiaoying%Gu%NULL%0,                 Lulu%Guan%NULL%0,                 Yuan%Wei%NULL%0,                 Hui%Li%NULL%0,                 Xudong%Wu%NULL%0,                 Jiuyang%Xu%NULL%0,                 Shengjin%Tu%NULL%0,                 Yi%Zhang%NULL%0,                 Hua%Chen%NULL%0,                 Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0,                 Nancy%Chow%NULL%1,                 Katherine%Fleming-Dutra%NULL%1,                 Ryan%Gierke%NULL%1,                 Aron%Hall%NULL%1,                 Michelle%Hughes%NULL%1,                 Tamara%Pilishvili%NULL%1,                 Matthew%Ritchey%NULL%1,                 Katherine%Roguski%NULL%1,                 Tami%Skoff%NULL%1,                 Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                 Di%Wu%NULL%0,                 Huilong%Chen%NULL%0,                 Weiming%Yan%NULL%0,                 Danlei%Yang%NULL%0,                 Guang%Chen%NULL%0,                 Ke%Ma%NULL%0,                 Dong%Xu%NULL%0,                 Haijing%Yu%NULL%0,                 Hongwu%Wang%NULL%0,                 Tao%Wang%NULL%0,                 Wei%Guo%NULL%0,                 Jia%Chen%NULL%0,                 Chen%Ding%NULL%0,                 Xiaoping%Zhang%NULL%0,                 Jiaquan%Huang%NULL%0,                 Meifang%Han%NULL%0,                 Shusheng%Li%NULL%0,                 Xiaoping%Luo%NULL%0,                 Jianping%Zhao%NULL%0,                 Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                 Zheng-yi%Ni%NULL%0,                 Zheng-yi%Ni%NULL%0,                 Yu%Hu%NULL%0,                 Wen-hua%Liang%NULL%0,                 Chun-quan%Ou%NULL%0,                 Jian-xing%He%NULL%0,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chun-liang%Lei%NULL%0,                 David S.C.%Hui%NULL%0,                 Bin%Du%NULL%0,                 Lan-juan%Li%NULL%0,                 Guang%Zeng%NULL%0,                 Kwok-Yung%Yuen%NULL%0,                 Ru-chong%Chen%NULL%0,                 Chun-li%Tang%NULL%0,                 Tao%Wang%NULL%0,                 Ping-yan%Chen%NULL%0,                 Jie%Xiang%NULL%0,                 Shi-yue%Li%NULL%0,                 Jin-lin%Wang%NULL%0,                 Zi-jing%Liang%NULL%0,                 Yi-xiang%Peng%NULL%0,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Ya-hua%Hu%NULL%0,                 Peng%Peng%NULL%0,                 Jian-ming%Wang%NULL%0,                 Ji-yang%Liu%NULL%0,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhi-jian%Zheng%NULL%0,                 Shao-qin%Qiu%NULL%0,                 Jie%Luo%NULL%0,                 Chang-jiang%Ye%NULL%0,                 Shao-yong%Zhu%NULL%0,                 Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                 Shuyun%Xu%NULL%2,                 Muqing%Yu%NULL%2,                 Ke%Wang%NULL%3,                 Yu%Tao%NULL%4,                 Ying%Zhou%NULL%0,                 Jing%Shi%NULL%2,                 Min%Zhou%NULL%0,                 Bo%Wu%NULL%2,                 Zhenyu%Yang%NULL%2,                 Cong%Zhang%NULL%2,                 Junqing%Yue%NULL%2,                 Zhiguo%Zhang%NULL%2,                 Harald%Renz%NULL%2,                 Xiansheng%Liu%NULL%2,                 Jungang%Xie%NULL%0,                 Min%Xie%NULL%2,                 Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                Cao%Yi-yuan%coreGivesNoEmail%2,                Dong%Xiang%coreGivesNoEmail%2,                Gao%Ya-dong%coreGivesNoEmail%2,                Yan%You-qin%coreGivesNoEmail%2,                Yang%Yi-bin%coreGivesNoEmail%2,                Yuan%Ya-dong%coreGivesNoEmail%2,                Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                 Yun%Ling%NULL%0,                 Yun%Ling%NULL%0,                 Tao%Bai%NULL%2,                 Tao%Bai%NULL%0,                 Yusang%Xie%NULL%1,                 Jie%Huang%NULL%2,                 Jie%Huang%NULL%0,                 Jian%Li%NULL%1,                 Weining%Xiong%NULL%1,                 Dexiang%Yang%NULL%1,                 Rong%Chen%NULL%1,                 Fangying%Lu%NULL%1,                 Yunfei%Lu%NULL%1,                 Xuhui%Liu%NULL%1,                 Yuqing%Chen%NULL%2,                 Yuqing%Chen%NULL%0,                 Xin%Li%NULL%0,                 Yong%Li%NULL%0,                 Hanssa Dwarka%Summah%NULL%1,                 Huihuang%Lin%NULL%1,                 Jiayang%Yan%NULL%1,                 Min%Zhou%NULL%0,                 Hongzhou%Lu%NULL%0,                 Hongzhou%Lu%NULL%0,                 Jieming%Qu%NULL%0,                 Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,                 Bum Sik%Chin%NULL%2,                 Bum Sik%Chin%NULL%0,                 Chang Kyung%Kang%NULL%2,                 Chang Kyung%Kang%NULL%0,                 Nam Joong%Kim%NULL%2,                 Nam Joong%Kim%NULL%0,                 Yu Min%Kang%NULL%2,                 Yu Min%Kang%NULL%0,                 Jae-Phil%Choi%NULL%2,                 Jae-Phil%Choi%NULL%0,                 Dong Hyun%Oh%NULL%2,                 Dong Hyun%Oh%NULL%0,                 Jeong-Han%Kim%NULL%2,                 Jeong-Han%Kim%NULL%0,                 Boram%Koh%NULL%2,                 Boram%Koh%NULL%0,                 Seong Eun%Kim%NULL%2,                 Seong Eun%Kim%NULL%0,                 Na Ra%Yun%NULL%2,                 Na Ra%Yun%NULL%0,                 Jae-Hoon%Lee%NULL%2,                 Jae-Hoon%Lee%NULL%0,                 Jin Yong%Kim%NULL%0,                 Jin Yong%Kim%NULL%0,                 Yeonjae%Kim%NULL%2,                 Yeonjae%Kim%NULL%0,                 Ji Hwan%Bang%NULL%2,                 Ji Hwan%Bang%NULL%0,                 Kyoung-Ho%Song%NULL%3,                 Kyoung-Ho%Song%NULL%0,                 Hong Bin%Kim%NULL%3,                 Hong Bin%Kim%NULL%0,                 Ki-hyun%Chung%NULL%2,                 Ki-hyun%Chung%NULL%0,                 Myoung-don%Oh%NULL%2,                 Myoung-don%Oh%NULL%0,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                 Zhao-Wu%Tao%NULL%1,                 Lei%Wang%NULL%1,                 Ming-Li%Yuan%NULL%1,                 Kui%Liu%NULL%3,                 Ling%Zhou%NULL%2,                 Shuang%Wei%NULL%2,                 Yan%Deng%NULL%0,                 Jing%Liu%NULL%0,                 Hui-Guo%Liu%NULL%0,                 Ming%Yang%NULL%0,                 Yi%Hu%NULL%0,                 Pei-Fang%Wei%NULL%0,                 Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,                 Xia%Yu%NULL%1,                 Hong%Zhao%NULL%1,                 Hao%Wang%NULL%2,                 Ruihong%Zhao%NULL%0,                 Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                 Yuan%Yu%NULL%0,                 Jiqian%Xu%NULL%0,                 Huaqing%Shu%NULL%0,                 Jia'an%Xia%NULL%0,                 Hong%Liu%NULL%0,                 Yongran%Wu%NULL%0,                 Lu%Zhang%NULL%0,                 Zhui%Yu%NULL%0,                 Minghao%Fang%NULL%0,                 Ting%Yu%NULL%0,                 Yaxin%Wang%NULL%0,                 Shangwen%Pan%NULL%0,                 Xiaojing%Zou%NULL%0,                 Shiying%Yuan%NULL%0,                 You%Shang%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1680,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1613,7 +1709,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1642,7 +1738,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1671,7 +1767,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1700,7 +1796,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1729,7 +1825,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1758,7 +1854,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
@@ -1787,7 +1883,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1816,7 +1912,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1845,7 +1941,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1874,7 +1970,7 @@
         <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1903,7 +1999,7 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -1932,7 +2028,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1961,7 +2057,7 @@
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
@@ -1990,7 +2086,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -2019,7 +2115,7 @@
         <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>

--- a/Covid_19_Dataset_and_References/References/65.xlsx
+++ b/Covid_19_Dataset_and_References/References/65.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="377">
   <si>
     <t>Doi</t>
   </si>
@@ -1316,6 +1316,54 @@
   </si>
   <si>
     <t>[Xiaobo%Yang%NULL%0,                 Yuan%Yu%NULL%0,                 Jiqian%Xu%NULL%0,                 Huaqing%Shu%NULL%0,                 Jia'an%Xia%NULL%0,                 Hong%Liu%NULL%0,                 Yongran%Wu%NULL%0,                 Lu%Zhang%NULL%0,                 Zhui%Yu%NULL%0,                 Minghao%Fang%NULL%0,                 Ting%Yu%NULL%0,                 Yaxin%Wang%NULL%0,                 Shangwen%Pan%NULL%0,                 Xiaojing%Zou%NULL%0,                 Shiying%Yuan%NULL%0,                 You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                  Justin J.%Choi%NULL%0,                  Laura C.%Pinheiro%NULL%0,                  Edward J.%Schenck%NULL%0,                  Ruijun%Chen%NULL%0,                  Assem%Jabri%NULL%0,                  Michael J.%Satlin%NULL%0,                  Thomas R.%Campion%NULL%0,                  Musarrat%Nahid%NULL%0,                  Joanna B.%Ringel%NULL%0,                  Katherine L.%Hoffman%NULL%0,                  Mark N.%Alshak%NULL%0,                  Han A.%Li%NULL%0,                  Graham T.%Wehmeyer%NULL%0,                  Graham T.%Wehmeyer%NULL%0,                  Mangala%Rajan%NULL%0,                  Evgeniya%Reshetnyak%NULL%0,                  Nathaniel%Hupert%NULL%0,                  Evelyn M.%Horn%NULL%0,                  Fernando J.%Martinez%NULL%0,                  Roy M.%Gulick%NULL%0,                  Monika M.%Safford%NULL%0,                  Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                  Yeming%Wang%NULL%0,                  Xingwang%Li%NULL%0,                  Lili%Ren%NULL%0,                  Jianping%Zhao%NULL%0,                  Yi%Hu%NULL%0,                  Li%Zhang%NULL%0,                  Guohui%Fan%NULL%0,                  Jiuyang%Xu%NULL%0,                  Xiaoying%Gu%NULL%0,                  Zhenshun%Cheng%NULL%0,                  Ting%Yu%NULL%0,                  Jiaan%Xia%NULL%0,                  Yuan%Wei%NULL%0,                  Wenjuan%Wu%NULL%0,                  Xuelei%Xie%NULL%0,                  Wen%Yin%NULL%0,                  Hui%Li%NULL%0,                  Min%Liu%NULL%0,                  Yan%Xiao%NULL%0,                  Hong%Gao%NULL%0,                  Li%Guo%NULL%0,                  Jungang%Xie%NULL%0,                  Guangfa%Wang%NULL%0,                  Rongmeng%Jiang%NULL%0,                  Zhancheng%Gao%NULL%0,                  Qi%Jin%NULL%0,                  Jianwei%Wang%wangjw28@163.com%0,                  Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                  Yi%Xiang%NULL%1,                  Wei%Fang%NULL%0,                  Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                  Boqun%Li%279685211@qq.com%2,                  Boqun%Li%279685211@qq.com%0,                  Yanjun%Hu%huyanjun@163.com%1,                  Chunhui%Lang%NULL%1,                  Daoqiu%Huang%NULL%1,                  Qiuyan%Sun%NULL%1,                  Yan%Xiong%NULL%2,                  Xia%Huang%NULL%1,                  Jinglong%Lv%NULL%1,                  Yaling%Luo%NULL%1,                  Li%Shen%NULL%1,                  Haoran%Yang%NULL%1,                  Gu%Huang%NULL%1,                  Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                  Min%Pan%NULL%0,                  Xiumei%Zhang%NULL%0,                  Mingfeng%Han%fyhmf@163.com%0,                  Xiaoyun%Fan%13956988552@126.com%0,                  Fengde%Zhao%NULL%0,                  Manli%Miao%NULL%0,                  Jing%Xu%NULL%0,                  Minglong%Guan%NULL%0,                  Xia%Deng%NULL%0,                  Xu%Chen%NULL%0,                  Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,                  Huan%Cai%NULL%0,                  Jianhua%Hu%NULL%0,                  Jiangshan%Lian%NULL%0,                  Jueqing%Gu%NULL%0,                  Shanyan%Zhang%NULL%0,                  Chanyuan%Ye%NULL%1,                  Yingfeng%Lu%NULL%0,                  Ciliang%Jin%NULL%0,                  Guodong%Yu%NULL%0,                  Hongyu%Jia%NULL%0,                  Yimin%Zhang%NULL%0,                  Jifang%Sheng%jifang_sheng@zju.edu.cn%0,                  Lanjuan%Li%ljli@zju.edu.cn%2,                  Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                  Ting%Yu%NULL%0,                  Ronghui%Du%NULL%0,                  Guohui%Fan%NULL%0,                  Ying%Liu%NULL%0,                  Zhibo%Liu%NULL%0,                  Jie%Xiang%NULL%0,                  Yeming%Wang%NULL%0,                  Bin%Song%NULL%0,                  Xiaoying%Gu%NULL%0,                  Lulu%Guan%NULL%0,                  Yuan%Wei%NULL%0,                  Hui%Li%NULL%0,                  Xudong%Wu%NULL%0,                  Jiuyang%Xu%NULL%0,                  Shengjin%Tu%NULL%0,                  Yi%Zhang%NULL%0,                  Hua%Chen%NULL%0,                  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0,                  Nancy%Chow%NULL%1,                  Katherine%Fleming-Dutra%NULL%1,                  Ryan%Gierke%NULL%1,                  Aron%Hall%NULL%1,                  Michelle%Hughes%NULL%1,                  Tamara%Pilishvili%NULL%1,                  Matthew%Ritchey%NULL%1,                  Katherine%Roguski%NULL%1,                  Tami%Skoff%NULL%1,                  Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                  Di%Wu%NULL%0,                  Huilong%Chen%NULL%0,                  Weiming%Yan%NULL%0,                  Danlei%Yang%NULL%0,                  Guang%Chen%NULL%0,                  Ke%Ma%NULL%0,                  Dong%Xu%NULL%0,                  Haijing%Yu%NULL%0,                  Hongwu%Wang%NULL%0,                  Tao%Wang%NULL%0,                  Wei%Guo%NULL%0,                  Jia%Chen%NULL%0,                  Chen%Ding%NULL%0,                  Xiaoping%Zhang%NULL%0,                  Jiaquan%Huang%NULL%0,                  Meifang%Han%NULL%0,                  Shusheng%Li%NULL%0,                  Xiaoping%Luo%NULL%0,                  Jianping%Zhao%NULL%0,                  Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                  Zheng-yi%Ni%NULL%0,                  Zheng-yi%Ni%NULL%0,                  Yu%Hu%NULL%0,                  Wen-hua%Liang%NULL%0,                  Chun-quan%Ou%NULL%0,                  Jian-xing%He%NULL%0,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chun-liang%Lei%NULL%0,                  David S.C.%Hui%NULL%0,                  Bin%Du%NULL%0,                  Lan-juan%Li%NULL%0,                  Guang%Zeng%NULL%0,                  Kwok-Yung%Yuen%NULL%0,                  Ru-chong%Chen%NULL%0,                  Chun-li%Tang%NULL%0,                  Tao%Wang%NULL%0,                  Ping-yan%Chen%NULL%0,                  Jie%Xiang%NULL%0,                  Shi-yue%Li%NULL%0,                  Jin-lin%Wang%NULL%0,                  Zi-jing%Liang%NULL%0,                  Yi-xiang%Peng%NULL%0,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Ya-hua%Hu%NULL%0,                  Peng%Peng%NULL%0,                  Jian-ming%Wang%NULL%0,                  Ji-yang%Liu%NULL%0,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhi-jian%Zheng%NULL%0,                  Shao-qin%Qiu%NULL%0,                  Jie%Luo%NULL%0,                  Chang-jiang%Ye%NULL%0,                  Shao-yong%Zhu%NULL%0,                  Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                  Shuyun%Xu%NULL%2,                  Muqing%Yu%NULL%2,                  Ke%Wang%NULL%3,                  Yu%Tao%NULL%4,                  Ying%Zhou%NULL%0,                  Jing%Shi%NULL%2,                  Min%Zhou%NULL%0,                  Bo%Wu%NULL%2,                  Zhenyu%Yang%NULL%2,                  Cong%Zhang%NULL%2,                  Junqing%Yue%NULL%2,                  Zhiguo%Zhang%NULL%2,                  Harald%Renz%NULL%2,                  Xiansheng%Liu%NULL%2,                  Jungang%Xie%NULL%0,                  Min%Xie%NULL%2,                  Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                 Cao%Yi-yuan%coreGivesNoEmail%2,                 Dong%Xiang%coreGivesNoEmail%2,                 Gao%Ya-dong%coreGivesNoEmail%2,                 Yan%You-qin%coreGivesNoEmail%2,                 Yang%Yi-bin%coreGivesNoEmail%2,                 Yuan%Ya-dong%coreGivesNoEmail%2,                 Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                  Yun%Ling%NULL%0,                  Yun%Ling%NULL%0,                  Tao%Bai%NULL%2,                  Tao%Bai%NULL%0,                  Yusang%Xie%NULL%1,                  Jie%Huang%NULL%2,                  Jie%Huang%NULL%0,                  Jian%Li%NULL%1,                  Weining%Xiong%NULL%1,                  Dexiang%Yang%NULL%1,                  Rong%Chen%NULL%1,                  Fangying%Lu%NULL%1,                  Yunfei%Lu%NULL%1,                  Xuhui%Liu%NULL%1,                  Yuqing%Chen%NULL%2,                  Yuqing%Chen%NULL%0,                  Xin%Li%NULL%0,                  Yong%Li%NULL%0,                  Hanssa Dwarka%Summah%NULL%1,                  Huihuang%Lin%NULL%1,                  Jiayang%Yan%NULL%1,                  Min%Zhou%NULL%0,                  Hongzhou%Lu%NULL%0,                  Hongzhou%Lu%NULL%0,                  Jieming%Qu%NULL%0,                  Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,                  Bum Sik%Chin%NULL%2,                  Bum Sik%Chin%NULL%0,                  Chang Kyung%Kang%NULL%2,                  Chang Kyung%Kang%NULL%0,                  Nam Joong%Kim%NULL%2,                  Nam Joong%Kim%NULL%0,                  Yu Min%Kang%NULL%2,                  Yu Min%Kang%NULL%0,                  Jae-Phil%Choi%NULL%2,                  Jae-Phil%Choi%NULL%0,                  Dong Hyun%Oh%NULL%2,                  Dong Hyun%Oh%NULL%0,                  Jeong-Han%Kim%NULL%2,                  Jeong-Han%Kim%NULL%0,                  Boram%Koh%NULL%2,                  Boram%Koh%NULL%0,                  Seong Eun%Kim%NULL%2,                  Seong Eun%Kim%NULL%0,                  Na Ra%Yun%NULL%2,                  Na Ra%Yun%NULL%0,                  Jae-Hoon%Lee%NULL%2,                  Jae-Hoon%Lee%NULL%0,                  Jin Yong%Kim%NULL%0,                  Jin Yong%Kim%NULL%0,                  Yeonjae%Kim%NULL%2,                  Yeonjae%Kim%NULL%0,                  Ji Hwan%Bang%NULL%2,                  Ji Hwan%Bang%NULL%0,                  Kyoung-Ho%Song%NULL%3,                  Kyoung-Ho%Song%NULL%0,                  Hong Bin%Kim%NULL%3,                  Hong Bin%Kim%NULL%0,                  Ki-hyun%Chung%NULL%2,                  Ki-hyun%Chung%NULL%0,                  Myoung-don%Oh%NULL%2,                  Myoung-don%Oh%NULL%0,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                  Zhao-Wu%Tao%NULL%1,                  Lei%Wang%NULL%1,                  Ming-Li%Yuan%NULL%1,                  Kui%Liu%NULL%3,                  Ling%Zhou%NULL%2,                  Shuang%Wei%NULL%2,                  Yan%Deng%NULL%0,                  Jing%Liu%NULL%0,                  Hui-Guo%Liu%NULL%0,                  Ming%Yang%NULL%0,                  Yi%Hu%NULL%0,                  Pei-Fang%Wei%NULL%0,                  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,                  Xia%Yu%NULL%1,                  Hong%Zhao%NULL%1,                  Hao%Wang%NULL%2,                  Ruihong%Zhao%NULL%0,                  Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                  Yuan%Yu%NULL%0,                  Jiqian%Xu%NULL%0,                  Huaqing%Shu%NULL%0,                  Jia'an%Xia%NULL%0,                  Hong%Liu%NULL%0,                  Yongran%Wu%NULL%0,                  Lu%Zhang%NULL%0,                  Zhui%Yu%NULL%0,                  Minghao%Fang%NULL%0,                  Ting%Yu%NULL%0,                  Yaxin%Wang%NULL%0,                  Shangwen%Pan%NULL%0,                  Xiaojing%Zou%NULL%0,                  Shiying%Yuan%NULL%0,                  You%Shang%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1680,7 +1728,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1709,7 +1757,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1738,7 +1786,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1767,7 +1815,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1796,7 +1844,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1825,7 +1873,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1854,7 +1902,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
@@ -1883,7 +1931,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1912,7 +1960,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1941,7 +1989,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1970,7 +2018,7 @@
         <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1999,7 +2047,7 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -2028,7 +2076,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -2057,7 +2105,7 @@
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
@@ -2086,7 +2134,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -2115,7 +2163,7 @@
         <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>

--- a/Covid_19_Dataset_and_References/References/65.xlsx
+++ b/Covid_19_Dataset_and_References/References/65.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="397">
   <si>
     <t>Doi</t>
   </si>
@@ -1364,6 +1364,66 @@
   </si>
   <si>
     <t>[Xiaobo%Yang%NULL%0,                  Yuan%Yu%NULL%0,                  Jiqian%Xu%NULL%0,                  Huaqing%Shu%NULL%0,                  Jia'an%Xia%NULL%0,                  Hong%Liu%NULL%0,                  Yongran%Wu%NULL%0,                  Lu%Zhang%NULL%0,                  Zhui%Yu%NULL%0,                  Minghao%Fang%NULL%0,                  Ting%Yu%NULL%0,                  Yaxin%Wang%NULL%0,                  Shangwen%Pan%NULL%0,                  Xiaojing%Zou%NULL%0,                  Shiying%Yuan%NULL%0,                  You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                   Justin J.%Choi%NULL%0,                   Laura C.%Pinheiro%NULL%0,                   Edward J.%Schenck%NULL%0,                   Ruijun%Chen%NULL%0,                   Assem%Jabri%NULL%0,                   Michael J.%Satlin%NULL%0,                   Thomas R.%Campion%NULL%0,                   Musarrat%Nahid%NULL%0,                   Joanna B.%Ringel%NULL%0,                   Katherine L.%Hoffman%NULL%0,                   Mark N.%Alshak%NULL%0,                   Han A.%Li%NULL%0,                   Graham T.%Wehmeyer%NULL%0,                   Graham T.%Wehmeyer%NULL%0,                   Mangala%Rajan%NULL%0,                   Evgeniya%Reshetnyak%NULL%0,                   Nathaniel%Hupert%NULL%0,                   Evelyn M.%Horn%NULL%0,                   Fernando J.%Martinez%NULL%0,                   Roy M.%Gulick%NULL%0,                   Monika M.%Safford%NULL%0,                   Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                   Yeming%Wang%NULL%0,                   Xingwang%Li%NULL%0,                   Lili%Ren%NULL%0,                   Jianping%Zhao%NULL%0,                   Yi%Hu%NULL%0,                   Li%Zhang%NULL%0,                   Guohui%Fan%NULL%0,                   Jiuyang%Xu%NULL%0,                   Xiaoying%Gu%NULL%0,                   Zhenshun%Cheng%NULL%0,                   Ting%Yu%NULL%0,                   Jiaan%Xia%NULL%0,                   Yuan%Wei%NULL%0,                   Wenjuan%Wu%NULL%0,                   Xuelei%Xie%NULL%0,                   Wen%Yin%NULL%0,                   Hui%Li%NULL%0,                   Min%Liu%NULL%0,                   Yan%Xiao%NULL%0,                   Hong%Gao%NULL%0,                   Li%Guo%NULL%0,                   Jungang%Xie%NULL%0,                   Guangfa%Wang%NULL%0,                   Rongmeng%Jiang%NULL%0,                   Zhancheng%Gao%NULL%0,                   Qi%Jin%NULL%0,                   Jianwei%Wang%wangjw28@163.com%0,                   Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                   Yi%Xiang%NULL%1,                   Wei%Fang%NULL%0,                   Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                   Boqun%Li%279685211@qq.com%2,                   Boqun%Li%279685211@qq.com%0,                   Yanjun%Hu%huyanjun@163.com%1,                   Chunhui%Lang%NULL%1,                   Daoqiu%Huang%NULL%1,                   Qiuyan%Sun%NULL%1,                   Yan%Xiong%NULL%2,                   Xia%Huang%NULL%1,                   Jinglong%Lv%NULL%1,                   Yaling%Luo%NULL%1,                   Li%Shen%NULL%1,                   Haoran%Yang%NULL%1,                   Gu%Huang%NULL%1,                   Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                   Min%Pan%NULL%0,                   Xiumei%Zhang%NULL%0,                   Mingfeng%Han%fyhmf@163.com%0,                   Xiaoyun%Fan%13956988552@126.com%0,                   Fengde%Zhao%NULL%0,                   Manli%Miao%NULL%0,                   Jing%Xu%NULL%0,                   Minglong%Guan%NULL%0,                   Xia%Deng%NULL%0,                   Xu%Chen%NULL%0,                   Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,                   Huan%Cai%NULL%0,                   Jianhua%Hu%NULL%0,                   Jiangshan%Lian%NULL%0,                   Jueqing%Gu%NULL%0,                   Shanyan%Zhang%NULL%0,                   Chanyuan%Ye%NULL%1,                   Yingfeng%Lu%NULL%0,                   Ciliang%Jin%NULL%0,                   Guodong%Yu%NULL%0,                   Hongyu%Jia%NULL%0,                   Yimin%Zhang%NULL%0,                   Jifang%Sheng%jifang_sheng@zju.edu.cn%0,                   Lanjuan%Li%ljli@zju.edu.cn%2,                   Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                   Ting%Yu%NULL%0,                   Ronghui%Du%NULL%0,                   Guohui%Fan%NULL%0,                   Ying%Liu%NULL%0,                   Zhibo%Liu%NULL%0,                   Jie%Xiang%NULL%0,                   Yeming%Wang%NULL%0,                   Bin%Song%NULL%0,                   Xiaoying%Gu%NULL%0,                   Lulu%Guan%NULL%0,                   Yuan%Wei%NULL%0,                   Hui%Li%NULL%0,                   Xudong%Wu%NULL%0,                   Jiuyang%Xu%NULL%0,                   Shengjin%Tu%NULL%0,                   Yi%Zhang%NULL%0,                   Hua%Chen%NULL%0,                   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0,                   Nancy%Chow%NULL%1,                   Katherine%Fleming-Dutra%NULL%1,                   Ryan%Gierke%NULL%1,                   Aron%Hall%NULL%1,                   Michelle%Hughes%NULL%1,                   Tamara%Pilishvili%NULL%1,                   Matthew%Ritchey%NULL%1,                   Katherine%Roguski%NULL%1,                   Tami%Skoff%NULL%1,                   Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                   Di%Wu%NULL%0,                   Huilong%Chen%NULL%0,                   Weiming%Yan%NULL%0,                   Danlei%Yang%NULL%0,                   Guang%Chen%NULL%0,                   Ke%Ma%NULL%0,                   Dong%Xu%NULL%0,                   Haijing%Yu%NULL%0,                   Hongwu%Wang%NULL%0,                   Tao%Wang%NULL%0,                   Wei%Guo%NULL%0,                   Jia%Chen%NULL%0,                   Chen%Ding%NULL%0,                   Xiaoping%Zhang%NULL%0,                   Jiaquan%Huang%NULL%0,                   Meifang%Han%NULL%0,                   Shusheng%Li%NULL%0,                   Xiaoping%Luo%NULL%0,                   Jianping%Zhao%NULL%0,                   Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                   Zheng-yi%Ni%NULL%0,                   Zheng-yi%Ni%NULL%0,                   Yu%Hu%NULL%0,                   Wen-hua%Liang%NULL%0,                   Chun-quan%Ou%NULL%0,                   Jian-xing%He%NULL%0,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chun-liang%Lei%NULL%0,                   David S.C.%Hui%NULL%0,                   Bin%Du%NULL%0,                   Lan-juan%Li%NULL%0,                   Guang%Zeng%NULL%0,                   Kwok-Yung%Yuen%NULL%0,                   Ru-chong%Chen%NULL%0,                   Chun-li%Tang%NULL%0,                   Tao%Wang%NULL%0,                   Ping-yan%Chen%NULL%0,                   Jie%Xiang%NULL%0,                   Shi-yue%Li%NULL%0,                   Jin-lin%Wang%NULL%0,                   Zi-jing%Liang%NULL%0,                   Yi-xiang%Peng%NULL%0,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Ya-hua%Hu%NULL%0,                   Peng%Peng%NULL%0,                   Jian-ming%Wang%NULL%0,                   Ji-yang%Liu%NULL%0,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhi-jian%Zheng%NULL%0,                   Shao-qin%Qiu%NULL%0,                   Jie%Luo%NULL%0,                   Chang-jiang%Ye%NULL%0,                   Shao-yong%Zhu%NULL%0,                   Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                   Shuyun%Xu%NULL%2,                   Muqing%Yu%NULL%2,                   Ke%Wang%NULL%3,                   Yu%Tao%NULL%4,                   Ying%Zhou%NULL%0,                   Jing%Shi%NULL%2,                   Min%Zhou%NULL%0,                   Bo%Wu%NULL%2,                   Zhenyu%Yang%NULL%2,                   Cong%Zhang%NULL%2,                   Junqing%Yue%NULL%2,                   Zhiguo%Zhang%NULL%2,                   Harald%Renz%NULL%2,                   Xiansheng%Liu%NULL%2,                   Jungang%Xie%NULL%0,                   Min%Xie%NULL%2,                   Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                  Cao%Yi-yuan%coreGivesNoEmail%2,                  Dong%Xiang%coreGivesNoEmail%2,                  Gao%Ya-dong%coreGivesNoEmail%2,                  Yan%You-qin%coreGivesNoEmail%2,                  Yang%Yi-bin%coreGivesNoEmail%2,                  Yuan%Ya-dong%coreGivesNoEmail%2,                  Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                   Yun%Ling%NULL%0,                   Yun%Ling%NULL%0,                   Tao%Bai%NULL%2,                   Tao%Bai%NULL%0,                   Yusang%Xie%NULL%1,                   Jie%Huang%NULL%2,                   Jie%Huang%NULL%0,                   Jian%Li%NULL%1,                   Weining%Xiong%NULL%1,                   Dexiang%Yang%NULL%1,                   Rong%Chen%NULL%1,                   Fangying%Lu%NULL%1,                   Yunfei%Lu%NULL%1,                   Xuhui%Liu%NULL%1,                   Yuqing%Chen%NULL%2,                   Yuqing%Chen%NULL%0,                   Xin%Li%NULL%0,                   Yong%Li%NULL%0,                   Hanssa Dwarka%Summah%NULL%1,                   Huihuang%Lin%NULL%1,                   Jiayang%Yan%NULL%1,                   Min%Zhou%NULL%0,                   Hongzhou%Lu%NULL%0,                   Hongzhou%Lu%NULL%0,                   Jieming%Qu%NULL%0,                   Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,                   Bum Sik%Chin%NULL%2,                   Bum Sik%Chin%NULL%0,                   Chang Kyung%Kang%NULL%2,                   Chang Kyung%Kang%NULL%0,                   Nam Joong%Kim%NULL%2,                   Nam Joong%Kim%NULL%0,                   Yu Min%Kang%NULL%2,                   Yu Min%Kang%NULL%0,                   Jae-Phil%Choi%NULL%2,                   Jae-Phil%Choi%NULL%0,                   Dong Hyun%Oh%NULL%2,                   Dong Hyun%Oh%NULL%0,                   Jeong-Han%Kim%NULL%2,                   Jeong-Han%Kim%NULL%0,                   Boram%Koh%NULL%2,                   Boram%Koh%NULL%0,                   Seong Eun%Kim%NULL%2,                   Seong Eun%Kim%NULL%0,                   Na Ra%Yun%NULL%2,                   Na Ra%Yun%NULL%0,                   Jae-Hoon%Lee%NULL%2,                   Jae-Hoon%Lee%NULL%0,                   Jin Yong%Kim%NULL%0,                   Jin Yong%Kim%NULL%0,                   Yeonjae%Kim%NULL%2,                   Yeonjae%Kim%NULL%0,                   Ji Hwan%Bang%NULL%2,                   Ji Hwan%Bang%NULL%0,                   Kyoung-Ho%Song%NULL%3,                   Kyoung-Ho%Song%NULL%0,                   Hong Bin%Kim%NULL%3,                   Hong Bin%Kim%NULL%0,                   Ki-hyun%Chung%NULL%2,                   Ki-hyun%Chung%NULL%0,                   Myoung-don%Oh%NULL%2,                   Myoung-don%Oh%NULL%0,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                   Zhao-Wu%Tao%NULL%1,                   Lei%Wang%NULL%1,                   Ming-Li%Yuan%NULL%1,                   Kui%Liu%NULL%3,                   Ling%Zhou%NULL%2,                   Shuang%Wei%NULL%2,                   Yan%Deng%NULL%0,                   Jing%Liu%NULL%0,                   Hui-Guo%Liu%NULL%0,                   Ming%Yang%NULL%0,                   Yi%Hu%NULL%0,                   Pei-Fang%Wei%NULL%0,                   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,                   Xia%Yu%NULL%1,                   Hong%Zhao%NULL%1,                   Hao%Wang%NULL%2,                   Ruihong%Zhao%NULL%0,                   Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                   Yuan%Yu%NULL%0,                   Jiqian%Xu%NULL%0,                   Huaqing%Shu%NULL%0,                   Jia'an%Xia%NULL%0,                   Hong%Liu%NULL%0,                   Yongran%Wu%NULL%0,                   Lu%Zhang%NULL%0,                   Zhui%Yu%NULL%0,                   Minghao%Fang%NULL%0,                   Ting%Yu%NULL%0,                   Yaxin%Wang%NULL%0,                   Shangwen%Pan%NULL%0,                   Xiaojing%Zou%NULL%0,                   Shiying%Yuan%NULL%0,                   You%Shang%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1788,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1740,7 +1800,7 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3">
@@ -1757,7 +1817,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1769,7 +1829,7 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
@@ -1786,7 +1846,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1798,7 +1858,7 @@
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5">
@@ -1815,7 +1875,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1827,7 +1887,7 @@
         <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>121</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6">
@@ -1844,7 +1904,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1856,7 +1916,7 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7">
@@ -1873,7 +1933,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1885,7 +1945,7 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>121</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8">
@@ -1902,7 +1962,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
@@ -1914,7 +1974,7 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>119</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9">
@@ -1931,7 +1991,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1943,7 +2003,7 @@
         <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10">
@@ -1960,7 +2020,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1972,7 +2032,7 @@
         <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11">
@@ -1989,7 +2049,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2001,7 +2061,7 @@
         <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12">
@@ -2018,7 +2078,7 @@
         <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -2030,7 +2090,7 @@
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13">
@@ -2047,7 +2107,7 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -2059,7 +2119,7 @@
         <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14">
@@ -2076,7 +2136,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -2088,7 +2148,7 @@
         <v>85</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15">
@@ -2105,7 +2165,7 @@
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
@@ -2117,7 +2177,7 @@
         <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16">
@@ -2134,7 +2194,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -2146,7 +2206,7 @@
         <v>93</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17">
@@ -2163,7 +2223,7 @@
         <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>
@@ -2175,7 +2235,7 @@
         <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>121</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/65.xlsx
+++ b/Covid_19_Dataset_and_References/References/65.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="413">
   <si>
     <t>Doi</t>
   </si>
@@ -1424,6 +1424,54 @@
   </si>
   <si>
     <t>[Xiaobo%Yang%NULL%0,                   Yuan%Yu%NULL%0,                   Jiqian%Xu%NULL%0,                   Huaqing%Shu%NULL%0,                   Jia'an%Xia%NULL%0,                   Hong%Liu%NULL%0,                   Yongran%Wu%NULL%0,                   Lu%Zhang%NULL%0,                   Zhui%Yu%NULL%0,                   Minghao%Fang%NULL%0,                   Ting%Yu%NULL%0,                   Yaxin%Wang%NULL%0,                   Shangwen%Pan%NULL%0,                   Xiaojing%Zou%NULL%0,                   Shiying%Yuan%NULL%0,                   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                    Justin J.%Choi%NULL%0,                    Laura C.%Pinheiro%NULL%0,                    Edward J.%Schenck%NULL%0,                    Ruijun%Chen%NULL%0,                    Assem%Jabri%NULL%0,                    Michael J.%Satlin%NULL%0,                    Thomas R.%Campion%NULL%0,                    Musarrat%Nahid%NULL%0,                    Joanna B.%Ringel%NULL%0,                    Katherine L.%Hoffman%NULL%0,                    Mark N.%Alshak%NULL%0,                    Han A.%Li%NULL%0,                    Graham T.%Wehmeyer%NULL%0,                    Graham T.%Wehmeyer%NULL%0,                    Mangala%Rajan%NULL%0,                    Evgeniya%Reshetnyak%NULL%0,                    Nathaniel%Hupert%NULL%0,                    Evelyn M.%Horn%NULL%0,                    Fernando J.%Martinez%NULL%0,                    Roy M.%Gulick%NULL%0,                    Monika M.%Safford%NULL%0,                    Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                    Yeming%Wang%NULL%0,                    Xingwang%Li%NULL%0,                    Lili%Ren%NULL%0,                    Jianping%Zhao%NULL%0,                    Yi%Hu%NULL%0,                    Li%Zhang%NULL%0,                    Guohui%Fan%NULL%0,                    Jiuyang%Xu%NULL%0,                    Xiaoying%Gu%NULL%0,                    Zhenshun%Cheng%NULL%0,                    Ting%Yu%NULL%0,                    Jiaan%Xia%NULL%0,                    Yuan%Wei%NULL%0,                    Wenjuan%Wu%NULL%0,                    Xuelei%Xie%NULL%0,                    Wen%Yin%NULL%0,                    Hui%Li%NULL%0,                    Min%Liu%NULL%0,                    Yan%Xiao%NULL%0,                    Hong%Gao%NULL%0,                    Li%Guo%NULL%0,                    Jungang%Xie%NULL%0,                    Guangfa%Wang%NULL%0,                    Rongmeng%Jiang%NULL%0,                    Zhancheng%Gao%NULL%0,                    Qi%Jin%NULL%0,                    Jianwei%Wang%wangjw28@163.com%0,                    Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                    Yi%Xiang%NULL%1,                    Wei%Fang%NULL%0,                    Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                    Boqun%Li%279685211@qq.com%2,                    Boqun%Li%279685211@qq.com%0,                    Yanjun%Hu%huyanjun@163.com%1,                    Chunhui%Lang%NULL%1,                    Daoqiu%Huang%NULL%1,                    Qiuyan%Sun%NULL%1,                    Yan%Xiong%NULL%2,                    Xia%Huang%NULL%1,                    Jinglong%Lv%NULL%1,                    Yaling%Luo%NULL%1,                    Li%Shen%NULL%1,                    Haoran%Yang%NULL%1,                    Gu%Huang%NULL%1,                    Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                    Min%Pan%NULL%0,                    Xiumei%Zhang%NULL%0,                    Mingfeng%Han%fyhmf@163.com%0,                    Xiaoyun%Fan%13956988552@126.com%0,                    Fengde%Zhao%NULL%0,                    Manli%Miao%NULL%0,                    Jing%Xu%NULL%0,                    Minglong%Guan%NULL%0,                    Xia%Deng%NULL%0,                    Xu%Chen%NULL%0,                    Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,                    Huan%Cai%NULL%0,                    Jianhua%Hu%NULL%0,                    Jiangshan%Lian%NULL%0,                    Jueqing%Gu%NULL%0,                    Shanyan%Zhang%NULL%0,                    Chanyuan%Ye%NULL%1,                    Yingfeng%Lu%NULL%0,                    Ciliang%Jin%NULL%0,                    Guodong%Yu%NULL%0,                    Hongyu%Jia%NULL%0,                    Yimin%Zhang%NULL%0,                    Jifang%Sheng%jifang_sheng@zju.edu.cn%0,                    Lanjuan%Li%ljli@zju.edu.cn%2,                    Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                    Ting%Yu%NULL%0,                    Ronghui%Du%NULL%0,                    Guohui%Fan%NULL%0,                    Ying%Liu%NULL%0,                    Zhibo%Liu%NULL%0,                    Jie%Xiang%NULL%0,                    Yeming%Wang%NULL%0,                    Bin%Song%NULL%0,                    Xiaoying%Gu%NULL%0,                    Lulu%Guan%NULL%0,                    Yuan%Wei%NULL%0,                    Hui%Li%NULL%0,                    Xudong%Wu%NULL%0,                    Jiuyang%Xu%NULL%0,                    Shengjin%Tu%NULL%0,                    Yi%Zhang%NULL%0,                    Hua%Chen%NULL%0,                    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0,                    Nancy%Chow%NULL%1,                    Katherine%Fleming-Dutra%NULL%1,                    Ryan%Gierke%NULL%1,                    Aron%Hall%NULL%1,                    Michelle%Hughes%NULL%1,                    Tamara%Pilishvili%NULL%1,                    Matthew%Ritchey%NULL%1,                    Katherine%Roguski%NULL%1,                    Tami%Skoff%NULL%1,                    Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                    Di%Wu%NULL%0,                    Huilong%Chen%NULL%0,                    Weiming%Yan%NULL%0,                    Danlei%Yang%NULL%0,                    Guang%Chen%NULL%0,                    Ke%Ma%NULL%0,                    Dong%Xu%NULL%0,                    Haijing%Yu%NULL%0,                    Hongwu%Wang%NULL%0,                    Tao%Wang%NULL%0,                    Wei%Guo%NULL%0,                    Jia%Chen%NULL%0,                    Chen%Ding%NULL%0,                    Xiaoping%Zhang%NULL%0,                    Jiaquan%Huang%NULL%0,                    Meifang%Han%NULL%0,                    Shusheng%Li%NULL%0,                    Xiaoping%Luo%NULL%0,                    Jianping%Zhao%NULL%0,                    Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                    Zheng-yi%Ni%NULL%0,                    Zheng-yi%Ni%NULL%0,                    Yu%Hu%NULL%0,                    Wen-hua%Liang%NULL%0,                    Chun-quan%Ou%NULL%0,                    Jian-xing%He%NULL%0,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chun-liang%Lei%NULL%0,                    David S.C.%Hui%NULL%0,                    Bin%Du%NULL%0,                    Lan-juan%Li%NULL%0,                    Guang%Zeng%NULL%0,                    Kwok-Yung%Yuen%NULL%0,                    Ru-chong%Chen%NULL%0,                    Chun-li%Tang%NULL%0,                    Tao%Wang%NULL%0,                    Ping-yan%Chen%NULL%0,                    Jie%Xiang%NULL%0,                    Shi-yue%Li%NULL%0,                    Jin-lin%Wang%NULL%0,                    Zi-jing%Liang%NULL%0,                    Yi-xiang%Peng%NULL%0,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Ya-hua%Hu%NULL%0,                    Peng%Peng%NULL%0,                    Jian-ming%Wang%NULL%0,                    Ji-yang%Liu%NULL%0,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhi-jian%Zheng%NULL%0,                    Shao-qin%Qiu%NULL%0,                    Jie%Luo%NULL%0,                    Chang-jiang%Ye%NULL%0,                    Shao-yong%Zhu%NULL%0,                    Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                    Shuyun%Xu%NULL%2,                    Muqing%Yu%NULL%2,                    Ke%Wang%NULL%3,                    Yu%Tao%NULL%4,                    Ying%Zhou%NULL%0,                    Jing%Shi%NULL%2,                    Min%Zhou%NULL%0,                    Bo%Wu%NULL%2,                    Zhenyu%Yang%NULL%2,                    Cong%Zhang%NULL%2,                    Junqing%Yue%NULL%2,                    Zhiguo%Zhang%NULL%2,                    Harald%Renz%NULL%2,                    Xiansheng%Liu%NULL%2,                    Jungang%Xie%NULL%0,                    Min%Xie%NULL%2,                    Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                   Cao%Yi-yuan%coreGivesNoEmail%2,                   Dong%Xiang%coreGivesNoEmail%2,                   Gao%Ya-dong%coreGivesNoEmail%2,                   Yan%You-qin%coreGivesNoEmail%2,                   Yang%Yi-bin%coreGivesNoEmail%2,                   Yuan%Ya-dong%coreGivesNoEmail%2,                   Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                    Yun%Ling%NULL%0,                    Yun%Ling%NULL%0,                    Tao%Bai%NULL%2,                    Tao%Bai%NULL%0,                    Yusang%Xie%NULL%1,                    Jie%Huang%NULL%2,                    Jie%Huang%NULL%0,                    Jian%Li%NULL%1,                    Weining%Xiong%NULL%1,                    Dexiang%Yang%NULL%1,                    Rong%Chen%NULL%1,                    Fangying%Lu%NULL%1,                    Yunfei%Lu%NULL%1,                    Xuhui%Liu%NULL%1,                    Yuqing%Chen%NULL%2,                    Yuqing%Chen%NULL%0,                    Xin%Li%NULL%0,                    Yong%Li%NULL%0,                    Hanssa Dwarka%Summah%NULL%1,                    Huihuang%Lin%NULL%1,                    Jiayang%Yan%NULL%1,                    Min%Zhou%NULL%0,                    Hongzhou%Lu%NULL%0,                    Hongzhou%Lu%NULL%0,                    Jieming%Qu%NULL%0,                    Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,                    Bum Sik%Chin%NULL%2,                    Bum Sik%Chin%NULL%0,                    Chang Kyung%Kang%NULL%2,                    Chang Kyung%Kang%NULL%0,                    Nam Joong%Kim%NULL%2,                    Nam Joong%Kim%NULL%0,                    Yu Min%Kang%NULL%2,                    Yu Min%Kang%NULL%0,                    Jae-Phil%Choi%NULL%2,                    Jae-Phil%Choi%NULL%0,                    Dong Hyun%Oh%NULL%2,                    Dong Hyun%Oh%NULL%0,                    Jeong-Han%Kim%NULL%2,                    Jeong-Han%Kim%NULL%0,                    Boram%Koh%NULL%2,                    Boram%Koh%NULL%0,                    Seong Eun%Kim%NULL%2,                    Seong Eun%Kim%NULL%0,                    Na Ra%Yun%NULL%2,                    Na Ra%Yun%NULL%0,                    Jae-Hoon%Lee%NULL%2,                    Jae-Hoon%Lee%NULL%0,                    Jin Yong%Kim%NULL%0,                    Jin Yong%Kim%NULL%0,                    Yeonjae%Kim%NULL%2,                    Yeonjae%Kim%NULL%0,                    Ji Hwan%Bang%NULL%2,                    Ji Hwan%Bang%NULL%0,                    Kyoung-Ho%Song%NULL%3,                    Kyoung-Ho%Song%NULL%0,                    Hong Bin%Kim%NULL%3,                    Hong Bin%Kim%NULL%0,                    Ki-hyun%Chung%NULL%2,                    Ki-hyun%Chung%NULL%0,                    Myoung-don%Oh%NULL%2,                    Myoung-don%Oh%NULL%0,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                    Zhao-Wu%Tao%NULL%1,                    Lei%Wang%NULL%1,                    Ming-Li%Yuan%NULL%1,                    Kui%Liu%NULL%3,                    Ling%Zhou%NULL%2,                    Shuang%Wei%NULL%2,                    Yan%Deng%NULL%0,                    Jing%Liu%NULL%0,                    Hui-Guo%Liu%NULL%0,                    Ming%Yang%NULL%0,                    Yi%Hu%NULL%0,                    Pei-Fang%Wei%NULL%0,                    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,                    Xia%Yu%NULL%1,                    Hong%Zhao%NULL%1,                    Hao%Wang%NULL%2,                    Ruihong%Zhao%NULL%0,                    Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                    Yuan%Yu%NULL%0,                    Jiqian%Xu%NULL%0,                    Huaqing%Shu%NULL%0,                    Jia'an%Xia%NULL%0,                    Hong%Liu%NULL%0,                    Yongran%Wu%NULL%0,                    Lu%Zhang%NULL%0,                    Zhui%Yu%NULL%0,                    Minghao%Fang%NULL%0,                    Ting%Yu%NULL%0,                    Yaxin%Wang%NULL%0,                    Shangwen%Pan%NULL%0,                    Xiaojing%Zou%NULL%0,                    Shiying%Yuan%NULL%0,                    You%Shang%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1836,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1817,7 +1865,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1846,7 +1894,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1875,7 +1923,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1904,7 +1952,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1933,7 +1981,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1962,7 +2010,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
@@ -1991,7 +2039,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -2020,7 +2068,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2049,7 +2097,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2078,7 +2126,7 @@
         <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -2107,7 +2155,7 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -2136,7 +2184,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -2165,7 +2213,7 @@
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
@@ -2194,7 +2242,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -2223,7 +2271,7 @@
         <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>

--- a/Covid_19_Dataset_and_References/References/65.xlsx
+++ b/Covid_19_Dataset_and_References/References/65.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="494">
   <si>
     <t>Doi</t>
   </si>
@@ -1472,6 +1472,249 @@
   </si>
   <si>
     <t>[Xiaobo%Yang%NULL%0,                    Yuan%Yu%NULL%0,                    Jiqian%Xu%NULL%0,                    Huaqing%Shu%NULL%0,                    Jia'an%Xia%NULL%0,                    Hong%Liu%NULL%0,                    Yongran%Wu%NULL%0,                    Lu%Zhang%NULL%0,                    Zhui%Yu%NULL%0,                    Minghao%Fang%NULL%0,                    Ting%Yu%NULL%0,                    Yaxin%Wang%NULL%0,                    Shangwen%Pan%NULL%0,                    Xiaojing%Zou%NULL%0,                    Shiying%Yuan%NULL%0,                    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                     Justin J.%Choi%NULL%0,                     Laura C.%Pinheiro%NULL%0,                     Edward J.%Schenck%NULL%0,                     Ruijun%Chen%NULL%0,                     Assem%Jabri%NULL%0,                     Michael J.%Satlin%NULL%0,                     Thomas R.%Campion%NULL%0,                     Musarrat%Nahid%NULL%0,                     Joanna B.%Ringel%NULL%0,                     Katherine L.%Hoffman%NULL%0,                     Mark N.%Alshak%NULL%0,                     Han A.%Li%NULL%0,                     Graham T.%Wehmeyer%NULL%0,                     Graham T.%Wehmeyer%NULL%0,                     Mangala%Rajan%NULL%0,                     Evgeniya%Reshetnyak%NULL%0,                     Nathaniel%Hupert%NULL%0,                     Evelyn M.%Horn%NULL%0,                     Fernando J.%Martinez%NULL%0,                     Roy M.%Gulick%NULL%0,                     Monika M.%Safford%NULL%0,                     Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                     Yeming%Wang%NULL%0,                     Xingwang%Li%NULL%0,                     Lili%Ren%NULL%0,                     Jianping%Zhao%NULL%0,                     Yi%Hu%NULL%0,                     Li%Zhang%NULL%0,                     Guohui%Fan%NULL%0,                     Jiuyang%Xu%NULL%0,                     Xiaoying%Gu%NULL%0,                     Zhenshun%Cheng%NULL%0,                     Ting%Yu%NULL%0,                     Jiaan%Xia%NULL%0,                     Yuan%Wei%NULL%0,                     Wenjuan%Wu%NULL%0,                     Xuelei%Xie%NULL%0,                     Wen%Yin%NULL%0,                     Hui%Li%NULL%0,                     Min%Liu%NULL%0,                     Yan%Xiao%NULL%0,                     Hong%Gao%NULL%0,                     Li%Guo%NULL%0,                     Jungang%Xie%NULL%0,                     Guangfa%Wang%NULL%0,                     Rongmeng%Jiang%NULL%0,                     Zhancheng%Gao%NULL%0,                     Qi%Jin%NULL%0,                     Jianwei%Wang%wangjw28@163.com%0,                     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                     Yi%Xiang%NULL%1,                     Wei%Fang%NULL%0,                     Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                     Boqun%Li%279685211@qq.com%2,                     Boqun%Li%279685211@qq.com%0,                     Yanjun%Hu%huyanjun@163.com%1,                     Chunhui%Lang%NULL%1,                     Daoqiu%Huang%NULL%1,                     Qiuyan%Sun%NULL%1,                     Yan%Xiong%NULL%2,                     Xia%Huang%NULL%1,                     Jinglong%Lv%NULL%1,                     Yaling%Luo%NULL%1,                     Li%Shen%NULL%1,                     Haoran%Yang%NULL%1,                     Gu%Huang%NULL%1,                     Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                     Min%Pan%NULL%0,                     Xiumei%Zhang%NULL%0,                     Mingfeng%Han%fyhmf@163.com%0,                     Xiaoyun%Fan%13956988552@126.com%0,                     Fengde%Zhao%NULL%0,                     Manli%Miao%NULL%0,                     Jing%Xu%NULL%0,                     Minglong%Guan%NULL%0,                     Xia%Deng%NULL%0,                     Xu%Chen%NULL%0,                     Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,                     Huan%Cai%NULL%0,                     Jianhua%Hu%NULL%0,                     Jiangshan%Lian%NULL%0,                     Jueqing%Gu%NULL%0,                     Shanyan%Zhang%NULL%0,                     Chanyuan%Ye%NULL%1,                     Yingfeng%Lu%NULL%0,                     Ciliang%Jin%NULL%0,                     Guodong%Yu%NULL%0,                     Hongyu%Jia%NULL%0,                     Yimin%Zhang%NULL%0,                     Jifang%Sheng%jifang_sheng@zju.edu.cn%0,                     Lanjuan%Li%ljli@zju.edu.cn%2,                     Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                     Ting%Yu%NULL%0,                     Ronghui%Du%NULL%0,                     Guohui%Fan%NULL%0,                     Ying%Liu%NULL%0,                     Zhibo%Liu%NULL%0,                     Jie%Xiang%NULL%0,                     Yeming%Wang%NULL%0,                     Bin%Song%NULL%0,                     Xiaoying%Gu%NULL%0,                     Lulu%Guan%NULL%0,                     Yuan%Wei%NULL%0,                     Hui%Li%NULL%0,                     Xudong%Wu%NULL%0,                     Jiuyang%Xu%NULL%0,                     Shengjin%Tu%NULL%0,                     Yi%Zhang%NULL%0,                     Hua%Chen%NULL%0,                     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0,                     Nancy%Chow%NULL%1,                     Katherine%Fleming-Dutra%NULL%1,                     Ryan%Gierke%NULL%1,                     Aron%Hall%NULL%1,                     Michelle%Hughes%NULL%1,                     Tamara%Pilishvili%NULL%1,                     Matthew%Ritchey%NULL%1,                     Katherine%Roguski%NULL%1,                     Tami%Skoff%NULL%1,                     Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                     Di%Wu%NULL%0,                     Huilong%Chen%NULL%0,                     Weiming%Yan%NULL%0,                     Danlei%Yang%NULL%0,                     Guang%Chen%NULL%0,                     Ke%Ma%NULL%0,                     Dong%Xu%NULL%0,                     Haijing%Yu%NULL%0,                     Hongwu%Wang%NULL%0,                     Tao%Wang%NULL%0,                     Wei%Guo%NULL%0,                     Jia%Chen%NULL%0,                     Chen%Ding%NULL%0,                     Xiaoping%Zhang%NULL%0,                     Jiaquan%Huang%NULL%0,                     Meifang%Han%NULL%0,                     Shusheng%Li%NULL%0,                     Xiaoping%Luo%NULL%0,                     Jianping%Zhao%NULL%0,                     Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                     Zheng-yi%Ni%NULL%0,                     Zheng-yi%Ni%NULL%0,                     Yu%Hu%NULL%0,                     Wen-hua%Liang%NULL%0,                     Chun-quan%Ou%NULL%0,                     Jian-xing%He%NULL%0,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chun-liang%Lei%NULL%0,                     David S.C.%Hui%NULL%0,                     Bin%Du%NULL%0,                     Lan-juan%Li%NULL%0,                     Guang%Zeng%NULL%0,                     Kwok-Yung%Yuen%NULL%0,                     Ru-chong%Chen%NULL%0,                     Chun-li%Tang%NULL%0,                     Tao%Wang%NULL%0,                     Ping-yan%Chen%NULL%0,                     Jie%Xiang%NULL%0,                     Shi-yue%Li%NULL%0,                     Jin-lin%Wang%NULL%0,                     Zi-jing%Liang%NULL%0,                     Yi-xiang%Peng%NULL%0,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Ya-hua%Hu%NULL%0,                     Peng%Peng%NULL%0,                     Jian-ming%Wang%NULL%0,                     Ji-yang%Liu%NULL%0,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhi-jian%Zheng%NULL%0,                     Shao-qin%Qiu%NULL%0,                     Jie%Luo%NULL%0,                     Chang-jiang%Ye%NULL%0,                     Shao-yong%Zhu%NULL%0,                     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                     Shuyun%Xu%NULL%2,                     Muqing%Yu%NULL%2,                     Ke%Wang%NULL%3,                     Yu%Tao%NULL%4,                     Ying%Zhou%NULL%0,                     Jing%Shi%NULL%2,                     Min%Zhou%NULL%0,                     Bo%Wu%NULL%2,                     Zhenyu%Yang%NULL%2,                     Cong%Zhang%NULL%2,                     Junqing%Yue%NULL%2,                     Zhiguo%Zhang%NULL%2,                     Harald%Renz%NULL%2,                     Xiansheng%Liu%NULL%2,                     Jungang%Xie%NULL%0,                     Min%Xie%NULL%2,                     Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                    Cao%Yi-yuan%coreGivesNoEmail%2,                    Dong%Xiang%coreGivesNoEmail%2,                    Gao%Ya-dong%coreGivesNoEmail%2,                    Yan%You-qin%coreGivesNoEmail%2,                    Yang%Yi-bin%coreGivesNoEmail%2,                    Yuan%Ya-dong%coreGivesNoEmail%2,                    Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                     Yun%Ling%NULL%0,                     Yun%Ling%NULL%0,                     Tao%Bai%NULL%2,                     Tao%Bai%NULL%0,                     Yusang%Xie%NULL%1,                     Jie%Huang%NULL%2,                     Jie%Huang%NULL%0,                     Jian%Li%NULL%1,                     Weining%Xiong%NULL%1,                     Dexiang%Yang%NULL%1,                     Rong%Chen%NULL%1,                     Fangying%Lu%NULL%1,                     Yunfei%Lu%NULL%1,                     Xuhui%Liu%NULL%1,                     Yuqing%Chen%NULL%2,                     Yuqing%Chen%NULL%0,                     Xin%Li%NULL%0,                     Yong%Li%NULL%0,                     Hanssa Dwarka%Summah%NULL%1,                     Huihuang%Lin%NULL%1,                     Jiayang%Yan%NULL%1,                     Min%Zhou%NULL%0,                     Hongzhou%Lu%NULL%0,                     Hongzhou%Lu%NULL%0,                     Jieming%Qu%NULL%0,                     Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,                     Bum Sik%Chin%NULL%2,                     Bum Sik%Chin%NULL%0,                     Chang Kyung%Kang%NULL%2,                     Chang Kyung%Kang%NULL%0,                     Nam Joong%Kim%NULL%2,                     Nam Joong%Kim%NULL%0,                     Yu Min%Kang%NULL%2,                     Yu Min%Kang%NULL%0,                     Jae-Phil%Choi%NULL%2,                     Jae-Phil%Choi%NULL%0,                     Dong Hyun%Oh%NULL%2,                     Dong Hyun%Oh%NULL%0,                     Jeong-Han%Kim%NULL%2,                     Jeong-Han%Kim%NULL%0,                     Boram%Koh%NULL%2,                     Boram%Koh%NULL%0,                     Seong Eun%Kim%NULL%2,                     Seong Eun%Kim%NULL%0,                     Na Ra%Yun%NULL%2,                     Na Ra%Yun%NULL%0,                     Jae-Hoon%Lee%NULL%2,                     Jae-Hoon%Lee%NULL%0,                     Jin Yong%Kim%NULL%0,                     Jin Yong%Kim%NULL%0,                     Yeonjae%Kim%NULL%2,                     Yeonjae%Kim%NULL%0,                     Ji Hwan%Bang%NULL%2,                     Ji Hwan%Bang%NULL%0,                     Kyoung-Ho%Song%NULL%3,                     Kyoung-Ho%Song%NULL%0,                     Hong Bin%Kim%NULL%3,                     Hong Bin%Kim%NULL%0,                     Ki-hyun%Chung%NULL%2,                     Ki-hyun%Chung%NULL%0,                     Myoung-don%Oh%NULL%2,                     Myoung-don%Oh%NULL%0,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                     Zhao-Wu%Tao%NULL%1,                     Lei%Wang%NULL%1,                     Ming-Li%Yuan%NULL%1,                     Kui%Liu%NULL%3,                     Ling%Zhou%NULL%2,                     Shuang%Wei%NULL%2,                     Yan%Deng%NULL%0,                     Jing%Liu%NULL%0,                     Hui-Guo%Liu%NULL%0,                     Ming%Yang%NULL%0,                     Yi%Hu%NULL%0,                     Pei-Fang%Wei%NULL%0,                     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,                     Xia%Yu%NULL%1,                     Hong%Zhao%NULL%1,                     Hao%Wang%NULL%2,                     Ruihong%Zhao%NULL%0,                     Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                     Yuan%Yu%NULL%0,                     Jiqian%Xu%NULL%0,                     Huaqing%Shu%NULL%0,                     Jia'an%Xia%NULL%0,                     Hong%Liu%NULL%0,                     Yongran%Wu%NULL%0,                     Lu%Zhang%NULL%0,                     Zhui%Yu%NULL%0,                     Minghao%Fang%NULL%0,                     Ting%Yu%NULL%0,                     Yaxin%Wang%NULL%0,                     Shangwen%Pan%NULL%0,                     Xiaojing%Zou%NULL%0,                     Shiying%Yuan%NULL%0,                     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                      Justin J.%Choi%NULL%0,                      Laura C.%Pinheiro%NULL%0,                      Edward J.%Schenck%NULL%0,                      Ruijun%Chen%NULL%0,                      Assem%Jabri%NULL%0,                      Michael J.%Satlin%NULL%0,                      Thomas R.%Campion%NULL%0,                      Musarrat%Nahid%NULL%0,                      Joanna B.%Ringel%NULL%0,                      Katherine L.%Hoffman%NULL%0,                      Mark N.%Alshak%NULL%0,                      Han A.%Li%NULL%0,                      Graham T.%Wehmeyer%NULL%0,                      Graham T.%Wehmeyer%NULL%0,                      Mangala%Rajan%NULL%0,                      Evgeniya%Reshetnyak%NULL%0,                      Nathaniel%Hupert%NULL%0,                      Evelyn M.%Horn%NULL%0,                      Fernando J.%Martinez%NULL%0,                      Roy M.%Gulick%NULL%0,                      Monika M.%Safford%NULL%0,                      Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                      Yeming%Wang%NULL%0,                      Xingwang%Li%NULL%0,                      Lili%Ren%NULL%0,                      Jianping%Zhao%NULL%0,                      Yi%Hu%NULL%0,                      Li%Zhang%NULL%0,                      Guohui%Fan%NULL%0,                      Jiuyang%Xu%NULL%0,                      Xiaoying%Gu%NULL%0,                      Zhenshun%Cheng%NULL%0,                      Ting%Yu%NULL%0,                      Jiaan%Xia%NULL%0,                      Yuan%Wei%NULL%0,                      Wenjuan%Wu%NULL%0,                      Xuelei%Xie%NULL%0,                      Wen%Yin%NULL%0,                      Hui%Li%NULL%0,                      Min%Liu%NULL%0,                      Yan%Xiao%NULL%0,                      Hong%Gao%NULL%0,                      Li%Guo%NULL%0,                      Jungang%Xie%NULL%0,                      Guangfa%Wang%NULL%0,                      Rongmeng%Jiang%NULL%0,                      Zhancheng%Gao%NULL%0,                      Qi%Jin%NULL%0,                      Jianwei%Wang%wangjw28@163.com%0,                      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                      Yi%Xiang%NULL%1,                      Wei%Fang%NULL%0,                      Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                      Boqun%Li%279685211@qq.com%2,                      Boqun%Li%279685211@qq.com%0,                      Yanjun%Hu%huyanjun@163.com%1,                      Chunhui%Lang%NULL%1,                      Daoqiu%Huang%NULL%1,                      Qiuyan%Sun%NULL%1,                      Yan%Xiong%NULL%2,                      Xia%Huang%NULL%1,                      Jinglong%Lv%NULL%1,                      Yaling%Luo%NULL%1,                      Li%Shen%NULL%1,                      Haoran%Yang%NULL%1,                      Gu%Huang%NULL%1,                      Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                      Min%Pan%NULL%0,                      Xiumei%Zhang%NULL%0,                      Mingfeng%Han%fyhmf@163.com%0,                      Xiaoyun%Fan%13956988552@126.com%0,                      Fengde%Zhao%NULL%0,                      Manli%Miao%NULL%0,                      Jing%Xu%NULL%0,                      Minglong%Guan%NULL%0,                      Xia%Deng%NULL%0,                      Xu%Chen%NULL%0,                      Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,                      Huan%Cai%NULL%0,                      Jianhua%Hu%NULL%0,                      Jiangshan%Lian%NULL%0,                      Jueqing%Gu%NULL%0,                      Shanyan%Zhang%NULL%0,                      Chanyuan%Ye%NULL%1,                      Yingfeng%Lu%NULL%0,                      Ciliang%Jin%NULL%0,                      Guodong%Yu%NULL%0,                      Hongyu%Jia%NULL%0,                      Yimin%Zhang%NULL%0,                      Jifang%Sheng%jifang_sheng@zju.edu.cn%0,                      Lanjuan%Li%ljli@zju.edu.cn%2,                      Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                      Ting%Yu%NULL%0,                      Ronghui%Du%NULL%0,                      Guohui%Fan%NULL%0,                      Ying%Liu%NULL%0,                      Zhibo%Liu%NULL%0,                      Jie%Xiang%NULL%0,                      Yeming%Wang%NULL%0,                      Bin%Song%NULL%0,                      Xiaoying%Gu%NULL%0,                      Lulu%Guan%NULL%0,                      Yuan%Wei%NULL%0,                      Hui%Li%NULL%0,                      Xudong%Wu%NULL%0,                      Jiuyang%Xu%NULL%0,                      Shengjin%Tu%NULL%0,                      Yi%Zhang%NULL%0,                      Hua%Chen%NULL%0,                      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0,                      Nancy%Chow%NULL%1,                      Katherine%Fleming-Dutra%NULL%1,                      Ryan%Gierke%NULL%1,                      Aron%Hall%NULL%1,                      Michelle%Hughes%NULL%1,                      Tamara%Pilishvili%NULL%1,                      Matthew%Ritchey%NULL%1,                      Katherine%Roguski%NULL%1,                      Tami%Skoff%NULL%1,                      Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                      Di%Wu%NULL%0,                      Huilong%Chen%NULL%0,                      Weiming%Yan%NULL%0,                      Danlei%Yang%NULL%0,                      Guang%Chen%NULL%0,                      Ke%Ma%NULL%0,                      Dong%Xu%NULL%0,                      Haijing%Yu%NULL%0,                      Hongwu%Wang%NULL%0,                      Tao%Wang%NULL%0,                      Wei%Guo%NULL%0,                      Jia%Chen%NULL%0,                      Chen%Ding%NULL%0,                      Xiaoping%Zhang%NULL%0,                      Jiaquan%Huang%NULL%0,                      Meifang%Han%NULL%0,                      Shusheng%Li%NULL%0,                      Xiaoping%Luo%NULL%0,                      Jianping%Zhao%NULL%0,                      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                      Zheng-yi%Ni%NULL%0,                      Zheng-yi%Ni%NULL%0,                      Yu%Hu%NULL%0,                      Wen-hua%Liang%NULL%0,                      Chun-quan%Ou%NULL%0,                      Jian-xing%He%NULL%0,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chun-liang%Lei%NULL%0,                      David S.C.%Hui%NULL%0,                      Bin%Du%NULL%0,                      Lan-juan%Li%NULL%0,                      Guang%Zeng%NULL%0,                      Kwok-Yung%Yuen%NULL%0,                      Ru-chong%Chen%NULL%0,                      Chun-li%Tang%NULL%0,                      Tao%Wang%NULL%0,                      Ping-yan%Chen%NULL%0,                      Jie%Xiang%NULL%0,                      Shi-yue%Li%NULL%0,                      Jin-lin%Wang%NULL%0,                      Zi-jing%Liang%NULL%0,                      Yi-xiang%Peng%NULL%0,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Ya-hua%Hu%NULL%0,                      Peng%Peng%NULL%0,                      Jian-ming%Wang%NULL%0,                      Ji-yang%Liu%NULL%0,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhi-jian%Zheng%NULL%0,                      Shao-qin%Qiu%NULL%0,                      Jie%Luo%NULL%0,                      Chang-jiang%Ye%NULL%0,                      Shao-yong%Zhu%NULL%0,                      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                      Shuyun%Xu%NULL%2,                      Muqing%Yu%NULL%2,                      Ke%Wang%NULL%3,                      Yu%Tao%NULL%4,                      Ying%Zhou%NULL%0,                      Jing%Shi%NULL%2,                      Min%Zhou%NULL%0,                      Bo%Wu%NULL%2,                      Zhenyu%Yang%NULL%2,                      Cong%Zhang%NULL%2,                      Junqing%Yue%NULL%2,                      Zhiguo%Zhang%NULL%2,                      Harald%Renz%NULL%2,                      Xiansheng%Liu%NULL%2,                      Jungang%Xie%NULL%0,                      Min%Xie%NULL%2,                      Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                     Cao%Yi-yuan%coreGivesNoEmail%2,                     Dong%Xiang%coreGivesNoEmail%2,                     Gao%Ya-dong%coreGivesNoEmail%2,                     Yan%You-qin%coreGivesNoEmail%2,                     Yang%Yi-bin%coreGivesNoEmail%2,                     Yuan%Ya-dong%coreGivesNoEmail%2,                     Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                      Yun%Ling%NULL%0,                      Yun%Ling%NULL%0,                      Tao%Bai%NULL%2,                      Tao%Bai%NULL%0,                      Yusang%Xie%NULL%1,                      Jie%Huang%NULL%2,                      Jie%Huang%NULL%0,                      Jian%Li%NULL%1,                      Weining%Xiong%NULL%1,                      Dexiang%Yang%NULL%1,                      Rong%Chen%NULL%1,                      Fangying%Lu%NULL%1,                      Yunfei%Lu%NULL%1,                      Xuhui%Liu%NULL%1,                      Yuqing%Chen%NULL%2,                      Yuqing%Chen%NULL%0,                      Xin%Li%NULL%0,                      Yong%Li%NULL%0,                      Hanssa Dwarka%Summah%NULL%1,                      Huihuang%Lin%NULL%1,                      Jiayang%Yan%NULL%1,                      Min%Zhou%NULL%0,                      Hongzhou%Lu%NULL%0,                      Hongzhou%Lu%NULL%0,                      Jieming%Qu%NULL%0,                      Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,                      Bum Sik%Chin%NULL%2,                      Bum Sik%Chin%NULL%0,                      Chang Kyung%Kang%NULL%2,                      Chang Kyung%Kang%NULL%0,                      Nam Joong%Kim%NULL%2,                      Nam Joong%Kim%NULL%0,                      Yu Min%Kang%NULL%2,                      Yu Min%Kang%NULL%0,                      Jae-Phil%Choi%NULL%2,                      Jae-Phil%Choi%NULL%0,                      Dong Hyun%Oh%NULL%2,                      Dong Hyun%Oh%NULL%0,                      Jeong-Han%Kim%NULL%2,                      Jeong-Han%Kim%NULL%0,                      Boram%Koh%NULL%2,                      Boram%Koh%NULL%0,                      Seong Eun%Kim%NULL%2,                      Seong Eun%Kim%NULL%0,                      Na Ra%Yun%NULL%2,                      Na Ra%Yun%NULL%0,                      Jae-Hoon%Lee%NULL%2,                      Jae-Hoon%Lee%NULL%0,                      Jin Yong%Kim%NULL%0,                      Jin Yong%Kim%NULL%0,                      Yeonjae%Kim%NULL%2,                      Yeonjae%Kim%NULL%0,                      Ji Hwan%Bang%NULL%2,                      Ji Hwan%Bang%NULL%0,                      Kyoung-Ho%Song%NULL%3,                      Kyoung-Ho%Song%NULL%0,                      Hong Bin%Kim%NULL%3,                      Hong Bin%Kim%NULL%0,                      Ki-hyun%Chung%NULL%2,                      Ki-hyun%Chung%NULL%0,                      Myoung-don%Oh%NULL%2,                      Myoung-don%Oh%NULL%0,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                      Zhao-Wu%Tao%NULL%1,                      Lei%Wang%NULL%1,                      Ming-Li%Yuan%NULL%1,                      Kui%Liu%NULL%3,                      Ling%Zhou%NULL%2,                      Shuang%Wei%NULL%2,                      Yan%Deng%NULL%0,                      Jing%Liu%NULL%0,                      Hui-Guo%Liu%NULL%0,                      Ming%Yang%NULL%0,                      Yi%Hu%NULL%0,                      Pei-Fang%Wei%NULL%0,                      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,                      Xia%Yu%NULL%1,                      Hong%Zhao%NULL%1,                      Hao%Wang%NULL%2,                      Ruihong%Zhao%NULL%0,                      Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                      Yuan%Yu%NULL%0,                      Jiqian%Xu%NULL%0,                      Huaqing%Shu%NULL%0,                      Jia'an%Xia%NULL%0,                      Hong%Liu%NULL%0,                      Yongran%Wu%NULL%0,                      Lu%Zhang%NULL%0,                      Zhui%Yu%NULL%0,                      Minghao%Fang%NULL%0,                      Ting%Yu%NULL%0,                      Yaxin%Wang%NULL%0,                      Shangwen%Pan%NULL%0,                      Xiaojing%Zou%NULL%0,                      Shiying%Yuan%NULL%0,                      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                       Justin J.%Choi%NULL%0,                       Laura C.%Pinheiro%NULL%0,                       Edward J.%Schenck%NULL%0,                       Ruijun%Chen%NULL%0,                       Assem%Jabri%NULL%0,                       Michael J.%Satlin%NULL%0,                       Thomas R.%Campion%NULL%0,                       Musarrat%Nahid%NULL%0,                       Joanna B.%Ringel%NULL%0,                       Katherine L.%Hoffman%NULL%0,                       Mark N.%Alshak%NULL%0,                       Han A.%Li%NULL%0,                       Graham T.%Wehmeyer%NULL%0,                       Graham T.%Wehmeyer%NULL%0,                       Mangala%Rajan%NULL%0,                       Evgeniya%Reshetnyak%NULL%0,                       Nathaniel%Hupert%NULL%0,                       Evelyn M.%Horn%NULL%0,                       Fernando J.%Martinez%NULL%0,                       Roy M.%Gulick%NULL%0,                       Monika M.%Safford%NULL%0,                       Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                       Yeming%Wang%NULL%0,                       Xingwang%Li%NULL%0,                       Lili%Ren%NULL%0,                       Jianping%Zhao%NULL%0,                       Yi%Hu%NULL%0,                       Li%Zhang%NULL%0,                       Guohui%Fan%NULL%0,                       Jiuyang%Xu%NULL%0,                       Xiaoying%Gu%NULL%0,                       Zhenshun%Cheng%NULL%0,                       Ting%Yu%NULL%0,                       Jiaan%Xia%NULL%0,                       Yuan%Wei%NULL%0,                       Wenjuan%Wu%NULL%0,                       Xuelei%Xie%NULL%0,                       Wen%Yin%NULL%0,                       Hui%Li%NULL%0,                       Min%Liu%NULL%0,                       Yan%Xiao%NULL%0,                       Hong%Gao%NULL%0,                       Li%Guo%NULL%0,                       Jungang%Xie%NULL%0,                       Guangfa%Wang%NULL%0,                       Rongmeng%Jiang%NULL%0,                       Zhancheng%Gao%NULL%0,                       Qi%Jin%NULL%0,                       Jianwei%Wang%wangjw28@163.com%0,                       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                       Yi%Xiang%NULL%1,                       Wei%Fang%NULL%0,                       Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                       Boqun%Li%279685211@qq.com%2,                       Boqun%Li%279685211@qq.com%0,                       Yanjun%Hu%huyanjun@163.com%1,                       Chunhui%Lang%NULL%1,                       Daoqiu%Huang%NULL%1,                       Qiuyan%Sun%NULL%1,                       Yan%Xiong%NULL%2,                       Xia%Huang%NULL%1,                       Jinglong%Lv%NULL%1,                       Yaling%Luo%NULL%1,                       Li%Shen%NULL%1,                       Haoran%Yang%NULL%1,                       Gu%Huang%NULL%1,                       Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                       Min%Pan%NULL%0,                       Xiumei%Zhang%NULL%0,                       Mingfeng%Han%fyhmf@163.com%0,                       Xiaoyun%Fan%13956988552@126.com%0,                       Fengde%Zhao%NULL%0,                       Manli%Miao%NULL%0,                       Jing%Xu%NULL%0,                       Minglong%Guan%NULL%0,                       Xia%Deng%NULL%0,                       Xu%Chen%NULL%0,                       Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,                       Huan%Cai%NULL%0,                       Jianhua%Hu%NULL%0,                       Jiangshan%Lian%NULL%0,                       Jueqing%Gu%NULL%0,                       Shanyan%Zhang%NULL%0,                       Chanyuan%Ye%NULL%1,                       Yingfeng%Lu%NULL%0,                       Ciliang%Jin%NULL%0,                       Guodong%Yu%NULL%0,                       Hongyu%Jia%NULL%0,                       Yimin%Zhang%NULL%0,                       Jifang%Sheng%jifang_sheng@zju.edu.cn%0,                       Lanjuan%Li%ljli@zju.edu.cn%2,                       Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                       Ting%Yu%NULL%0,                       Ronghui%Du%NULL%0,                       Guohui%Fan%NULL%0,                       Ying%Liu%NULL%0,                       Zhibo%Liu%NULL%0,                       Jie%Xiang%NULL%0,                       Yeming%Wang%NULL%0,                       Bin%Song%NULL%0,                       Xiaoying%Gu%NULL%0,                       Lulu%Guan%NULL%0,                       Yuan%Wei%NULL%0,                       Hui%Li%NULL%0,                       Xudong%Wu%NULL%0,                       Jiuyang%Xu%NULL%0,                       Shengjin%Tu%NULL%0,                       Yi%Zhang%NULL%0,                       Hua%Chen%NULL%0,                       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0,                       Nancy%Chow%NULL%1,                       Katherine%Fleming-Dutra%NULL%1,                       Ryan%Gierke%NULL%1,                       Aron%Hall%NULL%1,                       Michelle%Hughes%NULL%1,                       Tamara%Pilishvili%NULL%1,                       Matthew%Ritchey%NULL%1,                       Katherine%Roguski%NULL%1,                       Tami%Skoff%NULL%1,                       Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                       Di%Wu%NULL%0,                       Huilong%Chen%NULL%0,                       Weiming%Yan%NULL%0,                       Danlei%Yang%NULL%0,                       Guang%Chen%NULL%0,                       Ke%Ma%NULL%0,                       Dong%Xu%NULL%0,                       Haijing%Yu%NULL%0,                       Hongwu%Wang%NULL%0,                       Tao%Wang%NULL%0,                       Wei%Guo%NULL%0,                       Jia%Chen%NULL%0,                       Chen%Ding%NULL%0,                       Xiaoping%Zhang%NULL%0,                       Jiaquan%Huang%NULL%0,                       Meifang%Han%NULL%0,                       Shusheng%Li%NULL%0,                       Xiaoping%Luo%NULL%0,                       Jianping%Zhao%NULL%0,                       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                       Zheng-yi%Ni%NULL%0,                       Zheng-yi%Ni%NULL%0,                       Yu%Hu%NULL%0,                       Wen-hua%Liang%NULL%0,                       Chun-quan%Ou%NULL%0,                       Jian-xing%He%NULL%0,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chun-liang%Lei%NULL%0,                       David S.C.%Hui%NULL%0,                       Bin%Du%NULL%0,                       Lan-juan%Li%NULL%0,                       Guang%Zeng%NULL%0,                       Kwok-Yung%Yuen%NULL%0,                       Ru-chong%Chen%NULL%0,                       Chun-li%Tang%NULL%0,                       Tao%Wang%NULL%0,                       Ping-yan%Chen%NULL%0,                       Jie%Xiang%NULL%0,                       Shi-yue%Li%NULL%0,                       Jin-lin%Wang%NULL%0,                       Zi-jing%Liang%NULL%0,                       Yi-xiang%Peng%NULL%0,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Ya-hua%Hu%NULL%0,                       Peng%Peng%NULL%0,                       Jian-ming%Wang%NULL%0,                       Ji-yang%Liu%NULL%0,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhi-jian%Zheng%NULL%0,                       Shao-qin%Qiu%NULL%0,                       Jie%Luo%NULL%0,                       Chang-jiang%Ye%NULL%0,                       Shao-yong%Zhu%NULL%0,                       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                       Shuyun%Xu%NULL%2,                       Muqing%Yu%NULL%2,                       Ke%Wang%NULL%3,                       Yu%Tao%NULL%4,                       Ying%Zhou%NULL%0,                       Jing%Shi%NULL%2,                       Min%Zhou%NULL%0,                       Bo%Wu%NULL%2,                       Zhenyu%Yang%NULL%2,                       Cong%Zhang%NULL%2,                       Junqing%Yue%NULL%2,                       Zhiguo%Zhang%NULL%2,                       Harald%Renz%NULL%2,                       Xiansheng%Liu%NULL%2,                       Jungang%Xie%NULL%0,                       Min%Xie%NULL%2,                       Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                      Cao%Yi-yuan%coreGivesNoEmail%2,                      Dong%Xiang%coreGivesNoEmail%2,                      Gao%Ya-dong%coreGivesNoEmail%2,                      Yan%You-qin%coreGivesNoEmail%2,                      Yang%Yi-bin%coreGivesNoEmail%2,                      Yuan%Ya-dong%coreGivesNoEmail%2,                      Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                       Yun%Ling%NULL%0,                       Yun%Ling%NULL%0,                       Tao%Bai%NULL%2,                       Tao%Bai%NULL%0,                       Yusang%Xie%NULL%1,                       Jie%Huang%NULL%2,                       Jie%Huang%NULL%0,                       Jian%Li%NULL%1,                       Weining%Xiong%NULL%1,                       Dexiang%Yang%NULL%1,                       Rong%Chen%NULL%1,                       Fangying%Lu%NULL%1,                       Yunfei%Lu%NULL%1,                       Xuhui%Liu%NULL%1,                       Yuqing%Chen%NULL%2,                       Yuqing%Chen%NULL%0,                       Xin%Li%NULL%0,                       Yong%Li%NULL%0,                       Hanssa Dwarka%Summah%NULL%1,                       Huihuang%Lin%NULL%1,                       Jiayang%Yan%NULL%1,                       Min%Zhou%NULL%0,                       Hongzhou%Lu%NULL%0,                       Hongzhou%Lu%NULL%0,                       Jieming%Qu%NULL%0,                       Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,                       Bum Sik%Chin%NULL%2,                       Bum Sik%Chin%NULL%0,                       Chang Kyung%Kang%NULL%2,                       Chang Kyung%Kang%NULL%0,                       Nam Joong%Kim%NULL%2,                       Nam Joong%Kim%NULL%0,                       Yu Min%Kang%NULL%2,                       Yu Min%Kang%NULL%0,                       Jae-Phil%Choi%NULL%2,                       Jae-Phil%Choi%NULL%0,                       Dong Hyun%Oh%NULL%2,                       Dong Hyun%Oh%NULL%0,                       Jeong-Han%Kim%NULL%2,                       Jeong-Han%Kim%NULL%0,                       Boram%Koh%NULL%2,                       Boram%Koh%NULL%0,                       Seong Eun%Kim%NULL%2,                       Seong Eun%Kim%NULL%0,                       Na Ra%Yun%NULL%2,                       Na Ra%Yun%NULL%0,                       Jae-Hoon%Lee%NULL%2,                       Jae-Hoon%Lee%NULL%0,                       Jin Yong%Kim%NULL%0,                       Jin Yong%Kim%NULL%0,                       Yeonjae%Kim%NULL%2,                       Yeonjae%Kim%NULL%0,                       Ji Hwan%Bang%NULL%2,                       Ji Hwan%Bang%NULL%0,                       Kyoung-Ho%Song%NULL%3,                       Kyoung-Ho%Song%NULL%0,                       Hong Bin%Kim%NULL%3,                       Hong Bin%Kim%NULL%0,                       Ki-hyun%Chung%NULL%2,                       Ki-hyun%Chung%NULL%0,                       Myoung-don%Oh%NULL%2,                       Myoung-don%Oh%NULL%0,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                       Zhao-Wu%Tao%NULL%1,                       Lei%Wang%NULL%1,                       Ming-Li%Yuan%NULL%1,                       Kui%Liu%NULL%3,                       Ling%Zhou%NULL%2,                       Shuang%Wei%NULL%2,                       Yan%Deng%NULL%0,                       Jing%Liu%NULL%0,                       Hui-Guo%Liu%NULL%0,                       Ming%Yang%NULL%0,                       Yi%Hu%NULL%0,                       Pei-Fang%Wei%NULL%0,                       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,                       Xia%Yu%NULL%1,                       Hong%Zhao%NULL%1,                       Hao%Wang%NULL%2,                       Ruihong%Zhao%NULL%0,                       Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                       Yuan%Yu%NULL%0,                       Jiqian%Xu%NULL%0,                       Huaqing%Shu%NULL%0,                       Jia'an%Xia%NULL%0,                       Hong%Liu%NULL%0,                       Yongran%Wu%NULL%0,                       Lu%Zhang%NULL%0,                       Zhui%Yu%NULL%0,                       Minghao%Fang%NULL%0,                       Ting%Yu%NULL%0,                       Yaxin%Wang%NULL%0,                       Shangwen%Pan%NULL%0,                       Xiaojing%Zou%NULL%0,                       Shiying%Yuan%NULL%0,                       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                        Justin J.%Choi%NULL%0,                        Laura C.%Pinheiro%NULL%0,                        Edward J.%Schenck%NULL%0,                        Ruijun%Chen%NULL%0,                        Assem%Jabri%NULL%0,                        Michael J.%Satlin%NULL%0,                        Thomas R.%Campion%NULL%0,                        Musarrat%Nahid%NULL%0,                        Joanna B.%Ringel%NULL%0,                        Katherine L.%Hoffman%NULL%0,                        Mark N.%Alshak%NULL%0,                        Han A.%Li%NULL%0,                        Graham T.%Wehmeyer%NULL%0,                        Graham T.%Wehmeyer%NULL%0,                        Mangala%Rajan%NULL%0,                        Evgeniya%Reshetnyak%NULL%0,                        Nathaniel%Hupert%NULL%0,                        Evelyn M.%Horn%NULL%0,                        Fernando J.%Martinez%NULL%0,                        Roy M.%Gulick%NULL%0,                        Monika M.%Safford%NULL%0,                        Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                        Yeming%Wang%NULL%0,                        Xingwang%Li%NULL%0,                        Lili%Ren%NULL%0,                        Jianping%Zhao%NULL%0,                        Yi%Hu%NULL%0,                        Li%Zhang%NULL%0,                        Guohui%Fan%NULL%0,                        Jiuyang%Xu%NULL%0,                        Xiaoying%Gu%NULL%0,                        Zhenshun%Cheng%NULL%0,                        Ting%Yu%NULL%0,                        Jiaan%Xia%NULL%0,                        Yuan%Wei%NULL%0,                        Wenjuan%Wu%NULL%0,                        Xuelei%Xie%NULL%0,                        Wen%Yin%NULL%0,                        Hui%Li%NULL%0,                        Min%Liu%NULL%0,                        Yan%Xiao%NULL%0,                        Hong%Gao%NULL%0,                        Li%Guo%NULL%0,                        Jungang%Xie%NULL%0,                        Guangfa%Wang%NULL%0,                        Rongmeng%Jiang%NULL%0,                        Zhancheng%Gao%NULL%0,                        Qi%Jin%NULL%0,                        Jianwei%Wang%wangjw28@163.com%0,                        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                        Yi%Xiang%NULL%1,                        Wei%Fang%NULL%0,                        Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                        Boqun%Li%279685211@qq.com%2,                        Boqun%Li%279685211@qq.com%0,                        Yanjun%Hu%huyanjun@163.com%1,                        Chunhui%Lang%NULL%1,                        Daoqiu%Huang%NULL%1,                        Qiuyan%Sun%NULL%1,                        Yan%Xiong%NULL%2,                        Xia%Huang%NULL%1,                        Jinglong%Lv%NULL%1,                        Yaling%Luo%NULL%1,                        Li%Shen%NULL%1,                        Haoran%Yang%NULL%1,                        Gu%Huang%NULL%1,                        Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                        Min%Pan%NULL%0,                        Xiumei%Zhang%NULL%0,                        Mingfeng%Han%fyhmf@163.com%0,                        Xiaoyun%Fan%13956988552@126.com%0,                        Fengde%Zhao%NULL%0,                        Manli%Miao%NULL%0,                        Jing%Xu%NULL%0,                        Minglong%Guan%NULL%0,                        Xia%Deng%NULL%0,                        Xu%Chen%NULL%0,                        Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,                        Huan%Cai%NULL%0,                        Jianhua%Hu%NULL%0,                        Jiangshan%Lian%NULL%0,                        Jueqing%Gu%NULL%0,                        Shanyan%Zhang%NULL%0,                        Chanyuan%Ye%NULL%1,                        Yingfeng%Lu%NULL%0,                        Ciliang%Jin%NULL%0,                        Guodong%Yu%NULL%0,                        Hongyu%Jia%NULL%0,                        Yimin%Zhang%NULL%0,                        Jifang%Sheng%jifang_sheng@zju.edu.cn%0,                        Lanjuan%Li%ljli@zju.edu.cn%2,                        Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                        Ting%Yu%NULL%0,                        Ronghui%Du%NULL%0,                        Guohui%Fan%NULL%0,                        Ying%Liu%NULL%0,                        Zhibo%Liu%NULL%0,                        Jie%Xiang%NULL%0,                        Yeming%Wang%NULL%0,                        Bin%Song%NULL%0,                        Xiaoying%Gu%NULL%0,                        Lulu%Guan%NULL%0,                        Yuan%Wei%NULL%0,                        Hui%Li%NULL%0,                        Xudong%Wu%NULL%0,                        Jiuyang%Xu%NULL%0,                        Shengjin%Tu%NULL%0,                        Yi%Zhang%NULL%0,                        Hua%Chen%NULL%0,                        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0,                        Nancy%Chow%NULL%1,                        Katherine%Fleming-Dutra%NULL%1,                        Ryan%Gierke%NULL%1,                        Aron%Hall%NULL%1,                        Michelle%Hughes%NULL%1,                        Tamara%Pilishvili%NULL%1,                        Matthew%Ritchey%NULL%1,                        Katherine%Roguski%NULL%1,                        Tami%Skoff%NULL%1,                        Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                        Di%Wu%NULL%0,                        Huilong%Chen%NULL%0,                        Weiming%Yan%NULL%0,                        Danlei%Yang%NULL%0,                        Guang%Chen%NULL%0,                        Ke%Ma%NULL%0,                        Dong%Xu%NULL%0,                        Haijing%Yu%NULL%0,                        Hongwu%Wang%NULL%0,                        Tao%Wang%NULL%0,                        Wei%Guo%NULL%0,                        Jia%Chen%NULL%0,                        Chen%Ding%NULL%0,                        Xiaoping%Zhang%NULL%0,                        Jiaquan%Huang%NULL%0,                        Meifang%Han%NULL%0,                        Shusheng%Li%NULL%0,                        Xiaoping%Luo%NULL%0,                        Jianping%Zhao%NULL%0,                        Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                        Zheng-yi%Ni%NULL%0,                        Zheng-yi%Ni%NULL%0,                        Yu%Hu%NULL%0,                        Wen-hua%Liang%NULL%0,                        Chun-quan%Ou%NULL%0,                        Jian-xing%He%NULL%0,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chun-liang%Lei%NULL%0,                        David S.C.%Hui%NULL%0,                        Bin%Du%NULL%0,                        Lan-juan%Li%NULL%0,                        Guang%Zeng%NULL%0,                        Kwok-Yung%Yuen%NULL%0,                        Ru-chong%Chen%NULL%0,                        Chun-li%Tang%NULL%0,                        Tao%Wang%NULL%0,                        Ping-yan%Chen%NULL%0,                        Jie%Xiang%NULL%0,                        Shi-yue%Li%NULL%0,                        Jin-lin%Wang%NULL%0,                        Zi-jing%Liang%NULL%0,                        Yi-xiang%Peng%NULL%0,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Ya-hua%Hu%NULL%0,                        Peng%Peng%NULL%0,                        Jian-ming%Wang%NULL%0,                        Ji-yang%Liu%NULL%0,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhi-jian%Zheng%NULL%0,                        Shao-qin%Qiu%NULL%0,                        Jie%Luo%NULL%0,                        Chang-jiang%Ye%NULL%0,                        Shao-yong%Zhu%NULL%0,                        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                        Shuyun%Xu%NULL%2,                        Muqing%Yu%NULL%2,                        Ke%Wang%NULL%3,                        Yu%Tao%NULL%4,                        Ying%Zhou%NULL%0,                        Jing%Shi%NULL%2,                        Min%Zhou%NULL%0,                        Bo%Wu%NULL%2,                        Zhenyu%Yang%NULL%2,                        Cong%Zhang%NULL%2,                        Junqing%Yue%NULL%2,                        Zhiguo%Zhang%NULL%2,                        Harald%Renz%NULL%2,                        Xiansheng%Liu%NULL%2,                        Jungang%Xie%NULL%0,                        Min%Xie%NULL%2,                        Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                       Cao%Yi-yuan%coreGivesNoEmail%2,                       Dong%Xiang%coreGivesNoEmail%2,                       Gao%Ya-dong%coreGivesNoEmail%2,                       Yan%You-qin%coreGivesNoEmail%2,                       Yang%Yi-bin%coreGivesNoEmail%2,                       Yuan%Ya-dong%coreGivesNoEmail%2,                       Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                        Yun%Ling%NULL%0,                        Yun%Ling%NULL%0,                        Tao%Bai%NULL%2,                        Tao%Bai%NULL%0,                        Yusang%Xie%NULL%1,                        Jie%Huang%NULL%2,                        Jie%Huang%NULL%0,                        Jian%Li%NULL%1,                        Weining%Xiong%NULL%1,                        Dexiang%Yang%NULL%1,                        Rong%Chen%NULL%1,                        Fangying%Lu%NULL%1,                        Yunfei%Lu%NULL%1,                        Xuhui%Liu%NULL%1,                        Yuqing%Chen%NULL%2,                        Yuqing%Chen%NULL%0,                        Xin%Li%NULL%0,                        Yong%Li%NULL%0,                        Hanssa Dwarka%Summah%NULL%1,                        Huihuang%Lin%NULL%1,                        Jiayang%Yan%NULL%1,                        Min%Zhou%NULL%0,                        Hongzhou%Lu%NULL%0,                        Hongzhou%Lu%NULL%0,                        Jieming%Qu%NULL%0,                        Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,                        Bum Sik%Chin%NULL%2,                        Bum Sik%Chin%NULL%0,                        Chang Kyung%Kang%NULL%2,                        Chang Kyung%Kang%NULL%0,                        Nam Joong%Kim%NULL%2,                        Nam Joong%Kim%NULL%0,                        Yu Min%Kang%NULL%2,                        Yu Min%Kang%NULL%0,                        Jae-Phil%Choi%NULL%2,                        Jae-Phil%Choi%NULL%0,                        Dong Hyun%Oh%NULL%2,                        Dong Hyun%Oh%NULL%0,                        Jeong-Han%Kim%NULL%2,                        Jeong-Han%Kim%NULL%0,                        Boram%Koh%NULL%2,                        Boram%Koh%NULL%0,                        Seong Eun%Kim%NULL%2,                        Seong Eun%Kim%NULL%0,                        Na Ra%Yun%NULL%2,                        Na Ra%Yun%NULL%0,                        Jae-Hoon%Lee%NULL%2,                        Jae-Hoon%Lee%NULL%0,                        Jin Yong%Kim%NULL%0,                        Jin Yong%Kim%NULL%0,                        Yeonjae%Kim%NULL%2,                        Yeonjae%Kim%NULL%0,                        Ji Hwan%Bang%NULL%2,                        Ji Hwan%Bang%NULL%0,                        Kyoung-Ho%Song%NULL%3,                        Kyoung-Ho%Song%NULL%0,                        Hong Bin%Kim%NULL%3,                        Hong Bin%Kim%NULL%0,                        Ki-hyun%Chung%NULL%2,                        Ki-hyun%Chung%NULL%0,                        Myoung-don%Oh%NULL%2,                        Myoung-don%Oh%NULL%0,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                        Zhao-Wu%Tao%NULL%1,                        Lei%Wang%NULL%1,                        Ming-Li%Yuan%NULL%1,                        Kui%Liu%NULL%3,                        Ling%Zhou%NULL%2,                        Shuang%Wei%NULL%2,                        Yan%Deng%NULL%0,                        Jing%Liu%NULL%0,                        Hui-Guo%Liu%NULL%0,                        Ming%Yang%NULL%0,                        Yi%Hu%NULL%0,                        Pei-Fang%Wei%NULL%0,                        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,                        Xia%Yu%NULL%1,                        Hong%Zhao%NULL%1,                        Hao%Wang%NULL%2,                        Ruihong%Zhao%NULL%0,                        Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                        Yuan%Yu%NULL%0,                        Jiqian%Xu%NULL%0,                        Huaqing%Shu%NULL%0,                        Jia'an%Xia%NULL%0,                        Hong%Liu%NULL%0,                        Yongran%Wu%NULL%0,                        Lu%Zhang%NULL%0,                        Zhui%Yu%NULL%0,                        Minghao%Fang%NULL%0,                        Ting%Yu%NULL%0,                        Yaxin%Wang%NULL%0,                        Shangwen%Pan%NULL%0,                        Xiaojing%Zou%NULL%0,                        Shiying%Yuan%NULL%0,                        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                         Justin J.%Choi%NULL%0,                         Laura C.%Pinheiro%NULL%0,                         Edward J.%Schenck%NULL%0,                         Ruijun%Chen%NULL%0,                         Assem%Jabri%NULL%0,                         Michael J.%Satlin%NULL%0,                         Thomas R.%Campion%NULL%0,                         Musarrat%Nahid%NULL%0,                         Joanna B.%Ringel%NULL%0,                         Katherine L.%Hoffman%NULL%0,                         Mark N.%Alshak%NULL%0,                         Han A.%Li%NULL%0,                         Graham T.%Wehmeyer%NULL%0,                         Graham T.%Wehmeyer%NULL%0,                         Mangala%Rajan%NULL%0,                         Evgeniya%Reshetnyak%NULL%0,                         Nathaniel%Hupert%NULL%0,                         Evelyn M.%Horn%NULL%0,                         Fernando J.%Martinez%NULL%0,                         Roy M.%Gulick%NULL%0,                         Monika M.%Safford%NULL%0,                         Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                         Yeming%Wang%NULL%0,                         Xingwang%Li%NULL%0,                         Lili%Ren%NULL%0,                         Jianping%Zhao%NULL%0,                         Yi%Hu%NULL%0,                         Li%Zhang%NULL%0,                         Guohui%Fan%NULL%0,                         Jiuyang%Xu%NULL%0,                         Xiaoying%Gu%NULL%0,                         Zhenshun%Cheng%NULL%0,                         Ting%Yu%NULL%0,                         Jiaan%Xia%NULL%0,                         Yuan%Wei%NULL%0,                         Wenjuan%Wu%NULL%0,                         Xuelei%Xie%NULL%0,                         Wen%Yin%NULL%0,                         Hui%Li%NULL%0,                         Min%Liu%NULL%0,                         Yan%Xiao%NULL%0,                         Hong%Gao%NULL%0,                         Li%Guo%NULL%0,                         Jungang%Xie%NULL%0,                         Guangfa%Wang%NULL%0,                         Rongmeng%Jiang%NULL%0,                         Zhancheng%Gao%NULL%0,                         Qi%Jin%NULL%0,                         Jianwei%Wang%wangjw28@163.com%0,                         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                         Yi%Xiang%NULL%1,                         Wei%Fang%NULL%0,                         Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                         Boqun%Li%279685211@qq.com%2,                         Boqun%Li%279685211@qq.com%0,                         Yanjun%Hu%huyanjun@163.com%1,                         Chunhui%Lang%NULL%1,                         Daoqiu%Huang%NULL%1,                         Qiuyan%Sun%NULL%1,                         Yan%Xiong%NULL%2,                         Xia%Huang%NULL%1,                         Jinglong%Lv%NULL%1,                         Yaling%Luo%NULL%1,                         Li%Shen%NULL%1,                         Haoran%Yang%NULL%1,                         Gu%Huang%NULL%1,                         Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                         Min%Pan%NULL%0,                         Xiumei%Zhang%NULL%0,                         Mingfeng%Han%fyhmf@163.com%0,                         Xiaoyun%Fan%13956988552@126.com%0,                         Fengde%Zhao%NULL%0,                         Manli%Miao%NULL%0,                         Jing%Xu%NULL%0,                         Minglong%Guan%NULL%0,                         Xia%Deng%NULL%0,                         Xu%Chen%NULL%0,                         Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,                         Huan%Cai%NULL%0,                         Jianhua%Hu%NULL%0,                         Jiangshan%Lian%NULL%0,                         Jueqing%Gu%NULL%0,                         Shanyan%Zhang%NULL%0,                         Chanyuan%Ye%NULL%1,                         Yingfeng%Lu%NULL%0,                         Ciliang%Jin%NULL%0,                         Guodong%Yu%NULL%0,                         Hongyu%Jia%NULL%0,                         Yimin%Zhang%NULL%0,                         Jifang%Sheng%jifang_sheng@zju.edu.cn%0,                         Lanjuan%Li%ljli@zju.edu.cn%2,                         Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                         Ting%Yu%NULL%0,                         Ronghui%Du%NULL%0,                         Guohui%Fan%NULL%0,                         Ying%Liu%NULL%0,                         Zhibo%Liu%NULL%0,                         Jie%Xiang%NULL%0,                         Yeming%Wang%NULL%0,                         Bin%Song%NULL%0,                         Xiaoying%Gu%NULL%0,                         Lulu%Guan%NULL%0,                         Yuan%Wei%NULL%0,                         Hui%Li%NULL%0,                         Xudong%Wu%NULL%0,                         Jiuyang%Xu%NULL%0,                         Shengjin%Tu%NULL%0,                         Yi%Zhang%NULL%0,                         Hua%Chen%NULL%0,                         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0,                         Nancy%Chow%NULL%1,                         Katherine%Fleming-Dutra%NULL%1,                         Ryan%Gierke%NULL%1,                         Aron%Hall%NULL%1,                         Michelle%Hughes%NULL%1,                         Tamara%Pilishvili%NULL%1,                         Matthew%Ritchey%NULL%1,                         Katherine%Roguski%NULL%1,                         Tami%Skoff%NULL%1,                         Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                         Di%Wu%NULL%0,                         Huilong%Chen%NULL%0,                         Weiming%Yan%NULL%0,                         Danlei%Yang%NULL%0,                         Guang%Chen%NULL%0,                         Ke%Ma%NULL%0,                         Dong%Xu%NULL%0,                         Haijing%Yu%NULL%0,                         Hongwu%Wang%NULL%0,                         Tao%Wang%NULL%0,                         Wei%Guo%NULL%0,                         Jia%Chen%NULL%0,                         Chen%Ding%NULL%0,                         Xiaoping%Zhang%NULL%0,                         Jiaquan%Huang%NULL%0,                         Meifang%Han%NULL%0,                         Shusheng%Li%NULL%0,                         Xiaoping%Luo%NULL%0,                         Jianping%Zhao%NULL%0,                         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                         Zheng-yi%Ni%NULL%0,                         Zheng-yi%Ni%NULL%0,                         Yu%Hu%NULL%0,                         Wen-hua%Liang%NULL%0,                         Chun-quan%Ou%NULL%0,                         Jian-xing%He%NULL%0,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chun-liang%Lei%NULL%0,                         David S.C.%Hui%NULL%0,                         Bin%Du%NULL%0,                         Lan-juan%Li%NULL%0,                         Guang%Zeng%NULL%0,                         Kwok-Yung%Yuen%NULL%0,                         Ru-chong%Chen%NULL%0,                         Chun-li%Tang%NULL%0,                         Tao%Wang%NULL%0,                         Ping-yan%Chen%NULL%0,                         Jie%Xiang%NULL%0,                         Shi-yue%Li%NULL%0,                         Jin-lin%Wang%NULL%0,                         Zi-jing%Liang%NULL%0,                         Yi-xiang%Peng%NULL%0,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Ya-hua%Hu%NULL%0,                         Peng%Peng%NULL%0,                         Jian-ming%Wang%NULL%0,                         Ji-yang%Liu%NULL%0,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhi-jian%Zheng%NULL%0,                         Shao-qin%Qiu%NULL%0,                         Jie%Luo%NULL%0,                         Chang-jiang%Ye%NULL%0,                         Shao-yong%Zhu%NULL%0,                         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                         Shuyun%Xu%NULL%2,                         Muqing%Yu%NULL%2,                         Ke%Wang%NULL%3,                         Yu%Tao%NULL%4,                         Ying%Zhou%NULL%0,                         Jing%Shi%NULL%2,                         Min%Zhou%NULL%0,                         Bo%Wu%NULL%2,                         Zhenyu%Yang%NULL%2,                         Cong%Zhang%NULL%2,                         Junqing%Yue%NULL%2,                         Zhiguo%Zhang%NULL%2,                         Harald%Renz%NULL%2,                         Xiansheng%Liu%NULL%2,                         Jungang%Xie%NULL%0,                         Min%Xie%NULL%2,                         Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                        Cao%Yi-yuan%coreGivesNoEmail%2,                        Dong%Xiang%coreGivesNoEmail%2,                        Gao%Ya-dong%coreGivesNoEmail%2,                        Yan%You-qin%coreGivesNoEmail%2,                        Yang%Yi-bin%coreGivesNoEmail%2,                        Yuan%Ya-dong%coreGivesNoEmail%2,                        Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                         Yun%Ling%NULL%0,                         Yun%Ling%NULL%0,                         Tao%Bai%NULL%2,                         Tao%Bai%NULL%0,                         Yusang%Xie%NULL%1,                         Jie%Huang%NULL%2,                         Jie%Huang%NULL%0,                         Jian%Li%NULL%1,                         Weining%Xiong%NULL%1,                         Dexiang%Yang%NULL%1,                         Rong%Chen%NULL%1,                         Fangying%Lu%NULL%1,                         Yunfei%Lu%NULL%1,                         Xuhui%Liu%NULL%1,                         Yuqing%Chen%NULL%2,                         Yuqing%Chen%NULL%0,                         Xin%Li%NULL%0,                         Yong%Li%NULL%0,                         Hanssa Dwarka%Summah%NULL%1,                         Huihuang%Lin%NULL%1,                         Jiayang%Yan%NULL%1,                         Min%Zhou%NULL%0,                         Hongzhou%Lu%NULL%0,                         Hongzhou%Lu%NULL%0,                         Jieming%Qu%NULL%0,                         Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,                         Bum Sik%Chin%NULL%2,                         Bum Sik%Chin%NULL%0,                         Chang Kyung%Kang%NULL%2,                         Chang Kyung%Kang%NULL%0,                         Nam Joong%Kim%NULL%2,                         Nam Joong%Kim%NULL%0,                         Yu Min%Kang%NULL%2,                         Yu Min%Kang%NULL%0,                         Jae-Phil%Choi%NULL%2,                         Jae-Phil%Choi%NULL%0,                         Dong Hyun%Oh%NULL%2,                         Dong Hyun%Oh%NULL%0,                         Jeong-Han%Kim%NULL%2,                         Jeong-Han%Kim%NULL%0,                         Boram%Koh%NULL%2,                         Boram%Koh%NULL%0,                         Seong Eun%Kim%NULL%2,                         Seong Eun%Kim%NULL%0,                         Na Ra%Yun%NULL%2,                         Na Ra%Yun%NULL%0,                         Jae-Hoon%Lee%NULL%2,                         Jae-Hoon%Lee%NULL%0,                         Jin Yong%Kim%NULL%0,                         Jin Yong%Kim%NULL%0,                         Yeonjae%Kim%NULL%2,                         Yeonjae%Kim%NULL%0,                         Ji Hwan%Bang%NULL%2,                         Ji Hwan%Bang%NULL%0,                         Kyoung-Ho%Song%NULL%3,                         Kyoung-Ho%Song%NULL%0,                         Hong Bin%Kim%NULL%3,                         Hong Bin%Kim%NULL%0,                         Ki-hyun%Chung%NULL%2,                         Ki-hyun%Chung%NULL%0,                         Myoung-don%Oh%NULL%2,                         Myoung-don%Oh%NULL%0,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                         Zhao-Wu%Tao%NULL%1,                         Lei%Wang%NULL%1,                         Ming-Li%Yuan%NULL%1,                         Kui%Liu%NULL%3,                         Ling%Zhou%NULL%2,                         Shuang%Wei%NULL%2,                         Yan%Deng%NULL%0,                         Jing%Liu%NULL%0,                         Hui-Guo%Liu%NULL%0,                         Ming%Yang%NULL%0,                         Yi%Hu%NULL%0,                         Pei-Fang%Wei%NULL%0,                         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,                         Xia%Yu%NULL%1,                         Hong%Zhao%NULL%1,                         Hao%Wang%NULL%2,                         Ruihong%Zhao%NULL%0,                         Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                         Yuan%Yu%NULL%0,                         Jiqian%Xu%NULL%0,                         Huaqing%Shu%NULL%0,                         Jia'an%Xia%NULL%0,                         Hong%Liu%NULL%0,                         Yongran%Wu%NULL%0,                         Lu%Zhang%NULL%0,                         Zhui%Yu%NULL%0,                         Minghao%Fang%NULL%0,                         Ting%Yu%NULL%0,                         Yaxin%Wang%NULL%0,                         Shangwen%Pan%NULL%0,                         Xiaojing%Zou%NULL%0,                         Shiying%Yuan%NULL%0,                         You%Shang%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1821,6 +2064,9 @@
       <c r="I1" t="s">
         <v>117</v>
       </c>
+      <c r="J1" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1836,7 +2082,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>397</v>
+        <v>478</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1849,6 +2095,9 @@
       </c>
       <c r="I2" t="s">
         <v>378</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -1865,7 +2114,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1878,6 +2127,9 @@
       </c>
       <c r="I3" t="s">
         <v>380</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -1894,7 +2146,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1907,6 +2159,9 @@
       </c>
       <c r="I4" t="s">
         <v>378</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1923,7 +2178,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>400</v>
+        <v>481</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1936,6 +2191,9 @@
       </c>
       <c r="I5" t="s">
         <v>380</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1952,7 +2210,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>401</v>
+        <v>482</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1965,6 +2223,9 @@
       </c>
       <c r="I6" t="s">
         <v>380</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -1981,7 +2242,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>402</v>
+        <v>483</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1994,6 +2255,9 @@
       </c>
       <c r="I7" t="s">
         <v>380</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -2010,7 +2274,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>403</v>
+        <v>484</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
@@ -2023,6 +2287,9 @@
       </c>
       <c r="I8" t="s">
         <v>378</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -2039,7 +2306,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>404</v>
+        <v>485</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -2052,6 +2319,9 @@
       </c>
       <c r="I9" t="s">
         <v>378</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -2068,7 +2338,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2081,6 +2351,9 @@
       </c>
       <c r="I10" t="s">
         <v>378</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -2097,7 +2370,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>406</v>
+        <v>487</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2110,6 +2383,9 @@
       </c>
       <c r="I11" t="s">
         <v>380</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -2126,7 +2402,7 @@
         <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>407</v>
+        <v>488</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -2139,6 +2415,9 @@
       </c>
       <c r="I12" t="s">
         <v>390</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2434,7 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -2168,6 +2447,9 @@
       </c>
       <c r="I13" t="s">
         <v>378</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -2184,7 +2466,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>409</v>
+        <v>490</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -2197,6 +2479,9 @@
       </c>
       <c r="I14" t="s">
         <v>378</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -2213,7 +2498,7 @@
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>410</v>
+        <v>491</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
@@ -2226,6 +2511,9 @@
       </c>
       <c r="I15" t="s">
         <v>378</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -2242,7 +2530,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -2255,6 +2543,9 @@
       </c>
       <c r="I16" t="s">
         <v>395</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -2271,7 +2562,7 @@
         <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>412</v>
+        <v>493</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>
@@ -2284,6 +2575,9 @@
       </c>
       <c r="I17" t="s">
         <v>380</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/65.xlsx
+++ b/Covid_19_Dataset_and_References/References/65.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3453" uniqueCount="526">
   <si>
     <t>Doi</t>
   </si>
@@ -1715,6 +1715,102 @@
   </si>
   <si>
     <t>[Xiaobo%Yang%NULL%0,                         Yuan%Yu%NULL%0,                         Jiqian%Xu%NULL%0,                         Huaqing%Shu%NULL%0,                         Jia'an%Xia%NULL%0,                         Hong%Liu%NULL%0,                         Yongran%Wu%NULL%0,                         Lu%Zhang%NULL%0,                         Zhui%Yu%NULL%0,                         Minghao%Fang%NULL%0,                         Ting%Yu%NULL%0,                         Yaxin%Wang%NULL%0,                         Shangwen%Pan%NULL%0,                         Xiaojing%Zou%NULL%0,                         Shiying%Yuan%NULL%0,                         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                          Justin J.%Choi%NULL%0,                          Laura C.%Pinheiro%NULL%0,                          Edward J.%Schenck%NULL%0,                          Ruijun%Chen%NULL%0,                          Assem%Jabri%NULL%0,                          Michael J.%Satlin%NULL%0,                          Thomas R.%Campion%NULL%0,                          Musarrat%Nahid%NULL%0,                          Joanna B.%Ringel%NULL%0,                          Katherine L.%Hoffman%NULL%0,                          Mark N.%Alshak%NULL%0,                          Han A.%Li%NULL%0,                          Graham T.%Wehmeyer%NULL%0,                          Graham T.%Wehmeyer%NULL%0,                          Mangala%Rajan%NULL%0,                          Evgeniya%Reshetnyak%NULL%0,                          Nathaniel%Hupert%NULL%0,                          Evelyn M.%Horn%NULL%0,                          Fernando J.%Martinez%NULL%0,                          Roy M.%Gulick%NULL%0,                          Monika M.%Safford%NULL%0,                          Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                          Yeming%Wang%NULL%0,                          Xingwang%Li%NULL%0,                          Lili%Ren%NULL%0,                          Jianping%Zhao%NULL%0,                          Yi%Hu%NULL%0,                          Li%Zhang%NULL%0,                          Guohui%Fan%NULL%0,                          Jiuyang%Xu%NULL%0,                          Xiaoying%Gu%NULL%0,                          Zhenshun%Cheng%NULL%0,                          Ting%Yu%NULL%0,                          Jiaan%Xia%NULL%0,                          Yuan%Wei%NULL%0,                          Wenjuan%Wu%NULL%0,                          Xuelei%Xie%NULL%0,                          Wen%Yin%NULL%0,                          Hui%Li%NULL%0,                          Min%Liu%NULL%0,                          Yan%Xiao%NULL%0,                          Hong%Gao%NULL%0,                          Li%Guo%NULL%0,                          Jungang%Xie%NULL%0,                          Guangfa%Wang%NULL%0,                          Rongmeng%Jiang%NULL%0,                          Zhancheng%Gao%NULL%0,                          Qi%Jin%NULL%0,                          Jianwei%Wang%wangjw28@163.com%0,                          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                          Yi%Xiang%NULL%1,                          Wei%Fang%NULL%0,                          Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                          Boqun%Li%279685211@qq.com%2,                          Boqun%Li%279685211@qq.com%0,                          Yanjun%Hu%huyanjun@163.com%1,                          Chunhui%Lang%NULL%1,                          Daoqiu%Huang%NULL%1,                          Qiuyan%Sun%NULL%1,                          Yan%Xiong%NULL%2,                          Xia%Huang%NULL%1,                          Jinglong%Lv%NULL%1,                          Yaling%Luo%NULL%1,                          Li%Shen%NULL%1,                          Haoran%Yang%NULL%1,                          Gu%Huang%NULL%1,                          Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                          Min%Pan%NULL%0,                          Xiumei%Zhang%NULL%0,                          Mingfeng%Han%fyhmf@163.com%0,                          Xiaoyun%Fan%13956988552@126.com%0,                          Fengde%Zhao%NULL%0,                          Manli%Miao%NULL%0,                          Jing%Xu%NULL%0,                          Minglong%Guan%NULL%0,                          Xia%Deng%NULL%0,                          Xu%Chen%NULL%0,                          Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,                          Huan%Cai%NULL%0,                          Jianhua%Hu%NULL%0,                          Jiangshan%Lian%NULL%0,                          Jueqing%Gu%NULL%0,                          Shanyan%Zhang%NULL%0,                          Chanyuan%Ye%NULL%1,                          Yingfeng%Lu%NULL%0,                          Ciliang%Jin%NULL%0,                          Guodong%Yu%NULL%0,                          Hongyu%Jia%NULL%0,                          Yimin%Zhang%NULL%0,                          Jifang%Sheng%jifang_sheng@zju.edu.cn%0,                          Lanjuan%Li%ljli@zju.edu.cn%2,                          Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                          Ting%Yu%NULL%0,                          Ronghui%Du%NULL%0,                          Guohui%Fan%NULL%0,                          Ying%Liu%NULL%0,                          Zhibo%Liu%NULL%0,                          Jie%Xiang%NULL%0,                          Yeming%Wang%NULL%0,                          Bin%Song%NULL%0,                          Xiaoying%Gu%NULL%0,                          Lulu%Guan%NULL%0,                          Yuan%Wei%NULL%0,                          Hui%Li%NULL%0,                          Xudong%Wu%NULL%0,                          Jiuyang%Xu%NULL%0,                          Shengjin%Tu%NULL%0,                          Yi%Zhang%NULL%0,                          Hua%Chen%NULL%0,                          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0,                          Nancy%Chow%NULL%1,                          Katherine%Fleming-Dutra%NULL%1,                          Ryan%Gierke%NULL%1,                          Aron%Hall%NULL%1,                          Michelle%Hughes%NULL%1,                          Tamara%Pilishvili%NULL%1,                          Matthew%Ritchey%NULL%1,                          Katherine%Roguski%NULL%1,                          Tami%Skoff%NULL%1,                          Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                          Di%Wu%NULL%0,                          Huilong%Chen%NULL%0,                          Weiming%Yan%NULL%0,                          Danlei%Yang%NULL%0,                          Guang%Chen%NULL%0,                          Ke%Ma%NULL%0,                          Dong%Xu%NULL%0,                          Haijing%Yu%NULL%0,                          Hongwu%Wang%NULL%0,                          Tao%Wang%NULL%0,                          Wei%Guo%NULL%0,                          Jia%Chen%NULL%0,                          Chen%Ding%NULL%0,                          Xiaoping%Zhang%NULL%0,                          Jiaquan%Huang%NULL%0,                          Meifang%Han%NULL%0,                          Shusheng%Li%NULL%0,                          Xiaoping%Luo%NULL%0,                          Jianping%Zhao%NULL%0,                          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                          Zheng-yi%Ni%NULL%0,                          Zheng-yi%Ni%NULL%0,                          Yu%Hu%NULL%0,                          Wen-hua%Liang%NULL%0,                          Chun-quan%Ou%NULL%0,                          Jian-xing%He%NULL%0,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chun-liang%Lei%NULL%0,                          David S.C.%Hui%NULL%0,                          Bin%Du%NULL%0,                          Lan-juan%Li%NULL%0,                          Guang%Zeng%NULL%0,                          Kwok-Yung%Yuen%NULL%0,                          Ru-chong%Chen%NULL%0,                          Chun-li%Tang%NULL%0,                          Tao%Wang%NULL%0,                          Ping-yan%Chen%NULL%0,                          Jie%Xiang%NULL%0,                          Shi-yue%Li%NULL%0,                          Jin-lin%Wang%NULL%0,                          Zi-jing%Liang%NULL%0,                          Yi-xiang%Peng%NULL%0,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Ya-hua%Hu%NULL%0,                          Peng%Peng%NULL%0,                          Jian-ming%Wang%NULL%0,                          Ji-yang%Liu%NULL%0,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhi-jian%Zheng%NULL%0,                          Shao-qin%Qiu%NULL%0,                          Jie%Luo%NULL%0,                          Chang-jiang%Ye%NULL%0,                          Shao-yong%Zhu%NULL%0,                          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                          Shuyun%Xu%NULL%2,                          Muqing%Yu%NULL%2,                          Ke%Wang%NULL%3,                          Yu%Tao%NULL%4,                          Ying%Zhou%NULL%0,                          Jing%Shi%NULL%2,                          Min%Zhou%NULL%0,                          Bo%Wu%NULL%2,                          Zhenyu%Yang%NULL%2,                          Cong%Zhang%NULL%2,                          Junqing%Yue%NULL%2,                          Zhiguo%Zhang%NULL%2,                          Harald%Renz%NULL%2,                          Xiansheng%Liu%NULL%2,                          Jungang%Xie%NULL%0,                          Min%Xie%NULL%2,                          Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                         Cao%Yi-yuan%coreGivesNoEmail%2,                         Dong%Xiang%coreGivesNoEmail%2,                         Gao%Ya-dong%coreGivesNoEmail%2,                         Yan%You-qin%coreGivesNoEmail%2,                         Yang%Yi-bin%coreGivesNoEmail%2,                         Yuan%Ya-dong%coreGivesNoEmail%2,                         Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                          Yun%Ling%NULL%0,                          Yun%Ling%NULL%0,                          Tao%Bai%NULL%2,                          Tao%Bai%NULL%0,                          Yusang%Xie%NULL%1,                          Jie%Huang%NULL%2,                          Jie%Huang%NULL%0,                          Jian%Li%NULL%1,                          Weining%Xiong%NULL%1,                          Dexiang%Yang%NULL%1,                          Rong%Chen%NULL%1,                          Fangying%Lu%NULL%1,                          Yunfei%Lu%NULL%1,                          Xuhui%Liu%NULL%1,                          Yuqing%Chen%NULL%2,                          Yuqing%Chen%NULL%0,                          Xin%Li%NULL%0,                          Yong%Li%NULL%0,                          Hanssa Dwarka%Summah%NULL%1,                          Huihuang%Lin%NULL%1,                          Jiayang%Yan%NULL%1,                          Min%Zhou%NULL%0,                          Hongzhou%Lu%NULL%0,                          Hongzhou%Lu%NULL%0,                          Jieming%Qu%NULL%0,                          Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,                          Bum Sik%Chin%NULL%2,                          Bum Sik%Chin%NULL%0,                          Chang Kyung%Kang%NULL%2,                          Chang Kyung%Kang%NULL%0,                          Nam Joong%Kim%NULL%2,                          Nam Joong%Kim%NULL%0,                          Yu Min%Kang%NULL%2,                          Yu Min%Kang%NULL%0,                          Jae-Phil%Choi%NULL%2,                          Jae-Phil%Choi%NULL%0,                          Dong Hyun%Oh%NULL%2,                          Dong Hyun%Oh%NULL%0,                          Jeong-Han%Kim%NULL%2,                          Jeong-Han%Kim%NULL%0,                          Boram%Koh%NULL%2,                          Boram%Koh%NULL%0,                          Seong Eun%Kim%NULL%2,                          Seong Eun%Kim%NULL%0,                          Na Ra%Yun%NULL%2,                          Na Ra%Yun%NULL%0,                          Jae-Hoon%Lee%NULL%2,                          Jae-Hoon%Lee%NULL%0,                          Jin Yong%Kim%NULL%0,                          Jin Yong%Kim%NULL%0,                          Yeonjae%Kim%NULL%2,                          Yeonjae%Kim%NULL%0,                          Ji Hwan%Bang%NULL%2,                          Ji Hwan%Bang%NULL%0,                          Kyoung-Ho%Song%NULL%3,                          Kyoung-Ho%Song%NULL%0,                          Hong Bin%Kim%NULL%3,                          Hong Bin%Kim%NULL%0,                          Ki-hyun%Chung%NULL%2,                          Ki-hyun%Chung%NULL%0,                          Myoung-don%Oh%NULL%2,                          Myoung-don%Oh%NULL%0,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                          Zhao-Wu%Tao%NULL%1,                          Lei%Wang%NULL%1,                          Ming-Li%Yuan%NULL%1,                          Kui%Liu%NULL%3,                          Ling%Zhou%NULL%2,                          Shuang%Wei%NULL%2,                          Yan%Deng%NULL%0,                          Jing%Liu%NULL%0,                          Hui-Guo%Liu%NULL%0,                          Ming%Yang%NULL%0,                          Yi%Hu%NULL%0,                          Pei-Fang%Wei%NULL%0,                          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,                          Xia%Yu%NULL%1,                          Hong%Zhao%NULL%1,                          Hao%Wang%NULL%2,                          Ruihong%Zhao%NULL%0,                          Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                          Yuan%Yu%NULL%0,                          Jiqian%Xu%NULL%0,                          Huaqing%Shu%NULL%0,                          Jia'an%Xia%NULL%0,                          Hong%Liu%NULL%0,                          Yongran%Wu%NULL%0,                          Lu%Zhang%NULL%0,                          Zhui%Yu%NULL%0,                          Minghao%Fang%NULL%0,                          Ting%Yu%NULL%0,                          Yaxin%Wang%NULL%0,                          Shangwen%Pan%NULL%0,                          Xiaojing%Zou%NULL%0,                          Shiying%Yuan%NULL%0,                          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                           Justin J.%Choi%NULL%0,                           Laura C.%Pinheiro%NULL%0,                           Edward J.%Schenck%NULL%0,                           Ruijun%Chen%NULL%0,                           Assem%Jabri%NULL%0,                           Michael J.%Satlin%NULL%0,                           Thomas R.%Campion%NULL%0,                           Musarrat%Nahid%NULL%0,                           Joanna B.%Ringel%NULL%0,                           Katherine L.%Hoffman%NULL%0,                           Mark N.%Alshak%NULL%0,                           Han A.%Li%NULL%0,                           Graham T.%Wehmeyer%NULL%0,                           Graham T.%Wehmeyer%NULL%0,                           Mangala%Rajan%NULL%0,                           Evgeniya%Reshetnyak%NULL%0,                           Nathaniel%Hupert%NULL%0,                           Evelyn M.%Horn%NULL%0,                           Fernando J.%Martinez%NULL%0,                           Roy M.%Gulick%NULL%0,                           Monika M.%Safford%NULL%0,                           Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                           Yeming%Wang%NULL%0,                           Xingwang%Li%NULL%0,                           Lili%Ren%NULL%0,                           Jianping%Zhao%NULL%0,                           Yi%Hu%NULL%0,                           Li%Zhang%NULL%0,                           Guohui%Fan%NULL%0,                           Jiuyang%Xu%NULL%0,                           Xiaoying%Gu%NULL%0,                           Zhenshun%Cheng%NULL%0,                           Ting%Yu%NULL%0,                           Jiaan%Xia%NULL%0,                           Yuan%Wei%NULL%0,                           Wenjuan%Wu%NULL%0,                           Xuelei%Xie%NULL%0,                           Wen%Yin%NULL%0,                           Hui%Li%NULL%0,                           Min%Liu%NULL%0,                           Yan%Xiao%NULL%0,                           Hong%Gao%NULL%0,                           Li%Guo%NULL%0,                           Jungang%Xie%NULL%0,                           Guangfa%Wang%NULL%0,                           Rongmeng%Jiang%NULL%0,                           Zhancheng%Gao%NULL%0,                           Qi%Jin%NULL%0,                           Jianwei%Wang%wangjw28@163.com%0,                           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                           Yi%Xiang%NULL%1,                           Wei%Fang%NULL%0,                           Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                           Boqun%Li%279685211@qq.com%2,                           Boqun%Li%279685211@qq.com%0,                           Yanjun%Hu%huyanjun@163.com%1,                           Chunhui%Lang%NULL%1,                           Daoqiu%Huang%NULL%1,                           Qiuyan%Sun%NULL%1,                           Yan%Xiong%NULL%2,                           Xia%Huang%NULL%1,                           Jinglong%Lv%NULL%1,                           Yaling%Luo%NULL%1,                           Li%Shen%NULL%1,                           Haoran%Yang%NULL%1,                           Gu%Huang%NULL%1,                           Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                           Min%Pan%NULL%0,                           Xiumei%Zhang%NULL%0,                           Mingfeng%Han%fyhmf@163.com%0,                           Xiaoyun%Fan%13956988552@126.com%0,                           Fengde%Zhao%NULL%0,                           Manli%Miao%NULL%0,                           Jing%Xu%NULL%0,                           Minglong%Guan%NULL%0,                           Xia%Deng%NULL%0,                           Xu%Chen%NULL%0,                           Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0,                           Huan%Cai%NULL%0,                           Jianhua%Hu%NULL%0,                           Jiangshan%Lian%NULL%0,                           Jueqing%Gu%NULL%0,                           Shanyan%Zhang%NULL%0,                           Chanyuan%Ye%NULL%1,                           Yingfeng%Lu%NULL%0,                           Ciliang%Jin%NULL%0,                           Guodong%Yu%NULL%0,                           Hongyu%Jia%NULL%0,                           Yimin%Zhang%NULL%0,                           Jifang%Sheng%jifang_sheng@zju.edu.cn%0,                           Lanjuan%Li%ljli@zju.edu.cn%2,                           Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                           Ting%Yu%NULL%0,                           Ronghui%Du%NULL%0,                           Guohui%Fan%NULL%0,                           Ying%Liu%NULL%0,                           Zhibo%Liu%NULL%0,                           Jie%Xiang%NULL%0,                           Yeming%Wang%NULL%0,                           Bin%Song%NULL%0,                           Xiaoying%Gu%NULL%0,                           Lulu%Guan%NULL%0,                           Yuan%Wei%NULL%0,                           Hui%Li%NULL%0,                           Xudong%Wu%NULL%0,                           Jiuyang%Xu%NULL%0,                           Shengjin%Tu%NULL%0,                           Yi%Zhang%NULL%0,                           Hua%Chen%NULL%0,                           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0,                           Nancy%Chow%NULL%1,                           Katherine%Fleming-Dutra%NULL%1,                           Ryan%Gierke%NULL%1,                           Aron%Hall%NULL%1,                           Michelle%Hughes%NULL%1,                           Tamara%Pilishvili%NULL%1,                           Matthew%Ritchey%NULL%1,                           Katherine%Roguski%NULL%1,                           Tami%Skoff%NULL%1,                           Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                           Di%Wu%NULL%0,                           Huilong%Chen%NULL%0,                           Weiming%Yan%NULL%0,                           Danlei%Yang%NULL%0,                           Guang%Chen%NULL%0,                           Ke%Ma%NULL%0,                           Dong%Xu%NULL%0,                           Haijing%Yu%NULL%0,                           Hongwu%Wang%NULL%0,                           Tao%Wang%NULL%0,                           Wei%Guo%NULL%0,                           Jia%Chen%NULL%0,                           Chen%Ding%NULL%0,                           Xiaoping%Zhang%NULL%0,                           Jiaquan%Huang%NULL%0,                           Meifang%Han%NULL%0,                           Shusheng%Li%NULL%0,                           Xiaoping%Luo%NULL%0,                           Jianping%Zhao%NULL%0,                           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                           Zheng-yi%Ni%NULL%0,                           Zheng-yi%Ni%NULL%0,                           Yu%Hu%NULL%0,                           Wen-hua%Liang%NULL%0,                           Chun-quan%Ou%NULL%0,                           Jian-xing%He%NULL%0,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chun-liang%Lei%NULL%0,                           David S.C.%Hui%NULL%0,                           Bin%Du%NULL%0,                           Lan-juan%Li%NULL%0,                           Guang%Zeng%NULL%0,                           Kwok-Yung%Yuen%NULL%0,                           Ru-chong%Chen%NULL%0,                           Chun-li%Tang%NULL%0,                           Tao%Wang%NULL%0,                           Ping-yan%Chen%NULL%0,                           Jie%Xiang%NULL%0,                           Shi-yue%Li%NULL%0,                           Jin-lin%Wang%NULL%0,                           Zi-jing%Liang%NULL%0,                           Yi-xiang%Peng%NULL%0,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Ya-hua%Hu%NULL%0,                           Peng%Peng%NULL%0,                           Jian-ming%Wang%NULL%0,                           Ji-yang%Liu%NULL%0,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhi-jian%Zheng%NULL%0,                           Shao-qin%Qiu%NULL%0,                           Jie%Luo%NULL%0,                           Chang-jiang%Ye%NULL%0,                           Shao-yong%Zhu%NULL%0,                           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                           Shuyun%Xu%NULL%2,                           Muqing%Yu%NULL%2,                           Ke%Wang%NULL%3,                           Yu%Tao%NULL%4,                           Ying%Zhou%NULL%0,                           Jing%Shi%NULL%2,                           Min%Zhou%NULL%0,                           Bo%Wu%NULL%2,                           Zhenyu%Yang%NULL%2,                           Cong%Zhang%NULL%2,                           Junqing%Yue%NULL%2,                           Zhiguo%Zhang%NULL%2,                           Harald%Renz%NULL%2,                           Xiansheng%Liu%NULL%2,                           Jungang%Xie%NULL%0,                           Min%Xie%NULL%2,                           Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                          Cao%Yi-yuan%coreGivesNoEmail%2,                          Dong%Xiang%coreGivesNoEmail%2,                          Gao%Ya-dong%coreGivesNoEmail%2,                          Yan%You-qin%coreGivesNoEmail%2,                          Yang%Yi-bin%coreGivesNoEmail%2,                          Yuan%Ya-dong%coreGivesNoEmail%2,                          Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                           Yun%Ling%NULL%0,                           Yun%Ling%NULL%0,                           Tao%Bai%NULL%2,                           Tao%Bai%NULL%0,                           Yusang%Xie%NULL%1,                           Jie%Huang%NULL%2,                           Jie%Huang%NULL%0,                           Jian%Li%NULL%1,                           Weining%Xiong%NULL%1,                           Dexiang%Yang%NULL%1,                           Rong%Chen%NULL%1,                           Fangying%Lu%NULL%1,                           Yunfei%Lu%NULL%1,                           Xuhui%Liu%NULL%1,                           Yuqing%Chen%NULL%2,                           Yuqing%Chen%NULL%0,                           Xin%Li%NULL%0,                           Yong%Li%NULL%0,                           Hanssa Dwarka%Summah%NULL%1,                           Huihuang%Lin%NULL%1,                           Jiayang%Yan%NULL%1,                           Min%Zhou%NULL%0,                           Hongzhou%Lu%NULL%0,                           Hongzhou%Lu%NULL%0,                           Jieming%Qu%NULL%0,                           Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eu Suk%Kim%NULL%1,                           Bum Sik%Chin%NULL%2,                           Bum Sik%Chin%NULL%0,                           Chang Kyung%Kang%NULL%2,                           Chang Kyung%Kang%NULL%0,                           Nam Joong%Kim%NULL%2,                           Nam Joong%Kim%NULL%0,                           Yu Min%Kang%NULL%2,                           Yu Min%Kang%NULL%0,                           Jae-Phil%Choi%NULL%2,                           Jae-Phil%Choi%NULL%0,                           Dong Hyun%Oh%NULL%2,                           Dong Hyun%Oh%NULL%0,                           Jeong-Han%Kim%NULL%2,                           Jeong-Han%Kim%NULL%0,                           Boram%Koh%NULL%2,                           Boram%Koh%NULL%0,                           Seong Eun%Kim%NULL%2,                           Seong Eun%Kim%NULL%0,                           Na Ra%Yun%NULL%2,                           Na Ra%Yun%NULL%0,                           Jae-Hoon%Lee%NULL%2,                           Jae-Hoon%Lee%NULL%0,                           Jin Yong%Kim%NULL%0,                           Jin Yong%Kim%NULL%0,                           Yeonjae%Kim%NULL%2,                           Yeonjae%Kim%NULL%0,                           Ji Hwan%Bang%NULL%2,                           Ji Hwan%Bang%NULL%0,                           Kyoung-Ho%Song%NULL%3,                           Kyoung-Ho%Song%NULL%0,                           Hong Bin%Kim%NULL%3,                           Hong Bin%Kim%NULL%0,                           Ki-hyun%Chung%NULL%2,                           Ki-hyun%Chung%NULL%0,                           Myoung-don%Oh%NULL%2,                           Myoung-don%Oh%NULL%0,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                           Zhao-Wu%Tao%NULL%1,                           Lei%Wang%NULL%1,                           Ming-Li%Yuan%NULL%1,                           Kui%Liu%NULL%3,                           Ling%Zhou%NULL%2,                           Shuang%Wei%NULL%2,                           Yan%Deng%NULL%0,                           Jing%Liu%NULL%0,                           Hui-Guo%Liu%NULL%0,                           Ming%Yang%NULL%0,                           Yi%Hu%NULL%0,                           Pei-Fang%Wei%NULL%0,                           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu%Shi%NULL%1,                           Xia%Yu%NULL%1,                           Hong%Zhao%NULL%1,                           Hao%Wang%NULL%2,                           Ruihong%Zhao%NULL%0,                           Jifang%Sheng%jifang_sheng@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                           Yuan%Yu%NULL%0,                           Jiqian%Xu%NULL%0,                           Huaqing%Shu%NULL%0,                           Jia'an%Xia%NULL%0,                           Hong%Liu%NULL%0,                           Yongran%Wu%NULL%0,                           Lu%Zhang%NULL%0,                           Zhui%Yu%NULL%0,                           Minghao%Fang%NULL%0,                           Ting%Yu%NULL%0,                           Yaxin%Wang%NULL%0,                           Shangwen%Pan%NULL%0,                           Xiaojing%Zou%NULL%0,                           Shiying%Yuan%NULL%0,                           You%Shang%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2178,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -2114,7 +2210,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -2146,7 +2242,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -2178,7 +2274,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -2210,7 +2306,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>482</v>
+        <v>514</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -2242,7 +2338,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>483</v>
+        <v>515</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -2274,7 +2370,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
@@ -2306,7 +2402,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -2338,7 +2434,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2370,7 +2466,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>487</v>
+        <v>519</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2402,7 +2498,7 @@
         <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -2434,7 +2530,7 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -2466,7 +2562,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -2498,7 +2594,7 @@
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
@@ -2530,7 +2626,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -2562,7 +2658,7 @@
         <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>493</v>
+        <v>525</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>
